--- a/data/люди паспорта.xlsx
+++ b/data/люди паспорта.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ussti/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{885810C8-23BA-6548-B85C-59BD69AE5BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Аркуш1" sheetId="1" r:id="rId4"/>
+    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="3SH5+mVHnL32DnSkFqs+uE3PysvX8P3cWSXFQVgWx+4="/>
@@ -1545,15 +1554,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dd.MM.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="165" formatCode="0000"/>
     <numFmt numFmtId="166" formatCode="000000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -1561,23 +1570,24 @@
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -1588,11 +1598,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -1606,60 +1622,64 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1849,48 +1869,50 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.13"/>
-    <col customWidth="1" min="2" max="2" width="9.63"/>
-    <col customWidth="1" min="3" max="3" width="4.75"/>
-    <col customWidth="1" min="4" max="4" width="6.75"/>
-    <col customWidth="1" min="5" max="5" width="9.63"/>
-    <col customWidth="1" min="6" max="6" width="7.38"/>
-    <col customWidth="1" min="7" max="7" width="75.13"/>
-    <col customWidth="1" min="8" max="8" width="68.0"/>
-    <col customWidth="1" min="9" max="9" width="12.63"/>
-    <col customWidth="1" min="10" max="10" width="43.75"/>
-    <col customWidth="1" min="11" max="11" width="13.5"/>
-    <col customWidth="1" min="12" max="26" width="7.63"/>
+    <col min="1" max="1" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="75.1640625" customWidth="1"/>
+    <col min="8" max="8" width="68" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="43.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="26" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>26269.0</v>
+        <v>26269</v>
       </c>
       <c r="C1" s="3">
-        <v>3915.0</v>
+        <v>3915</v>
       </c>
       <c r="D1" s="4">
-        <v>168535.0</v>
+        <v>168535</v>
       </c>
       <c r="E1" s="2">
-        <v>42788.0</v>
+        <v>42788</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -1902,28 +1924,28 @@
         <v>3</v>
       </c>
       <c r="I1" s="4">
-        <v>5.41004750397E11</v>
+        <v>541004750397</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>23397.0</v>
+        <v>23397</v>
       </c>
       <c r="C2" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D2" s="4">
-        <v>470102.0</v>
+        <v>470102</v>
       </c>
       <c r="E2" s="2">
-        <v>39856.0</v>
+        <v>39856</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
@@ -1935,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="4">
-        <v>5.40310074467E11</v>
+        <v>540310074467</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>9</v>
@@ -1944,21 +1966,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
-        <v>23398.0</v>
+        <v>23398</v>
       </c>
       <c r="C3" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D3" s="4">
-        <v>486800.0</v>
+        <v>486800</v>
       </c>
       <c r="E3" s="2">
-        <v>39863.0</v>
+        <v>39863</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
@@ -1970,28 +1992,28 @@
         <v>14</v>
       </c>
       <c r="I3" s="4">
-        <v>5.40411479893E11</v>
+        <v>540411479893</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>23403.0</v>
+        <v>23403</v>
       </c>
       <c r="C4" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D4" s="4">
-        <v>475593.0</v>
+        <v>475593</v>
       </c>
       <c r="E4" s="2">
-        <v>39851.0</v>
+        <v>39851</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -2003,7 +2025,7 @@
         <v>19</v>
       </c>
       <c r="I4" s="4">
-        <v>5.43310957718E11</v>
+        <v>543310957718</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>20</v>
@@ -2012,21 +2034,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>23405.0</v>
+        <v>23405</v>
       </c>
       <c r="C5" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D5" s="4">
-        <v>486352.0</v>
+        <v>486352</v>
       </c>
       <c r="E5" s="2">
-        <v>39854.0</v>
+        <v>39854</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
@@ -2038,7 +2060,7 @@
         <v>24</v>
       </c>
       <c r="I5" s="4">
-        <v>5.40421451664E11</v>
+        <v>540421451664</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>25</v>
@@ -2047,21 +2069,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="2">
-        <v>23408.0</v>
+        <v>23408</v>
       </c>
       <c r="C6" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D6" s="4">
-        <v>487277.0</v>
+        <v>487277</v>
       </c>
       <c r="E6" s="2">
-        <v>39875.0</v>
+        <v>39875</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
@@ -2073,28 +2095,28 @@
         <v>29</v>
       </c>
       <c r="I6" s="4">
-        <v>5.40421999267E11</v>
+        <v>540421999267</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="2">
-        <v>23409.0</v>
+        <v>23409</v>
       </c>
       <c r="C7" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D7" s="4">
-        <v>570012.0</v>
+        <v>570012</v>
       </c>
       <c r="E7" s="2">
-        <v>40108.0</v>
+        <v>40108</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>32</v>
@@ -2106,7 +2128,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="4">
-        <v>7.53000045079E11</v>
+        <v>753000045079</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>35</v>
@@ -2115,21 +2137,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="2">
-        <v>23410.0</v>
+        <v>23410</v>
       </c>
       <c r="C8" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D8" s="4">
-        <v>480601.0</v>
+        <v>480601</v>
       </c>
       <c r="E8" s="2">
-        <v>39877.0</v>
+        <v>39877</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>38</v>
@@ -2141,7 +2163,7 @@
         <v>40</v>
       </c>
       <c r="I8" s="4">
-        <v>5.4050781045E11</v>
+        <v>540507810450</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>41</v>
@@ -2150,21 +2172,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="2">
-        <v>23414.0</v>
+        <v>23414</v>
       </c>
       <c r="C9" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D9" s="4">
-        <v>449746.0</v>
+        <v>449746</v>
       </c>
       <c r="E9" s="2">
-        <v>39874.0</v>
+        <v>39874</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>17</v>
@@ -2176,7 +2198,7 @@
         <v>45</v>
       </c>
       <c r="I9" s="4">
-        <v>5.44312025617E11</v>
+        <v>544312025617</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>46</v>
@@ -2185,21 +2207,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>23419.0</v>
+        <v>23419</v>
       </c>
       <c r="C10" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D10" s="4">
-        <v>486670.0</v>
+        <v>486670</v>
       </c>
       <c r="E10" s="2">
-        <v>39861.0</v>
+        <v>39861</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
@@ -2211,7 +2233,7 @@
         <v>50</v>
       </c>
       <c r="I10" s="4">
-        <v>5.40423757947E11</v>
+        <v>540423757947</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>51</v>
@@ -2220,21 +2242,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="2">
-        <v>23420.0</v>
+        <v>23420</v>
       </c>
       <c r="C11" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D11" s="4">
-        <v>464851.0</v>
+        <v>464851</v>
       </c>
       <c r="E11" s="2">
-        <v>39891.0</v>
+        <v>39891</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>54</v>
@@ -2246,7 +2268,7 @@
         <v>56</v>
       </c>
       <c r="I11" s="4">
-        <v>5.41008211371E11</v>
+        <v>541008211371</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>57</v>
@@ -2255,21 +2277,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B12" s="2">
-        <v>23425.0</v>
+        <v>23425</v>
       </c>
       <c r="C12" s="3">
-        <v>5011.0</v>
+        <v>5011</v>
       </c>
       <c r="D12" s="4">
-        <v>889503.0</v>
+        <v>889503</v>
       </c>
       <c r="E12" s="2">
-        <v>40795.0</v>
+        <v>40795</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>60</v>
@@ -2281,7 +2303,7 @@
         <v>62</v>
       </c>
       <c r="I12" s="4">
-        <v>5.43312282524E11</v>
+        <v>543312282524</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>63</v>
@@ -2290,21 +2312,21 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>23429.0</v>
+        <v>23429</v>
       </c>
       <c r="C13" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D13" s="4">
-        <v>487765.0</v>
+        <v>487765</v>
       </c>
       <c r="E13" s="2">
-        <v>39888.0</v>
+        <v>39888</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
@@ -2316,7 +2338,7 @@
         <v>66</v>
       </c>
       <c r="I13" s="4">
-        <v>5.40447127101E11</v>
+        <v>540447127101</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>30</v>
@@ -2325,21 +2347,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B14" s="2">
-        <v>23430.0</v>
+        <v>23430</v>
       </c>
       <c r="C14" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D14" s="4">
-        <v>497358.0</v>
+        <v>497358</v>
       </c>
       <c r="E14" s="2">
-        <v>39906.0</v>
+        <v>39906</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>69</v>
@@ -2351,7 +2373,7 @@
         <v>71</v>
       </c>
       <c r="I14" s="4">
-        <v>5.40216562587E11</v>
+        <v>540216562587</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>72</v>
@@ -2360,21 +2382,21 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="2">
-        <v>23433.0</v>
+        <v>23433</v>
       </c>
       <c r="C15" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D15" s="4">
-        <v>488432.0</v>
+        <v>488432</v>
       </c>
       <c r="E15" s="2">
-        <v>39902.0</v>
+        <v>39902</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>17</v>
@@ -2386,7 +2408,7 @@
         <v>75</v>
       </c>
       <c r="I15" s="4">
-        <v>5.40422127903E11</v>
+        <v>540422127903</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>76</v>
@@ -2395,21 +2417,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="2">
-        <v>23435.0</v>
+        <v>23435</v>
       </c>
       <c r="C16" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D16" s="4">
-        <v>481940.0</v>
+        <v>481940</v>
       </c>
       <c r="E16" s="2">
-        <v>39913.0</v>
+        <v>39913</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>38</v>
@@ -2421,7 +2443,7 @@
         <v>79</v>
       </c>
       <c r="I16" s="4">
-        <v>3.80400007095E11</v>
+        <v>380400007095</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>80</v>
@@ -2430,21 +2452,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="2">
-        <v>23435.0</v>
+        <v>23435</v>
       </c>
       <c r="C17" s="3">
-        <v>5015.0</v>
+        <v>5015</v>
       </c>
       <c r="D17" s="4">
-        <v>452980.0</v>
+        <v>452980</v>
       </c>
       <c r="E17" s="2">
-        <v>42307.0</v>
+        <v>42307</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>83</v>
@@ -2456,7 +2478,7 @@
         <v>85</v>
       </c>
       <c r="I17" s="4">
-        <v>5.40815378266E11</v>
+        <v>540815378266</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>86</v>
@@ -2465,21 +2487,21 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B18" s="2">
-        <v>23437.0</v>
+        <v>23437</v>
       </c>
       <c r="C18" s="3">
-        <v>5016.0</v>
+        <v>5016</v>
       </c>
       <c r="D18" s="4">
-        <v>599653.0</v>
+        <v>599653</v>
       </c>
       <c r="E18" s="2">
-        <v>42669.0</v>
+        <v>42669</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>38</v>
@@ -2491,7 +2513,7 @@
         <v>90</v>
       </c>
       <c r="I18" s="4">
-        <v>5.44808308402E11</v>
+        <v>544808308402</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>91</v>
@@ -2500,21 +2522,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B19" s="2">
-        <v>23438.0</v>
+        <v>23438</v>
       </c>
       <c r="C19" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D19" s="4">
-        <v>487957.0</v>
+        <v>487957</v>
       </c>
       <c r="E19" s="2">
-        <v>39890.0</v>
+        <v>39890</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>12</v>
@@ -2526,7 +2548,7 @@
         <v>95</v>
       </c>
       <c r="I19" s="4">
-        <v>5.40428827877E11</v>
+        <v>540428827877</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>96</v>
@@ -2535,21 +2557,21 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B20" s="2">
-        <v>23438.0</v>
+        <v>23438</v>
       </c>
       <c r="C20" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D20" s="4">
-        <v>481478.0</v>
+        <v>481478</v>
       </c>
       <c r="E20" s="2">
-        <v>39901.0</v>
+        <v>39901</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>99</v>
@@ -2561,28 +2583,28 @@
         <v>101</v>
       </c>
       <c r="I20" s="4">
-        <v>5.40506744525E11</v>
+        <v>540506744525</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B21" s="2">
-        <v>23441.0</v>
+        <v>23441</v>
       </c>
       <c r="C21" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D21" s="4">
-        <v>443097.0</v>
+        <v>443097</v>
       </c>
       <c r="E21" s="2">
-        <v>39951.0</v>
+        <v>39951</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>17</v>
@@ -2594,7 +2616,7 @@
         <v>104</v>
       </c>
       <c r="I21" s="4">
-        <v>5.40955450307E11</v>
+        <v>540955450307</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>105</v>
@@ -2603,21 +2625,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B22" s="2">
-        <v>23444.0</v>
+        <v>23444</v>
       </c>
       <c r="C22" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D22" s="4">
-        <v>510357.0</v>
+        <v>510357</v>
       </c>
       <c r="E22" s="2">
-        <v>40000.0</v>
+        <v>40000</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>6</v>
@@ -2629,7 +2651,7 @@
         <v>109</v>
       </c>
       <c r="I22" s="4">
-        <v>5.40316576777E11</v>
+        <v>540316576777</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>9</v>
@@ -2638,21 +2660,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B23" s="2">
-        <v>23445.0</v>
+        <v>23445</v>
       </c>
       <c r="C23" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D23" s="4">
-        <v>467937.0</v>
+        <v>467937</v>
       </c>
       <c r="E23" s="2">
-        <v>39895.0</v>
+        <v>39895</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>112</v>
@@ -2664,7 +2686,7 @@
         <v>114</v>
       </c>
       <c r="I23" s="4">
-        <v>5.40116015319E11</v>
+        <v>540116015319</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>115</v>
@@ -2673,21 +2695,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B24" s="2">
-        <v>23450.0</v>
+        <v>23450</v>
       </c>
       <c r="C24" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D24" s="4">
-        <v>468756.0</v>
+        <v>468756</v>
       </c>
       <c r="E24" s="2">
-        <v>39924.0</v>
+        <v>39924</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>112</v>
@@ -2699,7 +2721,7 @@
         <v>118</v>
       </c>
       <c r="I24" s="4">
-        <v>5.40139151491E11</v>
+        <v>540139151491</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>30</v>
@@ -2708,24 +2730,24 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B25" s="2">
-        <v>23452.0</v>
+        <v>23452</v>
       </c>
       <c r="C25" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D25" s="4">
-        <v>502834.0</v>
+        <v>502834</v>
       </c>
       <c r="E25" s="2">
-        <v>39931.0</v>
+        <v>39931</v>
       </c>
       <c r="F25" s="4">
-        <v>540010.0</v>
+        <v>540010</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>121</v>
@@ -2734,7 +2756,7 @@
         <v>122</v>
       </c>
       <c r="I25" s="4">
-        <v>5.40808451839E11</v>
+        <v>540808451839</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>123</v>
@@ -2743,21 +2765,21 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="2">
-        <v>23455.0</v>
+        <v>23455</v>
       </c>
       <c r="C26" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D26" s="4">
-        <v>464902.0</v>
+        <v>464902</v>
       </c>
       <c r="E26" s="2">
-        <v>39895.0</v>
+        <v>39895</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>54</v>
@@ -2769,7 +2791,7 @@
         <v>127</v>
       </c>
       <c r="I26" s="4">
-        <v>5.41010801787E11</v>
+        <v>541010801787</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>128</v>
@@ -2778,21 +2800,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B27" s="2">
-        <v>23456.0</v>
+        <v>23456</v>
       </c>
       <c r="C27" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D27" s="4">
-        <v>498847.0</v>
+        <v>498847</v>
       </c>
       <c r="E27" s="2">
-        <v>39959.0</v>
+        <v>39959</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>69</v>
@@ -2804,7 +2826,7 @@
         <v>132</v>
       </c>
       <c r="I27" s="4">
-        <v>5.4020532556E11</v>
+        <v>540205325560</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>133</v>
@@ -2813,21 +2835,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B28" s="2">
-        <v>23461.0</v>
+        <v>23461</v>
       </c>
       <c r="C28" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D28" s="4">
-        <v>465960.0</v>
+        <v>465960</v>
       </c>
       <c r="E28" s="2">
-        <v>39933.0</v>
+        <v>39933</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>54</v>
@@ -2839,7 +2861,7 @@
         <v>136</v>
       </c>
       <c r="I28" s="4">
-        <v>5.41012325438E11</v>
+        <v>541012325438</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>128</v>
@@ -2848,21 +2870,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B29" s="2">
-        <v>23461.0</v>
+        <v>23461</v>
       </c>
       <c r="C29" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D29" s="4">
-        <v>506349.0</v>
+        <v>506349</v>
       </c>
       <c r="E29" s="2">
-        <v>39924.0</v>
+        <v>39924</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>17</v>
@@ -2874,7 +2896,7 @@
         <v>140</v>
       </c>
       <c r="I29" s="4">
-        <v>5.40606892252E11</v>
+        <v>540606892252</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>20</v>
@@ -2883,21 +2905,21 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B30" s="2">
-        <v>23461.0</v>
+        <v>23461</v>
       </c>
       <c r="C30" s="3">
-        <v>5017.0</v>
+        <v>5017</v>
       </c>
       <c r="D30" s="4">
-        <v>778357.0</v>
+        <v>778357</v>
       </c>
       <c r="E30" s="2">
-        <v>43138.0</v>
+        <v>43138</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>12</v>
@@ -2909,28 +2931,28 @@
         <v>144</v>
       </c>
       <c r="I30" s="4">
-        <v>5.40419731424E11</v>
+        <v>540419731424</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>145</v>
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B31" s="2">
-        <v>23462.0</v>
+        <v>23462</v>
       </c>
       <c r="C31" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D31" s="4">
-        <v>471629.0</v>
+        <v>471629</v>
       </c>
       <c r="E31" s="2">
-        <v>39903.0</v>
+        <v>39903</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>147</v>
@@ -2942,28 +2964,28 @@
         <v>149</v>
       </c>
       <c r="I31" s="4">
-        <v>5.4031612595E11</v>
+        <v>540316125950</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B32" s="2">
-        <v>23467.0</v>
+        <v>23467</v>
       </c>
       <c r="C32" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D32" s="4">
-        <v>472072.0</v>
+        <v>472072</v>
       </c>
       <c r="E32" s="2">
-        <v>39919.0</v>
+        <v>39919</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>6</v>
@@ -2975,7 +2997,7 @@
         <v>151</v>
       </c>
       <c r="I32" s="4">
-        <v>5.40321755884E11</v>
+        <v>540321755884</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>152</v>
@@ -2984,21 +3006,21 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B33" s="2">
-        <v>23469.0</v>
+        <v>23469</v>
       </c>
       <c r="C33" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D33" s="4">
-        <v>472307.0</v>
+        <v>472307</v>
       </c>
       <c r="E33" s="2">
-        <v>39927.0</v>
+        <v>39927</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>6</v>
@@ -3010,7 +3032,7 @@
         <v>155</v>
       </c>
       <c r="I33" s="4">
-        <v>5.40324058666E11</v>
+        <v>540324058666</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>156</v>
@@ -3019,21 +3041,21 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B34" s="2">
-        <v>23470.0</v>
+        <v>23470</v>
       </c>
       <c r="C34" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D34" s="4">
-        <v>489184.0</v>
+        <v>489184</v>
       </c>
       <c r="E34" s="2">
-        <v>39917.0</v>
+        <v>39917</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>12</v>
@@ -3045,28 +3067,28 @@
         <v>159</v>
       </c>
       <c r="I34" s="4">
-        <v>5.40413641012E11</v>
+        <v>540413641012</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B35" s="2">
-        <v>23470.0</v>
+        <v>23470</v>
       </c>
       <c r="C35" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D35" s="4">
-        <v>489352.0</v>
+        <v>489352</v>
       </c>
       <c r="E35" s="2">
-        <v>39920.0</v>
+        <v>39920</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>17</v>
@@ -3078,7 +3100,7 @@
         <v>162</v>
       </c>
       <c r="I35" s="4">
-        <v>5.40405967412E11</v>
+        <v>540405967412</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>163</v>
@@ -3087,21 +3109,21 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B36" s="2">
-        <v>23471.0</v>
+        <v>23471</v>
       </c>
       <c r="C36" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D36" s="4">
-        <v>595291.0</v>
+        <v>595291</v>
       </c>
       <c r="E36" s="2">
-        <v>40106.0</v>
+        <v>40106</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>166</v>
@@ -3113,7 +3135,7 @@
         <v>168</v>
       </c>
       <c r="I36" s="4">
-        <v>5.40961136113E11</v>
+        <v>540961136113</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>9</v>
@@ -3122,21 +3144,21 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B37" s="2">
-        <v>23473.0</v>
+        <v>23473</v>
       </c>
       <c r="C37" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D37" s="4">
-        <v>528934.0</v>
+        <v>528934</v>
       </c>
       <c r="E37" s="2">
-        <v>40043.0</v>
+        <v>40043</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>112</v>
@@ -3148,7 +3170,7 @@
         <v>172</v>
       </c>
       <c r="I37" s="4">
-        <v>5.40123681655E11</v>
+        <v>540123681655</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>173</v>
@@ -3157,21 +3179,21 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B38" s="2">
-        <v>23479.0</v>
+        <v>23479</v>
       </c>
       <c r="C38" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D38" s="4">
-        <v>472873.0</v>
+        <v>472873</v>
       </c>
       <c r="E38" s="2">
-        <v>39948.0</v>
+        <v>39948</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>147</v>
@@ -3183,7 +3205,7 @@
         <v>176</v>
       </c>
       <c r="I38" s="4">
-        <v>5.40317308499E11</v>
+        <v>540317308499</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>163</v>
@@ -3192,21 +3214,21 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B39" s="6">
-        <v>23479.0</v>
+        <v>23479</v>
       </c>
       <c r="C39" s="7">
-        <v>5016.0</v>
+        <v>5016</v>
       </c>
       <c r="D39" s="8">
-        <v>617023.0</v>
+        <v>617023</v>
       </c>
       <c r="E39" s="6">
-        <v>42732.0</v>
+        <v>42732</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>54</v>
@@ -3218,7 +3240,7 @@
         <v>180</v>
       </c>
       <c r="I39" s="8">
-        <v>4.21705678224E11</v>
+        <v>421705678224</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>181</v>
@@ -3227,21 +3249,21 @@
         <v>182</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B40" s="2">
-        <v>23480.0</v>
+        <v>23480</v>
       </c>
       <c r="C40" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D40" s="4">
-        <v>440482.0</v>
+        <v>440482</v>
       </c>
       <c r="E40" s="2">
-        <v>39937.0</v>
+        <v>39937</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>184</v>
@@ -3253,7 +3275,7 @@
         <v>186</v>
       </c>
       <c r="I40" s="4">
-        <v>5.45105578005E11</v>
+        <v>545105578005</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>187</v>
@@ -3262,21 +3284,21 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B41" s="2">
-        <v>23486.0</v>
+        <v>23486</v>
       </c>
       <c r="C41" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D41" s="4">
-        <v>466000.0</v>
+        <v>466000</v>
       </c>
       <c r="E41" s="2">
-        <v>39937.0</v>
+        <v>39937</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>17</v>
@@ -3288,7 +3310,7 @@
         <v>190</v>
       </c>
       <c r="I41" s="4">
-        <v>5.4155079203E11</v>
+        <v>541550792030</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>191</v>
@@ -3297,21 +3319,21 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B42" s="2">
-        <v>23487.0</v>
+        <v>23487</v>
       </c>
       <c r="C42" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D42" s="4">
-        <v>466020.0</v>
+        <v>466020</v>
       </c>
       <c r="E42" s="2">
-        <v>39937.0</v>
+        <v>39937</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>54</v>
@@ -3323,7 +3345,7 @@
         <v>194</v>
       </c>
       <c r="I42" s="4">
-        <v>4.20298515572E11</v>
+        <v>420298515572</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>195</v>
@@ -3332,21 +3354,21 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B43" s="2">
-        <v>23491.0</v>
+        <v>23491</v>
       </c>
       <c r="C43" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D43" s="4">
-        <v>483976.0</v>
+        <v>483976</v>
       </c>
       <c r="E43" s="2">
-        <v>39971.0</v>
+        <v>39971</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>38</v>
@@ -3358,28 +3380,28 @@
         <v>198</v>
       </c>
       <c r="I43" s="4">
-        <v>5.40505681336E11</v>
+        <v>540505681336</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B44" s="2">
-        <v>23492.0</v>
+        <v>23492</v>
       </c>
       <c r="C44" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D44" s="4">
-        <v>472623.0</v>
+        <v>472623</v>
       </c>
       <c r="E44" s="2">
-        <v>39971.0</v>
+        <v>39971</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>6</v>
@@ -3391,28 +3413,28 @@
         <v>200</v>
       </c>
       <c r="I44" s="4">
-        <v>5.40316134867E11</v>
+        <v>540316134867</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>163</v>
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B45" s="2">
-        <v>23494.0</v>
+        <v>23494</v>
       </c>
       <c r="C45" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D45" s="4">
-        <v>516668.0</v>
+        <v>516668</v>
       </c>
       <c r="E45" s="2">
-        <v>39962.0</v>
+        <v>39962</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>54</v>
@@ -3424,7 +3446,7 @@
         <v>202</v>
       </c>
       <c r="I45" s="4">
-        <v>5.42406140509E11</v>
+        <v>542406140509</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>203</v>
@@ -3433,21 +3455,21 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B46" s="2">
-        <v>23496.0</v>
+        <v>23496</v>
       </c>
       <c r="C46" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D46" s="4">
-        <v>483565.0</v>
+        <v>483565</v>
       </c>
       <c r="E46" s="2">
-        <v>39961.0</v>
+        <v>39961</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>38</v>
@@ -3459,7 +3481,7 @@
         <v>206</v>
       </c>
       <c r="I46" s="4">
-        <v>5.40523448445E11</v>
+        <v>540523448445</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>207</v>
@@ -3468,21 +3490,21 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B47" s="2">
-        <v>23496.0</v>
+        <v>23496</v>
       </c>
       <c r="C47" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D47" s="4">
-        <v>483780.0</v>
+        <v>483780</v>
       </c>
       <c r="E47" s="2">
-        <v>39967.0</v>
+        <v>39967</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>38</v>
@@ -3494,7 +3516,7 @@
         <v>210</v>
       </c>
       <c r="I47" s="4">
-        <v>5.40322792342E11</v>
+        <v>540322792342</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>211</v>
@@ -3503,21 +3525,21 @@
         <v>212</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B48" s="2">
-        <v>23497.0</v>
+        <v>23497</v>
       </c>
       <c r="C48" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D48" s="4">
-        <v>483216.0</v>
+        <v>483216</v>
       </c>
       <c r="E48" s="2">
-        <v>39951.0</v>
+        <v>39951</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>38</v>
@@ -3529,7 +3551,7 @@
         <v>215</v>
       </c>
       <c r="I48" s="4">
-        <v>3.83401929066E11</v>
+        <v>383401929066</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>216</v>
@@ -3538,21 +3560,21 @@
         <v>217</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B49" s="2">
-        <v>23498.0</v>
+        <v>23498</v>
       </c>
       <c r="C49" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D49" s="4">
-        <v>516236.0</v>
+        <v>516236</v>
       </c>
       <c r="E49" s="2">
-        <v>39946.0</v>
+        <v>39946</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>54</v>
@@ -3564,7 +3586,7 @@
         <v>219</v>
       </c>
       <c r="I49" s="4">
-        <v>7.53405999884E11</v>
+        <v>753405999884</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>220</v>
@@ -3573,21 +3595,21 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B50" s="2">
-        <v>23501.0</v>
+        <v>23501</v>
       </c>
       <c r="C50" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D50" s="4">
-        <v>499038.0</v>
+        <v>499038</v>
       </c>
       <c r="E50" s="2">
-        <v>39968.0</v>
+        <v>39968</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>223</v>
@@ -3599,7 +3621,7 @@
         <v>225</v>
       </c>
       <c r="I50" s="4">
-        <v>5.40216404661E11</v>
+        <v>540216404661</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>25</v>
@@ -3608,21 +3630,21 @@
         <v>226</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B51" s="2">
-        <v>23502.0</v>
+        <v>23502</v>
       </c>
       <c r="C51" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D51" s="4">
-        <v>523694.0</v>
+        <v>523694</v>
       </c>
       <c r="E51" s="2">
-        <v>40000.0</v>
+        <v>40000</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>12</v>
@@ -3634,28 +3656,28 @@
         <v>228</v>
       </c>
       <c r="I51" s="4">
-        <v>5.40420933104E11</v>
+        <v>540420933104</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>30</v>
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B52" s="2">
-        <v>23502.0</v>
+        <v>23502</v>
       </c>
       <c r="C52" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D52" s="4">
-        <v>482946.0</v>
+        <v>482946</v>
       </c>
       <c r="E52" s="2">
-        <v>39943.0</v>
+        <v>39943</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>38</v>
@@ -3667,7 +3689,7 @@
         <v>230</v>
       </c>
       <c r="I52" s="4">
-        <v>5.4053860898E11</v>
+        <v>540538608980</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>231</v>
@@ -3676,21 +3698,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B53" s="2">
-        <v>23506.0</v>
+        <v>23506</v>
       </c>
       <c r="C53" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D53" s="4">
-        <v>523726.0</v>
+        <v>523726</v>
       </c>
       <c r="E53" s="2">
-        <v>40000.0</v>
+        <v>40000</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>12</v>
@@ -3702,7 +3724,7 @@
         <v>235</v>
       </c>
       <c r="I53" s="4">
-        <v>5.40408049139E11</v>
+        <v>540408049139</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>128</v>
@@ -3711,21 +3733,21 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B54" s="2">
-        <v>23508.0</v>
+        <v>23508</v>
       </c>
       <c r="C54" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D54" s="4">
-        <v>483582.0</v>
+        <v>483582</v>
       </c>
       <c r="E54" s="2">
-        <v>39961.0</v>
+        <v>39961</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>38</v>
@@ -3737,7 +3759,7 @@
         <v>238</v>
       </c>
       <c r="I54" s="4">
-        <v>5.40529404388E11</v>
+        <v>540529404388</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>20</v>
@@ -3746,21 +3768,21 @@
         <v>239</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B55" s="2">
-        <v>23511.0</v>
+        <v>23511</v>
       </c>
       <c r="C55" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D55" s="4">
-        <v>521885.0</v>
+        <v>521885</v>
       </c>
       <c r="E55" s="2">
-        <v>39973.0</v>
+        <v>39973</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>12</v>
@@ -3772,7 +3794,7 @@
         <v>241</v>
       </c>
       <c r="I55" s="4">
-        <v>5.40725517363E11</v>
+        <v>540725517363</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>191</v>
@@ -3781,21 +3803,21 @@
         <v>242</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B56" s="2">
-        <v>23511.0</v>
+        <v>23511</v>
       </c>
       <c r="C56" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D56" s="4">
-        <v>503358.0</v>
+        <v>503358</v>
       </c>
       <c r="E56" s="2">
-        <v>39960.0</v>
+        <v>39960</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>17</v>
@@ -3807,28 +3829,28 @@
         <v>245</v>
       </c>
       <c r="I56" s="4">
-        <v>5.40805335792E11</v>
+        <v>540805335792</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B57" s="2">
-        <v>23514.0</v>
+        <v>23514</v>
       </c>
       <c r="C57" s="3">
-        <v>5017.0</v>
+        <v>5017</v>
       </c>
       <c r="D57" s="4">
-        <v>772931.0</v>
+        <v>772931</v>
       </c>
       <c r="E57" s="2">
-        <v>43133.0</v>
+        <v>43133</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>38</v>
@@ -3840,7 +3862,7 @@
         <v>249</v>
       </c>
       <c r="I57" s="4">
-        <v>5.403131195E11</v>
+        <v>540313119500</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>250</v>
@@ -3849,21 +3871,21 @@
         <v>251</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B58" s="2">
-        <v>23514.0</v>
+        <v>23514</v>
       </c>
       <c r="C58" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D58" s="4">
-        <v>517442.0</v>
+        <v>517442</v>
       </c>
       <c r="E58" s="2">
-        <v>39990.0</v>
+        <v>39990</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>253</v>
@@ -3875,7 +3897,7 @@
         <v>255</v>
       </c>
       <c r="I58" s="4">
-        <v>5.41075727154E11</v>
+        <v>541075727154</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>256</v>
@@ -3884,21 +3906,21 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B59" s="2">
-        <v>23515.0</v>
+        <v>23515</v>
       </c>
       <c r="C59" s="3">
-        <v>5019.0</v>
+        <v>5019</v>
       </c>
       <c r="D59" s="4">
-        <v>998878.0</v>
+        <v>998878</v>
       </c>
       <c r="E59" s="2">
-        <v>43692.0</v>
+        <v>43692</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>12</v>
@@ -3910,7 +3932,7 @@
         <v>259</v>
       </c>
       <c r="I59" s="4">
-        <v>5.4220614407E11</v>
+        <v>542206144070</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>260</v>
@@ -3919,21 +3941,21 @@
         <v>261</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B60" s="2">
-        <v>23517.0</v>
+        <v>23517</v>
       </c>
       <c r="C60" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D60" s="4">
-        <v>495870.0</v>
+        <v>495870</v>
       </c>
       <c r="E60" s="2">
-        <v>39954.0</v>
+        <v>39954</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>263</v>
@@ -3945,7 +3967,7 @@
         <v>265</v>
       </c>
       <c r="I60" s="4">
-        <v>5.42509593109E11</v>
+        <v>542509593109</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>266</v>
@@ -3954,21 +3976,21 @@
         <v>267</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B61" s="2">
-        <v>23517.0</v>
+        <v>23517</v>
       </c>
       <c r="C61" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D61" s="4">
-        <v>617288.0</v>
+        <v>617288</v>
       </c>
       <c r="E61" s="2">
-        <v>40193.0</v>
+        <v>40193</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>17</v>
@@ -3980,28 +4002,28 @@
         <v>269</v>
       </c>
       <c r="I61" s="4">
-        <v>5.40208535678E11</v>
+        <v>540208535678</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>270</v>
       </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B62" s="2">
-        <v>23518.0</v>
+        <v>23518</v>
       </c>
       <c r="C62" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D62" s="4">
-        <v>483790.0</v>
+        <v>483790</v>
       </c>
       <c r="E62" s="2">
-        <v>39967.0</v>
+        <v>39967</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>38</v>
@@ -4013,7 +4035,7 @@
         <v>272</v>
       </c>
       <c r="I62" s="4">
-        <v>5.40515745243E11</v>
+        <v>540515745243</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>9</v>
@@ -4022,21 +4044,21 @@
         <v>273</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B63" s="2">
-        <v>23520.0</v>
+        <v>23520</v>
       </c>
       <c r="C63" s="3">
-        <v>5014.0</v>
+        <v>5014</v>
       </c>
       <c r="D63" s="4">
-        <v>254746.0</v>
+        <v>254746</v>
       </c>
       <c r="E63" s="2">
-        <v>41862.0</v>
+        <v>41862</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>275</v>
@@ -4048,7 +4070,7 @@
         <v>277</v>
       </c>
       <c r="I63" s="4">
-        <v>5.40428302358E11</v>
+        <v>540428302358</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>278</v>
@@ -4057,21 +4079,21 @@
         <v>279</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B64" s="2">
-        <v>23521.0</v>
+        <v>23521</v>
       </c>
       <c r="C64" s="3">
-        <v>4709.0</v>
+        <v>4709</v>
       </c>
       <c r="D64" s="4">
-        <v>235443.0</v>
+        <v>235443</v>
       </c>
       <c r="E64" s="2">
-        <v>40040.0</v>
+        <v>40040</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>281</v>
@@ -4083,7 +4105,7 @@
         <v>283</v>
       </c>
       <c r="I64" s="4">
-        <v>5.19037628077E11</v>
+        <v>519037628077</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>284</v>
@@ -4092,21 +4114,21 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B65" s="2">
-        <v>23529.0</v>
+        <v>23529</v>
       </c>
       <c r="C65" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D65" s="4">
-        <v>509634.0</v>
+        <v>509634</v>
       </c>
       <c r="E65" s="2">
-        <v>39974.0</v>
+        <v>39974</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>6</v>
@@ -4118,7 +4140,7 @@
         <v>288</v>
       </c>
       <c r="I65" s="4">
-        <v>5.40312227253E11</v>
+        <v>540312227253</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>289</v>
@@ -4127,21 +4149,21 @@
         <v>290</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>291</v>
       </c>
       <c r="B66" s="2">
-        <v>23530.0</v>
+        <v>23530</v>
       </c>
       <c r="C66" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D66" s="4">
-        <v>507926.0</v>
+        <v>507926</v>
       </c>
       <c r="E66" s="2">
-        <v>40001.0</v>
+        <v>40001</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>17</v>
@@ -4153,28 +4175,28 @@
         <v>292</v>
       </c>
       <c r="I66" s="4">
-        <v>5.406177156E11</v>
+        <v>540617715600</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>293</v>
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B67" s="2">
-        <v>23530.0</v>
+        <v>23530</v>
       </c>
       <c r="C67" s="3">
-        <v>5018.0</v>
+        <v>5018</v>
       </c>
       <c r="D67" s="4">
-        <v>924067.0</v>
+        <v>924067</v>
       </c>
       <c r="E67" s="2">
-        <v>43495.0</v>
+        <v>43495</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>38</v>
@@ -4186,7 +4208,7 @@
         <v>296</v>
       </c>
       <c r="I67" s="4">
-        <v>5.40529288967E11</v>
+        <v>540529288967</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>297</v>
@@ -4195,21 +4217,21 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B68" s="2">
-        <v>23531.0</v>
+        <v>23531</v>
       </c>
       <c r="C68" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D68" s="4">
-        <v>527695.0</v>
+        <v>527695</v>
       </c>
       <c r="E68" s="2">
-        <v>40004.0</v>
+        <v>40004</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>112</v>
@@ -4221,7 +4243,7 @@
         <v>300</v>
       </c>
       <c r="I68" s="4">
-        <v>5.4013488049E11</v>
+        <v>540134880490</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>9</v>
@@ -4230,21 +4252,21 @@
         <v>301</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B69" s="2">
-        <v>23531.0</v>
+        <v>23531</v>
       </c>
       <c r="C69" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D69" s="4">
-        <v>523608.0</v>
+        <v>523608</v>
       </c>
       <c r="E69" s="2">
-        <v>39996.0</v>
+        <v>39996</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>12</v>
@@ -4256,28 +4278,28 @@
         <v>304</v>
       </c>
       <c r="I69" s="4">
-        <v>5.4042950324E11</v>
+        <v>540429503240</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>128</v>
       </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B70" s="2">
-        <v>23532.0</v>
+        <v>23532</v>
       </c>
       <c r="C70" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D70" s="4">
-        <v>539529.0</v>
+        <v>539529</v>
       </c>
       <c r="E70" s="2">
-        <v>39989.0</v>
+        <v>39989</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>38</v>
@@ -4289,7 +4311,7 @@
         <v>306</v>
       </c>
       <c r="I70" s="4">
-        <v>5.4052293477E11</v>
+        <v>540522934770</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>307</v>
@@ -4298,21 +4320,21 @@
         <v>308</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B71" s="2">
-        <v>23533.0</v>
+        <v>23533</v>
       </c>
       <c r="C71" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D71" s="4">
-        <v>539158.0</v>
+        <v>539158</v>
       </c>
       <c r="E71" s="2">
-        <v>39981.0</v>
+        <v>39981</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>38</v>
@@ -4324,28 +4346,28 @@
         <v>311</v>
       </c>
       <c r="I71" s="4">
-        <v>5.40511642536E11</v>
+        <v>540511642536</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>312</v>
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B72" s="2">
-        <v>23535.0</v>
+        <v>23535</v>
       </c>
       <c r="C72" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D72" s="4">
-        <v>510007.0</v>
+        <v>510007</v>
       </c>
       <c r="E72" s="2">
-        <v>39987.0</v>
+        <v>39987</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>6</v>
@@ -4357,28 +4379,28 @@
         <v>314</v>
       </c>
       <c r="I72" s="4">
-        <v>5.40323825382E11</v>
+        <v>540323825382</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B73" s="2">
-        <v>23536.0</v>
+        <v>23536</v>
       </c>
       <c r="C73" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D73" s="4">
-        <v>533878.0</v>
+        <v>533878</v>
       </c>
       <c r="E73" s="2">
-        <v>40016.0</v>
+        <v>40016</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>166</v>
@@ -4390,7 +4412,7 @@
         <v>317</v>
       </c>
       <c r="I73" s="4">
-        <v>5.40956270755E11</v>
+        <v>540956270755</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>318</v>
@@ -4399,21 +4421,21 @@
         <v>319</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B74" s="2">
-        <v>23537.0</v>
+        <v>23537</v>
       </c>
       <c r="C74" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D74" s="4">
-        <v>556335.0</v>
+        <v>556335</v>
       </c>
       <c r="E74" s="2">
-        <v>40002.0</v>
+        <v>40002</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>83</v>
@@ -4425,7 +4447,7 @@
         <v>321</v>
       </c>
       <c r="I74" s="4">
-        <v>5.40808280904E11</v>
+        <v>540808280904</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>322</v>
@@ -4434,21 +4456,21 @@
         <v>323</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B75" s="2">
-        <v>23538.0</v>
+        <v>23538</v>
       </c>
       <c r="C75" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D75" s="4">
-        <v>539876.0</v>
+        <v>539876</v>
       </c>
       <c r="E75" s="2">
-        <v>39996.0</v>
+        <v>39996</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>38</v>
@@ -4460,28 +4482,28 @@
         <v>325</v>
       </c>
       <c r="I75" s="4">
-        <v>2.277105255E11</v>
+        <v>227710525500</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>326</v>
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B76" s="2">
-        <v>23538.0</v>
+        <v>23538</v>
       </c>
       <c r="C76" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D76" s="4">
-        <v>556390.0</v>
+        <v>556390</v>
       </c>
       <c r="E76" s="2">
-        <v>40004.0</v>
+        <v>40004</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>328</v>
@@ -4493,7 +4515,7 @@
         <v>329</v>
       </c>
       <c r="I76" s="4">
-        <v>4.22303646908E11</v>
+        <v>422303646908</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>330</v>
@@ -4502,21 +4524,21 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B77" s="2">
-        <v>23538.0</v>
+        <v>23538</v>
       </c>
       <c r="C77" s="3">
-        <v>6708.0</v>
+        <v>6708</v>
       </c>
       <c r="D77" s="4">
-        <v>904156.0</v>
+        <v>904156</v>
       </c>
       <c r="E77" s="2">
-        <v>39987.0</v>
+        <v>39987</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>333</v>
@@ -4528,7 +4550,7 @@
         <v>335</v>
       </c>
       <c r="I77" s="4">
-        <v>8.609034706E11</v>
+        <v>860903470600</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>336</v>
@@ -4537,21 +4559,21 @@
         <v>337</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B78" s="2">
-        <v>23540.0</v>
+        <v>23540</v>
       </c>
       <c r="C78" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D78" s="4">
-        <v>504142.0</v>
+        <v>504142</v>
       </c>
       <c r="E78" s="2">
-        <v>39997.0</v>
+        <v>39997</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>83</v>
@@ -4563,7 +4585,7 @@
         <v>339</v>
       </c>
       <c r="I78" s="4">
-        <v>5.40813140194E11</v>
+        <v>540813140194</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>340</v>
@@ -4572,24 +4594,24 @@
         <v>341</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>342</v>
       </c>
       <c r="B79" s="2">
-        <v>23541.0</v>
+        <v>23541</v>
       </c>
       <c r="C79" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D79" s="4">
-        <v>499905.0</v>
+        <v>499905</v>
       </c>
       <c r="E79" s="2">
-        <v>39996.0</v>
+        <v>39996</v>
       </c>
       <c r="F79" s="4">
-        <v>540004.0</v>
+        <v>540004</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>343</v>
@@ -4598,7 +4620,7 @@
         <v>344</v>
       </c>
       <c r="I79" s="4">
-        <v>5.40222659481E11</v>
+        <v>540222659481</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>345</v>
@@ -4607,21 +4629,21 @@
         <v>346</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B80" s="2">
-        <v>23542.0</v>
+        <v>23542</v>
       </c>
       <c r="C80" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D80" s="4">
-        <v>597650.0</v>
+        <v>597650</v>
       </c>
       <c r="E80" s="2">
-        <v>40122.0</v>
+        <v>40122</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>12</v>
@@ -4633,7 +4655,7 @@
         <v>348</v>
       </c>
       <c r="I80" s="4">
-        <v>5.40405324411E11</v>
+        <v>540405324411</v>
       </c>
       <c r="J80" s="5" t="s">
         <v>349</v>
@@ -4642,21 +4664,21 @@
         <v>350</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B81" s="2">
-        <v>23542.0</v>
+        <v>23542</v>
       </c>
       <c r="C81" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D81" s="4">
-        <v>524387.0</v>
+        <v>524387</v>
       </c>
       <c r="E81" s="2">
-        <v>40010.0</v>
+        <v>40010</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>12</v>
@@ -4668,7 +4690,7 @@
         <v>352</v>
       </c>
       <c r="I81" s="4">
-        <v>5.40422013575E11</v>
+        <v>540422013575</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>353</v>
@@ -4677,21 +4699,21 @@
         <v>354</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B82" s="2">
-        <v>23543.0</v>
+        <v>23543</v>
       </c>
       <c r="C82" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D82" s="4">
-        <v>519979.0</v>
+        <v>519979</v>
       </c>
       <c r="E82" s="2">
-        <v>40016.0</v>
+        <v>40016</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>356</v>
@@ -4703,7 +4725,7 @@
         <v>358</v>
       </c>
       <c r="I82" s="4">
-        <v>5.45205781963E11</v>
+        <v>545205781963</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>359</v>
@@ -4712,21 +4734,21 @@
         <v>360</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B83" s="2">
-        <v>23543.0</v>
+        <v>23543</v>
       </c>
       <c r="C83" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D83" s="4">
-        <v>727239.0</v>
+        <v>727239</v>
       </c>
       <c r="E83" s="2">
-        <v>40392.0</v>
+        <v>40392</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>38</v>
@@ -4738,7 +4760,7 @@
         <v>363</v>
       </c>
       <c r="I83" s="4">
-        <v>5.40529071273E11</v>
+        <v>540529071273</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>364</v>
@@ -4747,21 +4769,21 @@
         <v>365</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>366</v>
       </c>
       <c r="B84" s="2">
-        <v>23545.0</v>
+        <v>23545</v>
       </c>
       <c r="C84" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D84" s="4">
-        <v>567858.0</v>
+        <v>567858</v>
       </c>
       <c r="E84" s="2">
-        <v>40059.0</v>
+        <v>40059</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>12</v>
@@ -4773,7 +4795,7 @@
         <v>367</v>
       </c>
       <c r="I84" s="4">
-        <v>8.70901093631E11</v>
+        <v>870901093631</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>368</v>
@@ -4782,21 +4804,21 @@
         <v>369</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B85" s="2">
-        <v>23548.0</v>
+        <v>23548</v>
       </c>
       <c r="C85" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D85" s="4">
-        <v>566354.0</v>
+        <v>566354</v>
       </c>
       <c r="E85" s="2">
-        <v>40029.0</v>
+        <v>40029</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>12</v>
@@ -4808,28 +4830,28 @@
         <v>372</v>
       </c>
       <c r="I85" s="4">
-        <v>5.4043072633E11</v>
+        <v>540430726330</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>345</v>
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B86" s="2">
-        <v>23549.0</v>
+        <v>23549</v>
       </c>
       <c r="C86" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D86" s="4">
-        <v>695993.0</v>
+        <v>695993</v>
       </c>
       <c r="E86" s="2">
-        <v>40359.0</v>
+        <v>40359</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>12</v>
@@ -4841,7 +4863,7 @@
         <v>374</v>
       </c>
       <c r="I86" s="4">
-        <v>5.40515276376E11</v>
+        <v>540515276376</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>128</v>
@@ -4850,21 +4872,21 @@
         <v>375</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>376</v>
       </c>
       <c r="B87" s="2">
-        <v>23550.0</v>
+        <v>23550</v>
       </c>
       <c r="C87" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D87" s="4">
-        <v>528245.0</v>
+        <v>528245</v>
       </c>
       <c r="E87" s="2">
-        <v>40025.0</v>
+        <v>40025</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>112</v>
@@ -4876,7 +4898,7 @@
         <v>377</v>
       </c>
       <c r="I87" s="4">
-        <v>5.40117242836E11</v>
+        <v>540117242836</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>378</v>
@@ -4885,21 +4907,21 @@
         <v>379</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>380</v>
       </c>
       <c r="B88" s="2">
-        <v>23551.0</v>
+        <v>23551</v>
       </c>
       <c r="C88" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D88" s="4">
-        <v>557070.0</v>
+        <v>557070</v>
       </c>
       <c r="E88" s="2">
-        <v>40031.0</v>
+        <v>40031</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>83</v>
@@ -4911,7 +4933,7 @@
         <v>381</v>
       </c>
       <c r="I88" s="4">
-        <v>5.40863946039E11</v>
+        <v>540863946039</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>128</v>
@@ -4920,21 +4942,21 @@
         <v>382</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B89" s="2">
-        <v>23552.0</v>
+        <v>23552</v>
       </c>
       <c r="C89" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D89" s="4">
-        <v>588870.0</v>
+        <v>588870</v>
       </c>
       <c r="E89" s="2">
-        <v>40254.0</v>
+        <v>40254</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>384</v>
@@ -4946,7 +4968,7 @@
         <v>386</v>
       </c>
       <c r="I89" s="4">
-        <v>5.40614743991E11</v>
+        <v>540614743991</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>191</v>
@@ -4955,21 +4977,21 @@
         <v>387</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B90" s="2">
-        <v>23558.0</v>
+        <v>23558</v>
       </c>
       <c r="C90" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D90" s="4">
-        <v>510417.0</v>
+        <v>510417</v>
       </c>
       <c r="E90" s="2">
-        <v>40001.0</v>
+        <v>40001</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>389</v>
@@ -4981,7 +5003,7 @@
         <v>390</v>
       </c>
       <c r="I90" s="4">
-        <v>5.4030839466E11</v>
+        <v>540308394660</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>391</v>
@@ -4990,21 +5012,21 @@
         <v>392</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B91" s="2">
-        <v>23560.0</v>
+        <v>23560</v>
       </c>
       <c r="C91" s="3">
-        <v>7409.0</v>
+        <v>7409</v>
       </c>
       <c r="D91" s="4">
-        <v>694563.0</v>
+        <v>694563</v>
       </c>
       <c r="E91" s="2">
-        <v>40023.0</v>
+        <v>40023</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>394</v>
@@ -5016,7 +5038,7 @@
         <v>396</v>
       </c>
       <c r="I91" s="4">
-        <v>8.9040352711E11</v>
+        <v>890403527110</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>397</v>
@@ -5025,21 +5047,21 @@
         <v>398</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>399</v>
       </c>
       <c r="B92" s="2">
-        <v>23562.0</v>
+        <v>23562</v>
       </c>
       <c r="C92" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D92" s="4">
-        <v>581243.0</v>
+        <v>581243</v>
       </c>
       <c r="E92" s="2">
-        <v>40052.0</v>
+        <v>40052</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>54</v>
@@ -5051,28 +5073,28 @@
         <v>400</v>
       </c>
       <c r="I92" s="4">
-        <v>5.41012503105E11</v>
+        <v>541012503105</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>401</v>
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>402</v>
       </c>
       <c r="B93" s="2">
-        <v>23564.0</v>
+        <v>23564</v>
       </c>
       <c r="C93" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D93" s="4">
-        <v>597489.0</v>
+        <v>597489</v>
       </c>
       <c r="E93" s="2">
-        <v>40116.0</v>
+        <v>40116</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>12</v>
@@ -5084,7 +5106,7 @@
         <v>404</v>
       </c>
       <c r="I93" s="4">
-        <v>5.40423758362E11</v>
+        <v>540423758362</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>128</v>
@@ -5093,21 +5115,21 @@
         <v>405</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B94" s="2">
-        <v>23567.0</v>
+        <v>23567</v>
       </c>
       <c r="C94" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D94" s="4">
-        <v>557125.0</v>
+        <v>557125</v>
       </c>
       <c r="E94" s="2">
-        <v>40036.0</v>
+        <v>40036</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>17</v>
@@ -5119,28 +5141,28 @@
         <v>407</v>
       </c>
       <c r="I94" s="4">
-        <v>5.40817691298E11</v>
+        <v>540817691298</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>408</v>
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>409</v>
       </c>
       <c r="B95" s="2">
-        <v>23570.0</v>
+        <v>23570</v>
       </c>
       <c r="C95" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D95" s="4">
-        <v>511222.0</v>
+        <v>511222</v>
       </c>
       <c r="E95" s="2">
-        <v>40026.0</v>
+        <v>40026</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>6</v>
@@ -5152,7 +5174,7 @@
         <v>411</v>
       </c>
       <c r="I95" s="4">
-        <v>5.40322061945E11</v>
+        <v>540322061945</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>163</v>
@@ -5161,21 +5183,21 @@
         <v>412</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>413</v>
       </c>
       <c r="B96" s="2">
-        <v>23573.0</v>
+        <v>23573</v>
       </c>
       <c r="C96" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D96" s="4">
-        <v>491757.0</v>
+        <v>491757</v>
       </c>
       <c r="E96" s="2">
-        <v>40019.0</v>
+        <v>40019</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>17</v>
@@ -5187,7 +5209,7 @@
         <v>415</v>
       </c>
       <c r="I96" s="4">
-        <v>5.41021576981E11</v>
+        <v>541021576981</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>416</v>
@@ -5196,21 +5218,21 @@
         <v>417</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B97" s="2">
-        <v>23573.0</v>
+        <v>23573</v>
       </c>
       <c r="C97" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D97" s="4">
-        <v>518787.0</v>
+        <v>518787</v>
       </c>
       <c r="E97" s="2">
-        <v>40038.0</v>
+        <v>40038</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>54</v>
@@ -5222,7 +5244,7 @@
         <v>420</v>
       </c>
       <c r="I97" s="4">
-        <v>5.40523912593E11</v>
+        <v>540523912593</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>9</v>
@@ -5231,21 +5253,21 @@
         <v>421</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B98" s="2">
-        <v>23573.0</v>
+        <v>23573</v>
       </c>
       <c r="C98" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D98" s="4">
-        <v>518979.0</v>
+        <v>518979</v>
       </c>
       <c r="E98" s="2">
-        <v>40044.0</v>
+        <v>40044</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>54</v>
@@ -5257,7 +5279,7 @@
         <v>423</v>
       </c>
       <c r="I98" s="4">
-        <v>5.41074326375E11</v>
+        <v>541074326375</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>424</v>
@@ -5266,21 +5288,21 @@
         <v>425</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B99" s="2">
-        <v>23577.0</v>
+        <v>23577</v>
       </c>
       <c r="C99" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D99" s="4">
-        <v>567639.0</v>
+        <v>567639</v>
       </c>
       <c r="E99" s="2">
-        <v>40056.0</v>
+        <v>40056</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>12</v>
@@ -5292,28 +5314,28 @@
         <v>427</v>
       </c>
       <c r="I99" s="4">
-        <v>5.40408041027E11</v>
+        <v>540408041027</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>128</v>
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B100" s="2">
-        <v>23578.0</v>
+        <v>23578</v>
       </c>
       <c r="C100" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D100" s="4">
-        <v>540640.0</v>
+        <v>540640</v>
       </c>
       <c r="E100" s="2">
-        <v>40021.0</v>
+        <v>40021</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>38</v>
@@ -5325,7 +5347,7 @@
         <v>429</v>
       </c>
       <c r="I100" s="4">
-        <v>5.40513300457E11</v>
+        <v>540513300457</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>430</v>
@@ -5334,21 +5356,21 @@
         <v>431</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B101" s="6">
-        <v>23579.0</v>
+        <v>23579</v>
       </c>
       <c r="C101" s="7">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D101" s="8">
-        <v>515417.0</v>
+        <v>515417</v>
       </c>
       <c r="E101" s="6">
-        <v>40051.0</v>
+        <v>40051</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>223</v>
@@ -5360,31 +5382,31 @@
         <v>434</v>
       </c>
       <c r="I101" s="8">
-        <v>5.40713603762E11</v>
+        <v>540713603762</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K101" s="9"/>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B102" s="2">
-        <v>23580.0</v>
+        <v>23580</v>
       </c>
       <c r="C102" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D102" s="4">
-        <v>584318.0</v>
+        <v>584318</v>
       </c>
       <c r="E102" s="2">
-        <v>40057.0</v>
+        <v>40057</v>
       </c>
       <c r="F102" s="4">
-        <v>540002.0</v>
+        <v>540002</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>171</v>
@@ -5393,7 +5415,7 @@
         <v>436</v>
       </c>
       <c r="I102" s="4">
-        <v>5.40133627054E11</v>
+        <v>540133627054</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>437</v>
@@ -5402,21 +5424,21 @@
         <v>438</v>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B103" s="2">
-        <v>23580.0</v>
+        <v>23580</v>
       </c>
       <c r="C103" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D103" s="4">
-        <v>519083.0</v>
+        <v>519083</v>
       </c>
       <c r="E103" s="2">
-        <v>40049.0</v>
+        <v>40049</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>54</v>
@@ -5428,7 +5450,7 @@
         <v>440</v>
       </c>
       <c r="I103" s="4">
-        <v>5.40614327053E11</v>
+        <v>540614327053</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>441</v>
@@ -5437,21 +5459,21 @@
         <v>442</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B104" s="6">
-        <v>23585.0</v>
+        <v>23585</v>
       </c>
       <c r="C104" s="7">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D104" s="8">
-        <v>515255.0</v>
+        <v>515255</v>
       </c>
       <c r="E104" s="6">
-        <v>40035.0</v>
+        <v>40035</v>
       </c>
       <c r="F104" s="8" t="s">
         <v>223</v>
@@ -5463,7 +5485,7 @@
         <v>444</v>
       </c>
       <c r="I104" s="8">
-        <v>4.20502358322E11</v>
+        <v>420502358322</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>445</v>
@@ -5472,21 +5494,21 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B105" s="2">
-        <v>23587.0</v>
+        <v>23587</v>
       </c>
       <c r="C105" s="3">
-        <v>5017.0</v>
+        <v>5017</v>
       </c>
       <c r="D105" s="4">
-        <v>686487.0</v>
+        <v>686487</v>
       </c>
       <c r="E105" s="2">
-        <v>42922.0</v>
+        <v>42922</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>60</v>
@@ -5498,28 +5520,28 @@
         <v>449</v>
       </c>
       <c r="I105" s="4">
-        <v>5.43319417523E11</v>
+        <v>543319417523</v>
       </c>
       <c r="J105" s="5" t="s">
         <v>450</v>
       </c>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>451</v>
       </c>
       <c r="B106" s="2">
-        <v>23588.0</v>
+        <v>23588</v>
       </c>
       <c r="C106" s="3">
-        <v>5018.0</v>
+        <v>5018</v>
       </c>
       <c r="D106" s="4">
-        <v>922376.0</v>
+        <v>922376</v>
       </c>
       <c r="E106" s="2">
-        <v>43480.0</v>
+        <v>43480</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>6</v>
@@ -5531,7 +5553,7 @@
         <v>453</v>
       </c>
       <c r="I106" s="4">
-        <v>5.42708285564E11</v>
+        <v>542708285564</v>
       </c>
       <c r="J106" s="5" t="s">
         <v>454</v>
@@ -5540,21 +5562,21 @@
         <v>455</v>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B107" s="2">
-        <v>23591.0</v>
+        <v>23591</v>
       </c>
       <c r="C107" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D107" s="4">
-        <v>570614.0</v>
+        <v>570614</v>
       </c>
       <c r="E107" s="2">
-        <v>40060.0</v>
+        <v>40060</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>17</v>
@@ -5566,7 +5588,7 @@
         <v>457</v>
       </c>
       <c r="I107" s="4">
-        <v>5.40621815005E11</v>
+        <v>540621815005</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>458</v>
@@ -5575,21 +5597,21 @@
         <v>459</v>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>460</v>
       </c>
       <c r="B108" s="2">
-        <v>23592.0</v>
+        <v>23592</v>
       </c>
       <c r="C108" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D108" s="4">
-        <v>584515.0</v>
+        <v>584515</v>
       </c>
       <c r="E108" s="2">
-        <v>40065.0</v>
+        <v>40065</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>112</v>
@@ -5601,7 +5623,7 @@
         <v>462</v>
       </c>
       <c r="I108" s="4">
-        <v>5.40117436951E11</v>
+        <v>540117436951</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>463</v>
@@ -5610,21 +5632,21 @@
         <v>464</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B109" s="2">
-        <v>23592.0</v>
+        <v>23592</v>
       </c>
       <c r="C109" s="3">
-        <v>5010.0</v>
+        <v>5010</v>
       </c>
       <c r="D109" s="4">
-        <v>748027.0</v>
+        <v>748027</v>
       </c>
       <c r="E109" s="2">
-        <v>40471.0</v>
+        <v>40471</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>6</v>
@@ -5636,7 +5658,7 @@
         <v>467</v>
       </c>
       <c r="I109" s="4">
-        <v>5.40301960074E11</v>
+        <v>540301960074</v>
       </c>
       <c r="J109" s="5" t="s">
         <v>468</v>
@@ -5645,21 +5667,21 @@
         <v>469</v>
       </c>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B110" s="2">
-        <v>23594.0</v>
+        <v>23594</v>
       </c>
       <c r="C110" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D110" s="4">
-        <v>541439.0</v>
+        <v>541439</v>
       </c>
       <c r="E110" s="2">
-        <v>40044.0</v>
+        <v>40044</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>38</v>
@@ -5671,28 +5693,28 @@
         <v>471</v>
       </c>
       <c r="I110" s="4">
-        <v>5.40525827505E11</v>
+        <v>540525827505</v>
       </c>
       <c r="J110" s="5" t="s">
         <v>472</v>
       </c>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B111" s="2">
-        <v>23596.0</v>
+        <v>23596</v>
       </c>
       <c r="C111" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D111" s="4">
-        <v>512320.0</v>
+        <v>512320</v>
       </c>
       <c r="E111" s="2">
-        <v>40057.0</v>
+        <v>40057</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>6</v>
@@ -5704,7 +5726,7 @@
         <v>475</v>
       </c>
       <c r="I111" s="4">
-        <v>5.40317212412E11</v>
+        <v>540317212412</v>
       </c>
       <c r="J111" s="5" t="s">
         <v>163</v>
@@ -5713,21 +5735,21 @@
         <v>476</v>
       </c>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B112" s="2">
-        <v>23596.0</v>
+        <v>23596</v>
       </c>
       <c r="C112" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D112" s="4">
-        <v>584711.0</v>
+        <v>584711</v>
       </c>
       <c r="E112" s="2">
-        <v>40072.0</v>
+        <v>40072</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>112</v>
@@ -5739,7 +5761,7 @@
         <v>478</v>
       </c>
       <c r="I112" s="4">
-        <v>5.40115702598E11</v>
+        <v>540115702598</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>9</v>
@@ -5748,21 +5770,21 @@
         <v>479</v>
       </c>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B113" s="2">
-        <v>23597.0</v>
+        <v>23597</v>
       </c>
       <c r="C113" s="3">
-        <v>409.0</v>
+        <v>4009</v>
       </c>
       <c r="D113" s="4">
-        <v>806481.0</v>
+        <v>806481</v>
       </c>
       <c r="E113" s="2">
-        <v>40040.0</v>
+        <v>40040</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>481</v>
@@ -5774,7 +5796,7 @@
         <v>483</v>
       </c>
       <c r="I113" s="4">
-        <v>5.40421420458E11</v>
+        <v>540421420458</v>
       </c>
       <c r="J113" s="5" t="s">
         <v>484</v>
@@ -5783,21 +5805,21 @@
         <v>485</v>
       </c>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>486</v>
       </c>
       <c r="B114" s="2">
-        <v>23599.0</v>
+        <v>23599</v>
       </c>
       <c r="C114" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D114" s="4">
-        <v>542354.0</v>
+        <v>542354</v>
       </c>
       <c r="E114" s="2">
-        <v>40068.0</v>
+        <v>40068</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>38</v>
@@ -5809,28 +5831,28 @@
         <v>487</v>
       </c>
       <c r="I114" s="4">
-        <v>5.40526300599E11</v>
+        <v>540526300599</v>
       </c>
       <c r="J114" s="5" t="s">
         <v>488</v>
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B115" s="2">
-        <v>23599.0</v>
+        <v>23599</v>
       </c>
       <c r="C115" s="3">
-        <v>5019.0</v>
+        <v>5019</v>
       </c>
       <c r="D115" s="4">
-        <v>998787.0</v>
+        <v>998787</v>
       </c>
       <c r="E115" s="2">
-        <v>43691.0</v>
+        <v>43691</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>12</v>
@@ -5842,28 +5864,28 @@
         <v>490</v>
       </c>
       <c r="I115" s="4">
-        <v>5.40410981395E11</v>
+        <v>540410981395</v>
       </c>
       <c r="J115" s="5" t="s">
         <v>181</v>
       </c>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" ht="14.25" customHeight="1">
+    <row r="116" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B116" s="2">
-        <v>23599.0</v>
+        <v>23599</v>
       </c>
       <c r="C116" s="3">
-        <v>5008.0</v>
+        <v>5008</v>
       </c>
       <c r="D116" s="4">
-        <v>512053.0</v>
+        <v>512053</v>
       </c>
       <c r="E116" s="2">
-        <v>40047.0</v>
+        <v>40047</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>6</v>
@@ -5875,7 +5897,7 @@
         <v>492</v>
       </c>
       <c r="I116" s="4">
-        <v>5.40304250636E11</v>
+        <v>540304250636</v>
       </c>
       <c r="J116" s="5" t="s">
         <v>163</v>
@@ -5884,21 +5906,21 @@
         <v>493</v>
       </c>
     </row>
-    <row r="117" ht="14.25" customHeight="1">
+    <row r="117" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B117" s="2">
-        <v>23601.0</v>
+        <v>23601</v>
       </c>
       <c r="C117" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D117" s="4">
-        <v>585044.0</v>
+        <v>585044</v>
       </c>
       <c r="E117" s="2">
-        <v>40081.0</v>
+        <v>40081</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>112</v>
@@ -5910,7 +5932,7 @@
         <v>496</v>
       </c>
       <c r="I117" s="4">
-        <v>5.40119079399E11</v>
+        <v>540119079399</v>
       </c>
       <c r="J117" s="5" t="s">
         <v>497</v>
@@ -5919,21 +5941,21 @@
         <v>498</v>
       </c>
     </row>
-    <row r="118" ht="14.25" customHeight="1">
+    <row r="118" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B118" s="2">
-        <v>23604.0</v>
+        <v>23604</v>
       </c>
       <c r="C118" s="3">
-        <v>5009.0</v>
+        <v>5009</v>
       </c>
       <c r="D118" s="4">
-        <v>605395.0</v>
+        <v>605395</v>
       </c>
       <c r="E118" s="2">
-        <v>40129.0</v>
+        <v>40129</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>38</v>
@@ -5945,28 +5967,28 @@
         <v>500</v>
       </c>
       <c r="I118" s="4">
-        <v>5.40509902963E11</v>
+        <v>540509902963</v>
       </c>
       <c r="J118" s="5" t="s">
         <v>501</v>
       </c>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" ht="14.25" customHeight="1">
+    <row r="119" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>502</v>
       </c>
       <c r="B119" s="2">
-        <v>23606.0</v>
+        <v>23606</v>
       </c>
       <c r="C119" s="3">
-        <v>3209.0</v>
+        <v>3209</v>
       </c>
       <c r="D119" s="4">
-        <v>758130.0</v>
+        <v>758130</v>
       </c>
       <c r="E119" s="2">
-        <v>40065.0</v>
+        <v>40065</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>503</v>
@@ -5978,7 +6000,7 @@
         <v>505</v>
       </c>
       <c r="I119" s="4">
-        <v>4.23000698458E11</v>
+        <v>423000698458</v>
       </c>
       <c r="J119" s="5" t="s">
         <v>506</v>
@@ -5987,4415 +6009,4413 @@
         <v>507</v>
       </c>
     </row>
-    <row r="120" ht="14.25" customHeight="1">
+    <row r="120" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="11"/>
       <c r="E120" s="11"/>
     </row>
-    <row r="121" ht="14.25" customHeight="1">
+    <row r="121" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="B121" s="11"/>
       <c r="E121" s="11"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1">
+    <row r="122" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
       <c r="B122" s="11"/>
       <c r="E122" s="11"/>
     </row>
-    <row r="123" ht="14.25" customHeight="1">
+    <row r="123" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
       <c r="B123" s="11"/>
       <c r="E123" s="11"/>
     </row>
-    <row r="124" ht="14.25" customHeight="1">
+    <row r="124" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="11"/>
       <c r="E124" s="11"/>
     </row>
-    <row r="125" ht="14.25" customHeight="1">
+    <row r="125" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="B125" s="11"/>
       <c r="E125" s="11"/>
     </row>
-    <row r="126" ht="14.25" customHeight="1">
+    <row r="126" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="B126" s="11"/>
       <c r="E126" s="11"/>
     </row>
-    <row r="127" ht="14.25" customHeight="1">
+    <row r="127" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="10"/>
       <c r="B127" s="11"/>
       <c r="E127" s="11"/>
     </row>
-    <row r="128" ht="14.25" customHeight="1">
+    <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
       <c r="B128" s="11"/>
       <c r="E128" s="11"/>
     </row>
-    <row r="129" ht="14.25" customHeight="1">
+    <row r="129" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="10"/>
       <c r="B129" s="11"/>
       <c r="E129" s="11"/>
     </row>
-    <row r="130" ht="14.25" customHeight="1">
+    <row r="130" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
       <c r="B130" s="11"/>
       <c r="E130" s="11"/>
     </row>
-    <row r="131" ht="14.25" customHeight="1">
+    <row r="131" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="10"/>
       <c r="B131" s="11"/>
       <c r="E131" s="11"/>
     </row>
-    <row r="132" ht="14.25" customHeight="1">
+    <row r="132" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="10"/>
       <c r="B132" s="11"/>
       <c r="E132" s="11"/>
     </row>
-    <row r="133" ht="14.25" customHeight="1">
+    <row r="133" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
       <c r="B133" s="11"/>
       <c r="E133" s="11"/>
     </row>
-    <row r="134" ht="14.25" customHeight="1">
+    <row r="134" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="10"/>
       <c r="B134" s="11"/>
       <c r="E134" s="11"/>
     </row>
-    <row r="135" ht="14.25" customHeight="1">
+    <row r="135" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="10"/>
       <c r="B135" s="11"/>
       <c r="E135" s="11"/>
     </row>
-    <row r="136" ht="14.25" customHeight="1">
+    <row r="136" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="10"/>
       <c r="B136" s="11"/>
       <c r="E136" s="11"/>
     </row>
-    <row r="137" ht="14.25" customHeight="1">
+    <row r="137" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="E137" s="11"/>
     </row>
-    <row r="138" ht="14.25" customHeight="1">
+    <row r="138" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="E138" s="11"/>
     </row>
-    <row r="139" ht="14.25" customHeight="1">
+    <row r="139" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="10"/>
       <c r="B139" s="11"/>
       <c r="E139" s="11"/>
     </row>
-    <row r="140" ht="14.25" customHeight="1">
+    <row r="140" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="10"/>
       <c r="B140" s="11"/>
       <c r="E140" s="11"/>
     </row>
-    <row r="141" ht="14.25" customHeight="1">
+    <row r="141" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
       <c r="B141" s="11"/>
       <c r="E141" s="11"/>
     </row>
-    <row r="142" ht="14.25" customHeight="1">
+    <row r="142" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
       <c r="B142" s="11"/>
       <c r="E142" s="11"/>
     </row>
-    <row r="143" ht="14.25" customHeight="1">
+    <row r="143" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="B143" s="11"/>
       <c r="E143" s="11"/>
     </row>
-    <row r="144" ht="14.25" customHeight="1">
+    <row r="144" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
       <c r="B144" s="11"/>
       <c r="E144" s="11"/>
     </row>
-    <row r="145" ht="14.25" customHeight="1">
+    <row r="145" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="11"/>
       <c r="E145" s="11"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
       <c r="B146" s="11"/>
       <c r="E146" s="11"/>
     </row>
-    <row r="147" ht="14.25" customHeight="1">
+    <row r="147" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="11"/>
       <c r="E147" s="11"/>
     </row>
-    <row r="148" ht="14.25" customHeight="1">
+    <row r="148" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="11"/>
       <c r="E148" s="11"/>
     </row>
-    <row r="149" ht="14.25" customHeight="1">
+    <row r="149" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="B149" s="11"/>
       <c r="E149" s="11"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="11"/>
       <c r="E150" s="11"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="10"/>
       <c r="B151" s="11"/>
       <c r="E151" s="11"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
       <c r="B152" s="11"/>
       <c r="E152" s="11"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="B153" s="11"/>
       <c r="E153" s="11"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
       <c r="B154" s="11"/>
       <c r="E154" s="11"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
       <c r="B155" s="11"/>
       <c r="E155" s="11"/>
     </row>
-    <row r="156" ht="14.25" customHeight="1">
+    <row r="156" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
       <c r="B156" s="11"/>
       <c r="E156" s="11"/>
     </row>
-    <row r="157" ht="14.25" customHeight="1">
+    <row r="157" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
       <c r="B157" s="11"/>
       <c r="E157" s="11"/>
     </row>
-    <row r="158" ht="14.25" customHeight="1">
+    <row r="158" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="10"/>
       <c r="B158" s="11"/>
       <c r="E158" s="11"/>
     </row>
-    <row r="159" ht="14.25" customHeight="1">
+    <row r="159" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="B159" s="11"/>
       <c r="E159" s="11"/>
     </row>
-    <row r="160" ht="14.25" customHeight="1">
+    <row r="160" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="B160" s="11"/>
       <c r="E160" s="11"/>
     </row>
-    <row r="161" ht="14.25" customHeight="1">
+    <row r="161" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="11"/>
       <c r="E161" s="11"/>
     </row>
-    <row r="162" ht="14.25" customHeight="1">
+    <row r="162" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="11"/>
       <c r="E162" s="11"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
+    <row r="163" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
       <c r="B163" s="11"/>
       <c r="E163" s="11"/>
     </row>
-    <row r="164" ht="14.25" customHeight="1">
+    <row r="164" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="11"/>
       <c r="E164" s="11"/>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="B165" s="11"/>
       <c r="E165" s="11"/>
     </row>
-    <row r="166" ht="14.25" customHeight="1">
+    <row r="166" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="11"/>
       <c r="E166" s="11"/>
     </row>
-    <row r="167" ht="14.25" customHeight="1">
+    <row r="167" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="11"/>
       <c r="E167" s="11"/>
     </row>
-    <row r="168" ht="14.25" customHeight="1">
+    <row r="168" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="11"/>
       <c r="E168" s="11"/>
     </row>
-    <row r="169" ht="14.25" customHeight="1">
+    <row r="169" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="11"/>
       <c r="E169" s="11"/>
     </row>
-    <row r="170" ht="14.25" customHeight="1">
+    <row r="170" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="11"/>
       <c r="E170" s="11"/>
     </row>
-    <row r="171" ht="14.25" customHeight="1">
+    <row r="171" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="B171" s="11"/>
       <c r="E171" s="11"/>
     </row>
-    <row r="172" ht="14.25" customHeight="1">
+    <row r="172" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="B172" s="11"/>
       <c r="E172" s="11"/>
     </row>
-    <row r="173" ht="14.25" customHeight="1">
+    <row r="173" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
       <c r="B173" s="11"/>
       <c r="E173" s="11"/>
     </row>
-    <row r="174" ht="14.25" customHeight="1">
+    <row r="174" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
       <c r="B174" s="11"/>
       <c r="E174" s="11"/>
     </row>
-    <row r="175" ht="14.25" customHeight="1">
+    <row r="175" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
       <c r="B175" s="11"/>
       <c r="E175" s="11"/>
     </row>
-    <row r="176" ht="14.25" customHeight="1">
+    <row r="176" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="B176" s="11"/>
       <c r="E176" s="11"/>
     </row>
-    <row r="177" ht="14.25" customHeight="1">
+    <row r="177" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="B177" s="11"/>
       <c r="E177" s="11"/>
     </row>
-    <row r="178" ht="14.25" customHeight="1">
+    <row r="178" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
       <c r="B178" s="11"/>
       <c r="E178" s="11"/>
     </row>
-    <row r="179" ht="14.25" customHeight="1">
+    <row r="179" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10"/>
       <c r="B179" s="11"/>
       <c r="E179" s="11"/>
     </row>
-    <row r="180" ht="14.25" customHeight="1">
+    <row r="180" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="10"/>
       <c r="B180" s="11"/>
       <c r="E180" s="11"/>
     </row>
-    <row r="181" ht="14.25" customHeight="1">
+    <row r="181" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="10"/>
       <c r="B181" s="11"/>
       <c r="E181" s="11"/>
     </row>
-    <row r="182" ht="14.25" customHeight="1">
+    <row r="182" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="10"/>
       <c r="B182" s="11"/>
       <c r="E182" s="11"/>
     </row>
-    <row r="183" ht="14.25" customHeight="1">
+    <row r="183" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="10"/>
       <c r="B183" s="11"/>
       <c r="E183" s="11"/>
     </row>
-    <row r="184" ht="14.25" customHeight="1">
+    <row r="184" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
       <c r="B184" s="11"/>
       <c r="E184" s="11"/>
     </row>
-    <row r="185" ht="14.25" customHeight="1">
+    <row r="185" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
       <c r="B185" s="11"/>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" ht="14.25" customHeight="1">
+    <row r="186" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
       <c r="B186" s="11"/>
       <c r="E186" s="11"/>
     </row>
-    <row r="187" ht="14.25" customHeight="1">
+    <row r="187" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="10"/>
       <c r="B187" s="11"/>
       <c r="E187" s="11"/>
     </row>
-    <row r="188" ht="14.25" customHeight="1">
+    <row r="188" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="10"/>
       <c r="B188" s="11"/>
       <c r="E188" s="11"/>
     </row>
-    <row r="189" ht="14.25" customHeight="1">
+    <row r="189" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
       <c r="B189" s="11"/>
       <c r="E189" s="11"/>
     </row>
-    <row r="190" ht="14.25" customHeight="1">
+    <row r="190" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="10"/>
       <c r="B190" s="11"/>
       <c r="E190" s="11"/>
     </row>
-    <row r="191" ht="14.25" customHeight="1">
+    <row r="191" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
       <c r="B191" s="11"/>
       <c r="E191" s="11"/>
     </row>
-    <row r="192" ht="14.25" customHeight="1">
+    <row r="192" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
       <c r="B192" s="11"/>
       <c r="E192" s="11"/>
     </row>
-    <row r="193" ht="14.25" customHeight="1">
+    <row r="193" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
       <c r="B193" s="11"/>
       <c r="E193" s="11"/>
     </row>
-    <row r="194" ht="14.25" customHeight="1">
+    <row r="194" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="10"/>
       <c r="B194" s="11"/>
       <c r="E194" s="11"/>
     </row>
-    <row r="195" ht="14.25" customHeight="1">
+    <row r="195" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="10"/>
       <c r="B195" s="11"/>
       <c r="E195" s="11"/>
     </row>
-    <row r="196" ht="14.25" customHeight="1">
+    <row r="196" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="10"/>
       <c r="B196" s="11"/>
       <c r="E196" s="11"/>
     </row>
-    <row r="197" ht="14.25" customHeight="1">
+    <row r="197" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="10"/>
       <c r="B197" s="11"/>
       <c r="E197" s="11"/>
     </row>
-    <row r="198" ht="14.25" customHeight="1">
+    <row r="198" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="10"/>
       <c r="B198" s="11"/>
       <c r="E198" s="11"/>
     </row>
-    <row r="199" ht="14.25" customHeight="1">
+    <row r="199" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="10"/>
       <c r="B199" s="11"/>
       <c r="E199" s="11"/>
     </row>
-    <row r="200" ht="14.25" customHeight="1">
+    <row r="200" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="10"/>
       <c r="B200" s="11"/>
       <c r="E200" s="11"/>
     </row>
-    <row r="201" ht="14.25" customHeight="1">
+    <row r="201" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="10"/>
       <c r="B201" s="11"/>
       <c r="E201" s="11"/>
     </row>
-    <row r="202" ht="14.25" customHeight="1">
+    <row r="202" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="10"/>
       <c r="B202" s="11"/>
       <c r="E202" s="11"/>
     </row>
-    <row r="203" ht="14.25" customHeight="1">
+    <row r="203" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="10"/>
       <c r="B203" s="11"/>
       <c r="E203" s="11"/>
     </row>
-    <row r="204" ht="14.25" customHeight="1">
+    <row r="204" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="10"/>
       <c r="B204" s="11"/>
       <c r="E204" s="11"/>
     </row>
-    <row r="205" ht="14.25" customHeight="1">
+    <row r="205" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="B205" s="11"/>
       <c r="E205" s="11"/>
     </row>
-    <row r="206" ht="14.25" customHeight="1">
+    <row r="206" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="10"/>
       <c r="B206" s="11"/>
       <c r="E206" s="11"/>
     </row>
-    <row r="207" ht="14.25" customHeight="1">
+    <row r="207" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
       <c r="B207" s="11"/>
       <c r="E207" s="11"/>
     </row>
-    <row r="208" ht="14.25" customHeight="1">
+    <row r="208" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="10"/>
       <c r="B208" s="11"/>
       <c r="E208" s="11"/>
     </row>
-    <row r="209" ht="14.25" customHeight="1">
+    <row r="209" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10"/>
       <c r="B209" s="11"/>
       <c r="E209" s="11"/>
     </row>
-    <row r="210" ht="14.25" customHeight="1">
+    <row r="210" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="10"/>
       <c r="B210" s="11"/>
       <c r="E210" s="11"/>
     </row>
-    <row r="211" ht="14.25" customHeight="1">
+    <row r="211" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="10"/>
       <c r="B211" s="11"/>
       <c r="E211" s="11"/>
     </row>
-    <row r="212" ht="14.25" customHeight="1">
+    <row r="212" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="10"/>
       <c r="B212" s="11"/>
       <c r="E212" s="11"/>
     </row>
-    <row r="213" ht="14.25" customHeight="1">
+    <row r="213" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
       <c r="B213" s="11"/>
       <c r="E213" s="11"/>
     </row>
-    <row r="214" ht="14.25" customHeight="1">
+    <row r="214" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
       <c r="B214" s="11"/>
       <c r="E214" s="11"/>
     </row>
-    <row r="215" ht="14.25" customHeight="1">
+    <row r="215" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
       <c r="B215" s="11"/>
       <c r="E215" s="11"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
+    <row r="216" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="10"/>
       <c r="B216" s="11"/>
       <c r="E216" s="11"/>
     </row>
-    <row r="217" ht="14.25" customHeight="1">
+    <row r="217" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="10"/>
       <c r="B217" s="11"/>
       <c r="E217" s="11"/>
     </row>
-    <row r="218" ht="14.25" customHeight="1">
+    <row r="218" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="11"/>
       <c r="E218" s="11"/>
     </row>
-    <row r="219" ht="14.25" customHeight="1">
+    <row r="219" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10"/>
       <c r="B219" s="11"/>
       <c r="E219" s="11"/>
     </row>
-    <row r="220" ht="14.25" customHeight="1">
+    <row r="220" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="10"/>
       <c r="B220" s="11"/>
       <c r="E220" s="11"/>
     </row>
-    <row r="221" ht="14.25" customHeight="1">
+    <row r="221" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="10"/>
       <c r="B221" s="11"/>
       <c r="E221" s="11"/>
     </row>
-    <row r="222" ht="14.25" customHeight="1">
+    <row r="222" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="10"/>
       <c r="B222" s="11"/>
       <c r="E222" s="11"/>
     </row>
-    <row r="223" ht="14.25" customHeight="1">
+    <row r="223" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="10"/>
       <c r="B223" s="11"/>
       <c r="E223" s="11"/>
     </row>
-    <row r="224" ht="14.25" customHeight="1">
+    <row r="224" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="10"/>
       <c r="B224" s="11"/>
       <c r="E224" s="11"/>
     </row>
-    <row r="225" ht="14.25" customHeight="1">
+    <row r="225" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="10"/>
       <c r="B225" s="11"/>
       <c r="E225" s="11"/>
     </row>
-    <row r="226" ht="14.25" customHeight="1">
+    <row r="226" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="10"/>
       <c r="B226" s="11"/>
       <c r="E226" s="11"/>
     </row>
-    <row r="227" ht="14.25" customHeight="1">
+    <row r="227" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="10"/>
       <c r="B227" s="11"/>
       <c r="E227" s="11"/>
     </row>
-    <row r="228" ht="14.25" customHeight="1">
+    <row r="228" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="10"/>
       <c r="B228" s="11"/>
       <c r="E228" s="11"/>
     </row>
-    <row r="229" ht="14.25" customHeight="1">
+    <row r="229" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="10"/>
       <c r="B229" s="11"/>
       <c r="E229" s="11"/>
     </row>
-    <row r="230" ht="14.25" customHeight="1">
+    <row r="230" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="10"/>
       <c r="B230" s="11"/>
       <c r="E230" s="11"/>
     </row>
-    <row r="231" ht="14.25" customHeight="1">
+    <row r="231" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="10"/>
       <c r="B231" s="11"/>
       <c r="E231" s="11"/>
     </row>
-    <row r="232" ht="14.25" customHeight="1">
+    <row r="232" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10"/>
       <c r="B232" s="11"/>
       <c r="E232" s="11"/>
     </row>
-    <row r="233" ht="14.25" customHeight="1">
+    <row r="233" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="10"/>
       <c r="B233" s="11"/>
       <c r="E233" s="11"/>
     </row>
-    <row r="234" ht="14.25" customHeight="1">
+    <row r="234" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="10"/>
       <c r="B234" s="11"/>
       <c r="E234" s="11"/>
     </row>
-    <row r="235" ht="14.25" customHeight="1">
+    <row r="235" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="10"/>
       <c r="B235" s="11"/>
       <c r="E235" s="11"/>
     </row>
-    <row r="236" ht="14.25" customHeight="1">
+    <row r="236" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="10"/>
       <c r="B236" s="11"/>
       <c r="E236" s="11"/>
     </row>
-    <row r="237" ht="14.25" customHeight="1">
+    <row r="237" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="10"/>
       <c r="B237" s="11"/>
       <c r="E237" s="11"/>
     </row>
-    <row r="238" ht="14.25" customHeight="1">
+    <row r="238" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="10"/>
       <c r="B238" s="11"/>
       <c r="E238" s="11"/>
     </row>
-    <row r="239" ht="14.25" customHeight="1">
+    <row r="239" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="10"/>
       <c r="B239" s="11"/>
       <c r="E239" s="11"/>
     </row>
-    <row r="240" ht="14.25" customHeight="1">
+    <row r="240" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="10"/>
       <c r="B240" s="11"/>
       <c r="E240" s="11"/>
     </row>
-    <row r="241" ht="14.25" customHeight="1">
+    <row r="241" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
       <c r="B241" s="11"/>
       <c r="E241" s="11"/>
     </row>
-    <row r="242" ht="14.25" customHeight="1">
+    <row r="242" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
       <c r="B242" s="11"/>
       <c r="E242" s="11"/>
     </row>
-    <row r="243" ht="14.25" customHeight="1">
+    <row r="243" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
       <c r="B243" s="11"/>
       <c r="E243" s="11"/>
     </row>
-    <row r="244" ht="14.25" customHeight="1">
+    <row r="244" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
       <c r="B244" s="11"/>
       <c r="E244" s="11"/>
     </row>
-    <row r="245" ht="14.25" customHeight="1">
+    <row r="245" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
       <c r="B245" s="11"/>
       <c r="E245" s="11"/>
     </row>
-    <row r="246" ht="14.25" customHeight="1">
+    <row r="246" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
       <c r="B246" s="11"/>
       <c r="E246" s="11"/>
     </row>
-    <row r="247" ht="14.25" customHeight="1">
+    <row r="247" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
       <c r="B247" s="11"/>
       <c r="E247" s="11"/>
     </row>
-    <row r="248" ht="14.25" customHeight="1">
+    <row r="248" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
       <c r="B248" s="11"/>
       <c r="E248" s="11"/>
     </row>
-    <row r="249" ht="14.25" customHeight="1">
+    <row r="249" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
       <c r="B249" s="11"/>
       <c r="E249" s="11"/>
     </row>
-    <row r="250" ht="14.25" customHeight="1">
+    <row r="250" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
       <c r="B250" s="11"/>
       <c r="E250" s="11"/>
     </row>
-    <row r="251" ht="14.25" customHeight="1">
+    <row r="251" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
       <c r="B251" s="11"/>
       <c r="E251" s="11"/>
     </row>
-    <row r="252" ht="14.25" customHeight="1">
+    <row r="252" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
       <c r="B252" s="11"/>
       <c r="E252" s="11"/>
     </row>
-    <row r="253" ht="14.25" customHeight="1">
+    <row r="253" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
       <c r="B253" s="11"/>
       <c r="E253" s="11"/>
     </row>
-    <row r="254" ht="14.25" customHeight="1">
+    <row r="254" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
       <c r="B254" s="11"/>
       <c r="E254" s="11"/>
     </row>
-    <row r="255" ht="14.25" customHeight="1">
+    <row r="255" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="11"/>
       <c r="E255" s="11"/>
     </row>
-    <row r="256" ht="14.25" customHeight="1">
+    <row r="256" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
       <c r="B256" s="11"/>
       <c r="E256" s="11"/>
     </row>
-    <row r="257" ht="14.25" customHeight="1">
+    <row r="257" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
       <c r="B257" s="11"/>
       <c r="E257" s="11"/>
     </row>
-    <row r="258" ht="14.25" customHeight="1">
+    <row r="258" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="10"/>
       <c r="B258" s="11"/>
       <c r="E258" s="11"/>
     </row>
-    <row r="259" ht="14.25" customHeight="1">
+    <row r="259" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10"/>
       <c r="B259" s="11"/>
       <c r="E259" s="11"/>
     </row>
-    <row r="260" ht="14.25" customHeight="1">
+    <row r="260" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="10"/>
       <c r="B260" s="11"/>
       <c r="E260" s="11"/>
     </row>
-    <row r="261" ht="14.25" customHeight="1">
+    <row r="261" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="10"/>
       <c r="B261" s="11"/>
       <c r="E261" s="11"/>
     </row>
-    <row r="262" ht="14.25" customHeight="1">
+    <row r="262" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="10"/>
       <c r="B262" s="11"/>
       <c r="E262" s="11"/>
     </row>
-    <row r="263" ht="14.25" customHeight="1">
+    <row r="263" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="10"/>
       <c r="B263" s="11"/>
       <c r="E263" s="11"/>
     </row>
-    <row r="264" ht="14.25" customHeight="1">
+    <row r="264" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
       <c r="B264" s="11"/>
       <c r="E264" s="11"/>
     </row>
-    <row r="265" ht="14.25" customHeight="1">
+    <row r="265" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="10"/>
       <c r="B265" s="11"/>
       <c r="E265" s="11"/>
     </row>
-    <row r="266" ht="14.25" customHeight="1">
+    <row r="266" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
       <c r="B266" s="11"/>
       <c r="E266" s="11"/>
     </row>
-    <row r="267" ht="14.25" customHeight="1">
+    <row r="267" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="10"/>
       <c r="B267" s="11"/>
       <c r="E267" s="11"/>
     </row>
-    <row r="268" ht="14.25" customHeight="1">
+    <row r="268" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
       <c r="B268" s="11"/>
       <c r="E268" s="11"/>
     </row>
-    <row r="269" ht="14.25" customHeight="1">
+    <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="10"/>
       <c r="B269" s="11"/>
       <c r="E269" s="11"/>
     </row>
-    <row r="270" ht="14.25" customHeight="1">
+    <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
       <c r="B270" s="11"/>
       <c r="E270" s="11"/>
     </row>
-    <row r="271" ht="14.25" customHeight="1">
+    <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
       <c r="B271" s="11"/>
       <c r="E271" s="11"/>
     </row>
-    <row r="272" ht="14.25" customHeight="1">
+    <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
       <c r="B272" s="11"/>
       <c r="E272" s="11"/>
     </row>
-    <row r="273" ht="14.25" customHeight="1">
+    <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
       <c r="B273" s="11"/>
       <c r="E273" s="11"/>
     </row>
-    <row r="274" ht="14.25" customHeight="1">
+    <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="10"/>
       <c r="B274" s="11"/>
       <c r="E274" s="11"/>
     </row>
-    <row r="275" ht="14.25" customHeight="1">
+    <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="10"/>
       <c r="B275" s="11"/>
       <c r="E275" s="11"/>
     </row>
-    <row r="276" ht="14.25" customHeight="1">
+    <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="10"/>
       <c r="B276" s="11"/>
       <c r="E276" s="11"/>
     </row>
-    <row r="277" ht="14.25" customHeight="1">
+    <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="10"/>
       <c r="B277" s="11"/>
       <c r="E277" s="11"/>
     </row>
-    <row r="278" ht="14.25" customHeight="1">
+    <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="10"/>
       <c r="B278" s="11"/>
       <c r="E278" s="11"/>
     </row>
-    <row r="279" ht="14.25" customHeight="1">
+    <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="10"/>
       <c r="B279" s="11"/>
       <c r="E279" s="11"/>
     </row>
-    <row r="280" ht="14.25" customHeight="1">
+    <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="10"/>
       <c r="B280" s="11"/>
       <c r="E280" s="11"/>
     </row>
-    <row r="281" ht="14.25" customHeight="1">
+    <row r="281" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="10"/>
       <c r="B281" s="11"/>
       <c r="E281" s="11"/>
     </row>
-    <row r="282" ht="14.25" customHeight="1">
+    <row r="282" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="10"/>
       <c r="B282" s="11"/>
       <c r="E282" s="11"/>
     </row>
-    <row r="283" ht="14.25" customHeight="1">
+    <row r="283" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="10"/>
       <c r="B283" s="11"/>
       <c r="E283" s="11"/>
     </row>
-    <row r="284" ht="14.25" customHeight="1">
+    <row r="284" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="10"/>
       <c r="B284" s="11"/>
       <c r="E284" s="11"/>
     </row>
-    <row r="285" ht="14.25" customHeight="1">
+    <row r="285" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="10"/>
       <c r="B285" s="11"/>
       <c r="E285" s="11"/>
     </row>
-    <row r="286" ht="14.25" customHeight="1">
+    <row r="286" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="10"/>
       <c r="B286" s="11"/>
       <c r="E286" s="11"/>
     </row>
-    <row r="287" ht="14.25" customHeight="1">
+    <row r="287" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="10"/>
       <c r="B287" s="11"/>
       <c r="E287" s="11"/>
     </row>
-    <row r="288" ht="14.25" customHeight="1">
+    <row r="288" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="10"/>
       <c r="B288" s="11"/>
       <c r="E288" s="11"/>
     </row>
-    <row r="289" ht="14.25" customHeight="1">
+    <row r="289" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="10"/>
       <c r="B289" s="11"/>
       <c r="E289" s="11"/>
     </row>
-    <row r="290" ht="14.25" customHeight="1">
+    <row r="290" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="10"/>
       <c r="B290" s="11"/>
       <c r="E290" s="11"/>
     </row>
-    <row r="291" ht="14.25" customHeight="1">
+    <row r="291" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="10"/>
       <c r="B291" s="11"/>
       <c r="E291" s="11"/>
     </row>
-    <row r="292" ht="14.25" customHeight="1">
+    <row r="292" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="10"/>
       <c r="B292" s="11"/>
       <c r="E292" s="11"/>
     </row>
-    <row r="293" ht="14.25" customHeight="1">
+    <row r="293" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="10"/>
       <c r="B293" s="11"/>
       <c r="E293" s="11"/>
     </row>
-    <row r="294" ht="14.25" customHeight="1">
+    <row r="294" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="10"/>
       <c r="B294" s="11"/>
       <c r="E294" s="11"/>
     </row>
-    <row r="295" ht="14.25" customHeight="1">
+    <row r="295" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="10"/>
       <c r="B295" s="11"/>
       <c r="E295" s="11"/>
     </row>
-    <row r="296" ht="14.25" customHeight="1">
+    <row r="296" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="10"/>
       <c r="B296" s="11"/>
       <c r="E296" s="11"/>
     </row>
-    <row r="297" ht="14.25" customHeight="1">
+    <row r="297" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="10"/>
       <c r="B297" s="11"/>
       <c r="E297" s="11"/>
     </row>
-    <row r="298" ht="14.25" customHeight="1">
+    <row r="298" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="10"/>
       <c r="B298" s="11"/>
       <c r="E298" s="11"/>
     </row>
-    <row r="299" ht="14.25" customHeight="1">
+    <row r="299" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="10"/>
       <c r="B299" s="11"/>
       <c r="E299" s="11"/>
     </row>
-    <row r="300" ht="14.25" customHeight="1">
+    <row r="300" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="10"/>
       <c r="B300" s="11"/>
       <c r="E300" s="11"/>
     </row>
-    <row r="301" ht="14.25" customHeight="1">
+    <row r="301" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="10"/>
       <c r="B301" s="11"/>
       <c r="E301" s="11"/>
     </row>
-    <row r="302" ht="14.25" customHeight="1">
+    <row r="302" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="10"/>
       <c r="B302" s="11"/>
       <c r="E302" s="11"/>
     </row>
-    <row r="303" ht="14.25" customHeight="1">
+    <row r="303" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="10"/>
       <c r="B303" s="11"/>
       <c r="E303" s="11"/>
     </row>
-    <row r="304" ht="14.25" customHeight="1">
+    <row r="304" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="10"/>
       <c r="B304" s="11"/>
       <c r="E304" s="11"/>
     </row>
-    <row r="305" ht="14.25" customHeight="1">
+    <row r="305" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="10"/>
       <c r="B305" s="11"/>
       <c r="E305" s="11"/>
     </row>
-    <row r="306" ht="14.25" customHeight="1">
+    <row r="306" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="10"/>
       <c r="B306" s="11"/>
       <c r="E306" s="11"/>
     </row>
-    <row r="307" ht="14.25" customHeight="1">
+    <row r="307" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="10"/>
       <c r="B307" s="11"/>
       <c r="E307" s="11"/>
     </row>
-    <row r="308" ht="14.25" customHeight="1">
+    <row r="308" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="10"/>
       <c r="B308" s="11"/>
       <c r="E308" s="11"/>
     </row>
-    <row r="309" ht="14.25" customHeight="1">
+    <row r="309" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="10"/>
       <c r="B309" s="11"/>
       <c r="E309" s="11"/>
     </row>
-    <row r="310" ht="14.25" customHeight="1">
+    <row r="310" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="10"/>
       <c r="B310" s="11"/>
       <c r="E310" s="11"/>
     </row>
-    <row r="311" ht="14.25" customHeight="1">
+    <row r="311" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="10"/>
       <c r="B311" s="11"/>
       <c r="E311" s="11"/>
     </row>
-    <row r="312" ht="14.25" customHeight="1">
+    <row r="312" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="10"/>
       <c r="B312" s="11"/>
       <c r="E312" s="11"/>
     </row>
-    <row r="313" ht="14.25" customHeight="1">
+    <row r="313" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="10"/>
       <c r="B313" s="11"/>
       <c r="E313" s="11"/>
     </row>
-    <row r="314" ht="14.25" customHeight="1">
+    <row r="314" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="10"/>
       <c r="B314" s="11"/>
       <c r="E314" s="11"/>
     </row>
-    <row r="315" ht="14.25" customHeight="1">
+    <row r="315" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="10"/>
       <c r="B315" s="11"/>
       <c r="E315" s="11"/>
     </row>
-    <row r="316" ht="14.25" customHeight="1">
+    <row r="316" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="10"/>
       <c r="B316" s="11"/>
       <c r="E316" s="11"/>
     </row>
-    <row r="317" ht="14.25" customHeight="1">
+    <row r="317" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="10"/>
       <c r="B317" s="11"/>
       <c r="E317" s="11"/>
     </row>
-    <row r="318" ht="14.25" customHeight="1">
+    <row r="318" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="10"/>
       <c r="B318" s="11"/>
       <c r="E318" s="11"/>
     </row>
-    <row r="319" ht="14.25" customHeight="1">
+    <row r="319" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="10"/>
       <c r="B319" s="11"/>
       <c r="E319" s="11"/>
     </row>
-    <row r="320" ht="14.25" customHeight="1">
+    <row r="320" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="10"/>
       <c r="B320" s="11"/>
       <c r="E320" s="11"/>
     </row>
-    <row r="321" ht="14.25" customHeight="1">
+    <row r="321" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="10"/>
       <c r="B321" s="11"/>
       <c r="E321" s="11"/>
     </row>
-    <row r="322" ht="14.25" customHeight="1">
+    <row r="322" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="10"/>
       <c r="B322" s="11"/>
       <c r="E322" s="11"/>
     </row>
-    <row r="323" ht="14.25" customHeight="1">
+    <row r="323" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="10"/>
       <c r="B323" s="11"/>
       <c r="E323" s="11"/>
     </row>
-    <row r="324" ht="14.25" customHeight="1">
+    <row r="324" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="10"/>
       <c r="B324" s="11"/>
       <c r="E324" s="11"/>
     </row>
-    <row r="325" ht="14.25" customHeight="1">
+    <row r="325" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="10"/>
       <c r="B325" s="11"/>
       <c r="E325" s="11"/>
     </row>
-    <row r="326" ht="14.25" customHeight="1">
+    <row r="326" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="10"/>
       <c r="B326" s="11"/>
       <c r="E326" s="11"/>
     </row>
-    <row r="327" ht="14.25" customHeight="1">
+    <row r="327" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="10"/>
       <c r="B327" s="11"/>
       <c r="E327" s="11"/>
     </row>
-    <row r="328" ht="14.25" customHeight="1">
+    <row r="328" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="10"/>
       <c r="B328" s="11"/>
       <c r="E328" s="11"/>
     </row>
-    <row r="329" ht="14.25" customHeight="1">
+    <row r="329" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="10"/>
       <c r="B329" s="11"/>
       <c r="E329" s="11"/>
     </row>
-    <row r="330" ht="14.25" customHeight="1">
+    <row r="330" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="10"/>
       <c r="B330" s="11"/>
       <c r="E330" s="11"/>
     </row>
-    <row r="331" ht="14.25" customHeight="1">
+    <row r="331" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="10"/>
       <c r="B331" s="11"/>
       <c r="E331" s="11"/>
     </row>
-    <row r="332" ht="14.25" customHeight="1">
+    <row r="332" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="10"/>
       <c r="B332" s="11"/>
       <c r="E332" s="11"/>
     </row>
-    <row r="333" ht="14.25" customHeight="1">
+    <row r="333" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="10"/>
       <c r="B333" s="11"/>
       <c r="E333" s="11"/>
     </row>
-    <row r="334" ht="14.25" customHeight="1">
+    <row r="334" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="10"/>
       <c r="B334" s="11"/>
       <c r="E334" s="11"/>
     </row>
-    <row r="335" ht="14.25" customHeight="1">
+    <row r="335" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="10"/>
       <c r="B335" s="11"/>
       <c r="E335" s="11"/>
     </row>
-    <row r="336" ht="14.25" customHeight="1">
+    <row r="336" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="10"/>
       <c r="B336" s="11"/>
       <c r="E336" s="11"/>
     </row>
-    <row r="337" ht="14.25" customHeight="1">
+    <row r="337" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="10"/>
       <c r="B337" s="11"/>
       <c r="E337" s="11"/>
     </row>
-    <row r="338" ht="14.25" customHeight="1">
+    <row r="338" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="10"/>
       <c r="B338" s="11"/>
       <c r="E338" s="11"/>
     </row>
-    <row r="339" ht="14.25" customHeight="1">
+    <row r="339" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="10"/>
       <c r="B339" s="11"/>
       <c r="E339" s="11"/>
     </row>
-    <row r="340" ht="14.25" customHeight="1">
+    <row r="340" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="10"/>
       <c r="B340" s="11"/>
       <c r="E340" s="11"/>
     </row>
-    <row r="341" ht="14.25" customHeight="1">
+    <row r="341" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="10"/>
       <c r="B341" s="11"/>
       <c r="E341" s="11"/>
     </row>
-    <row r="342" ht="14.25" customHeight="1">
+    <row r="342" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="10"/>
       <c r="B342" s="11"/>
       <c r="E342" s="11"/>
     </row>
-    <row r="343" ht="14.25" customHeight="1">
+    <row r="343" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="10"/>
       <c r="B343" s="11"/>
       <c r="E343" s="11"/>
     </row>
-    <row r="344" ht="14.25" customHeight="1">
+    <row r="344" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="10"/>
       <c r="B344" s="11"/>
       <c r="E344" s="11"/>
     </row>
-    <row r="345" ht="14.25" customHeight="1">
+    <row r="345" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="10"/>
       <c r="B345" s="11"/>
       <c r="E345" s="11"/>
     </row>
-    <row r="346" ht="14.25" customHeight="1">
+    <row r="346" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="10"/>
       <c r="B346" s="11"/>
       <c r="E346" s="11"/>
     </row>
-    <row r="347" ht="14.25" customHeight="1">
+    <row r="347" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="10"/>
       <c r="B347" s="11"/>
       <c r="E347" s="11"/>
     </row>
-    <row r="348" ht="14.25" customHeight="1">
+    <row r="348" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="10"/>
       <c r="B348" s="11"/>
       <c r="E348" s="11"/>
     </row>
-    <row r="349" ht="14.25" customHeight="1">
+    <row r="349" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="10"/>
       <c r="B349" s="11"/>
       <c r="E349" s="11"/>
     </row>
-    <row r="350" ht="14.25" customHeight="1">
+    <row r="350" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="10"/>
       <c r="B350" s="11"/>
       <c r="E350" s="11"/>
     </row>
-    <row r="351" ht="14.25" customHeight="1">
+    <row r="351" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="10"/>
       <c r="B351" s="11"/>
       <c r="E351" s="11"/>
     </row>
-    <row r="352" ht="14.25" customHeight="1">
+    <row r="352" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="10"/>
       <c r="B352" s="11"/>
       <c r="E352" s="11"/>
     </row>
-    <row r="353" ht="14.25" customHeight="1">
+    <row r="353" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="10"/>
       <c r="B353" s="11"/>
       <c r="E353" s="11"/>
     </row>
-    <row r="354" ht="14.25" customHeight="1">
+    <row r="354" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="10"/>
       <c r="B354" s="11"/>
       <c r="E354" s="11"/>
     </row>
-    <row r="355" ht="14.25" customHeight="1">
+    <row r="355" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="10"/>
       <c r="B355" s="11"/>
       <c r="E355" s="11"/>
     </row>
-    <row r="356" ht="14.25" customHeight="1">
+    <row r="356" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="10"/>
       <c r="B356" s="11"/>
       <c r="E356" s="11"/>
     </row>
-    <row r="357" ht="14.25" customHeight="1">
+    <row r="357" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="10"/>
       <c r="B357" s="11"/>
       <c r="E357" s="11"/>
     </row>
-    <row r="358" ht="14.25" customHeight="1">
+    <row r="358" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="10"/>
       <c r="B358" s="11"/>
       <c r="E358" s="11"/>
     </row>
-    <row r="359" ht="14.25" customHeight="1">
+    <row r="359" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="10"/>
       <c r="B359" s="11"/>
       <c r="E359" s="11"/>
     </row>
-    <row r="360" ht="14.25" customHeight="1">
+    <row r="360" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="10"/>
       <c r="B360" s="11"/>
       <c r="E360" s="11"/>
     </row>
-    <row r="361" ht="14.25" customHeight="1">
+    <row r="361" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="10"/>
       <c r="B361" s="11"/>
       <c r="E361" s="11"/>
     </row>
-    <row r="362" ht="14.25" customHeight="1">
+    <row r="362" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="10"/>
       <c r="B362" s="11"/>
       <c r="E362" s="11"/>
     </row>
-    <row r="363" ht="14.25" customHeight="1">
+    <row r="363" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="10"/>
       <c r="B363" s="11"/>
       <c r="E363" s="11"/>
     </row>
-    <row r="364" ht="14.25" customHeight="1">
+    <row r="364" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="10"/>
       <c r="B364" s="11"/>
       <c r="E364" s="11"/>
     </row>
-    <row r="365" ht="14.25" customHeight="1">
+    <row r="365" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="10"/>
       <c r="B365" s="11"/>
       <c r="E365" s="11"/>
     </row>
-    <row r="366" ht="14.25" customHeight="1">
+    <row r="366" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="10"/>
       <c r="B366" s="11"/>
       <c r="E366" s="11"/>
     </row>
-    <row r="367" ht="14.25" customHeight="1">
+    <row r="367" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="10"/>
       <c r="B367" s="11"/>
       <c r="E367" s="11"/>
     </row>
-    <row r="368" ht="14.25" customHeight="1">
+    <row r="368" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="10"/>
       <c r="B368" s="11"/>
       <c r="E368" s="11"/>
     </row>
-    <row r="369" ht="14.25" customHeight="1">
+    <row r="369" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="10"/>
       <c r="B369" s="11"/>
       <c r="E369" s="11"/>
     </row>
-    <row r="370" ht="14.25" customHeight="1">
+    <row r="370" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="10"/>
       <c r="B370" s="11"/>
       <c r="E370" s="11"/>
     </row>
-    <row r="371" ht="14.25" customHeight="1">
+    <row r="371" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="10"/>
       <c r="B371" s="11"/>
       <c r="E371" s="11"/>
     </row>
-    <row r="372" ht="14.25" customHeight="1">
+    <row r="372" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="10"/>
       <c r="B372" s="11"/>
       <c r="E372" s="11"/>
     </row>
-    <row r="373" ht="14.25" customHeight="1">
+    <row r="373" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="10"/>
       <c r="B373" s="11"/>
       <c r="E373" s="11"/>
     </row>
-    <row r="374" ht="14.25" customHeight="1">
+    <row r="374" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="10"/>
       <c r="B374" s="11"/>
       <c r="E374" s="11"/>
     </row>
-    <row r="375" ht="14.25" customHeight="1">
+    <row r="375" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="10"/>
       <c r="B375" s="11"/>
       <c r="E375" s="11"/>
     </row>
-    <row r="376" ht="14.25" customHeight="1">
+    <row r="376" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="10"/>
       <c r="B376" s="11"/>
       <c r="E376" s="11"/>
     </row>
-    <row r="377" ht="14.25" customHeight="1">
+    <row r="377" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="10"/>
       <c r="B377" s="11"/>
       <c r="E377" s="11"/>
     </row>
-    <row r="378" ht="14.25" customHeight="1">
+    <row r="378" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="10"/>
       <c r="B378" s="11"/>
       <c r="E378" s="11"/>
     </row>
-    <row r="379" ht="14.25" customHeight="1">
+    <row r="379" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="10"/>
       <c r="B379" s="11"/>
       <c r="E379" s="11"/>
     </row>
-    <row r="380" ht="14.25" customHeight="1">
+    <row r="380" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="10"/>
       <c r="B380" s="11"/>
       <c r="E380" s="11"/>
     </row>
-    <row r="381" ht="14.25" customHeight="1">
+    <row r="381" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="10"/>
       <c r="B381" s="11"/>
       <c r="E381" s="11"/>
     </row>
-    <row r="382" ht="14.25" customHeight="1">
+    <row r="382" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="10"/>
       <c r="B382" s="11"/>
       <c r="E382" s="11"/>
     </row>
-    <row r="383" ht="14.25" customHeight="1">
+    <row r="383" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="10"/>
       <c r="B383" s="11"/>
       <c r="E383" s="11"/>
     </row>
-    <row r="384" ht="14.25" customHeight="1">
+    <row r="384" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="10"/>
       <c r="B384" s="11"/>
       <c r="E384" s="11"/>
     </row>
-    <row r="385" ht="14.25" customHeight="1">
+    <row r="385" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="10"/>
       <c r="B385" s="11"/>
       <c r="E385" s="11"/>
     </row>
-    <row r="386" ht="14.25" customHeight="1">
+    <row r="386" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="10"/>
       <c r="B386" s="11"/>
       <c r="E386" s="11"/>
     </row>
-    <row r="387" ht="14.25" customHeight="1">
+    <row r="387" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="10"/>
       <c r="B387" s="11"/>
       <c r="E387" s="11"/>
     </row>
-    <row r="388" ht="14.25" customHeight="1">
+    <row r="388" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="10"/>
       <c r="B388" s="11"/>
       <c r="E388" s="11"/>
     </row>
-    <row r="389" ht="14.25" customHeight="1">
+    <row r="389" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="10"/>
       <c r="B389" s="11"/>
       <c r="E389" s="11"/>
     </row>
-    <row r="390" ht="14.25" customHeight="1">
+    <row r="390" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="10"/>
       <c r="B390" s="11"/>
       <c r="E390" s="11"/>
     </row>
-    <row r="391" ht="14.25" customHeight="1">
+    <row r="391" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="10"/>
       <c r="B391" s="11"/>
       <c r="E391" s="11"/>
     </row>
-    <row r="392" ht="14.25" customHeight="1">
+    <row r="392" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="10"/>
       <c r="B392" s="11"/>
       <c r="E392" s="11"/>
     </row>
-    <row r="393" ht="14.25" customHeight="1">
+    <row r="393" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="10"/>
       <c r="B393" s="11"/>
       <c r="E393" s="11"/>
     </row>
-    <row r="394" ht="14.25" customHeight="1">
+    <row r="394" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="10"/>
       <c r="B394" s="11"/>
       <c r="E394" s="11"/>
     </row>
-    <row r="395" ht="14.25" customHeight="1">
+    <row r="395" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="10"/>
       <c r="B395" s="11"/>
       <c r="E395" s="11"/>
     </row>
-    <row r="396" ht="14.25" customHeight="1">
+    <row r="396" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="10"/>
       <c r="B396" s="11"/>
       <c r="E396" s="11"/>
     </row>
-    <row r="397" ht="14.25" customHeight="1">
+    <row r="397" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="10"/>
       <c r="B397" s="11"/>
       <c r="E397" s="11"/>
     </row>
-    <row r="398" ht="14.25" customHeight="1">
+    <row r="398" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="10"/>
       <c r="B398" s="11"/>
       <c r="E398" s="11"/>
     </row>
-    <row r="399" ht="14.25" customHeight="1">
+    <row r="399" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="10"/>
       <c r="B399" s="11"/>
       <c r="E399" s="11"/>
     </row>
-    <row r="400" ht="14.25" customHeight="1">
+    <row r="400" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="10"/>
       <c r="B400" s="11"/>
       <c r="E400" s="11"/>
     </row>
-    <row r="401" ht="14.25" customHeight="1">
+    <row r="401" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="10"/>
       <c r="B401" s="11"/>
       <c r="E401" s="11"/>
     </row>
-    <row r="402" ht="14.25" customHeight="1">
+    <row r="402" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="10"/>
       <c r="B402" s="11"/>
       <c r="E402" s="11"/>
     </row>
-    <row r="403" ht="14.25" customHeight="1">
+    <row r="403" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="10"/>
       <c r="B403" s="11"/>
       <c r="E403" s="11"/>
     </row>
-    <row r="404" ht="14.25" customHeight="1">
+    <row r="404" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="10"/>
       <c r="B404" s="11"/>
       <c r="E404" s="11"/>
     </row>
-    <row r="405" ht="14.25" customHeight="1">
+    <row r="405" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="10"/>
       <c r="B405" s="11"/>
       <c r="E405" s="11"/>
     </row>
-    <row r="406" ht="14.25" customHeight="1">
+    <row r="406" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="10"/>
       <c r="B406" s="11"/>
       <c r="E406" s="11"/>
     </row>
-    <row r="407" ht="14.25" customHeight="1">
+    <row r="407" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="10"/>
       <c r="B407" s="11"/>
       <c r="E407" s="11"/>
     </row>
-    <row r="408" ht="14.25" customHeight="1">
+    <row r="408" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="10"/>
       <c r="B408" s="11"/>
       <c r="E408" s="11"/>
     </row>
-    <row r="409" ht="14.25" customHeight="1">
+    <row r="409" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="10"/>
       <c r="B409" s="11"/>
       <c r="E409" s="11"/>
     </row>
-    <row r="410" ht="14.25" customHeight="1">
+    <row r="410" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="10"/>
       <c r="B410" s="11"/>
       <c r="E410" s="11"/>
     </row>
-    <row r="411" ht="14.25" customHeight="1">
+    <row r="411" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="10"/>
       <c r="B411" s="11"/>
       <c r="E411" s="11"/>
     </row>
-    <row r="412" ht="14.25" customHeight="1">
+    <row r="412" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="10"/>
       <c r="B412" s="11"/>
       <c r="E412" s="11"/>
     </row>
-    <row r="413" ht="14.25" customHeight="1">
+    <row r="413" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="10"/>
       <c r="B413" s="11"/>
       <c r="E413" s="11"/>
     </row>
-    <row r="414" ht="14.25" customHeight="1">
+    <row r="414" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="10"/>
       <c r="B414" s="11"/>
       <c r="E414" s="11"/>
     </row>
-    <row r="415" ht="14.25" customHeight="1">
+    <row r="415" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="10"/>
       <c r="B415" s="11"/>
       <c r="E415" s="11"/>
     </row>
-    <row r="416" ht="14.25" customHeight="1">
+    <row r="416" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="10"/>
       <c r="B416" s="11"/>
       <c r="E416" s="11"/>
     </row>
-    <row r="417" ht="14.25" customHeight="1">
+    <row r="417" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="10"/>
       <c r="B417" s="11"/>
       <c r="E417" s="11"/>
     </row>
-    <row r="418" ht="14.25" customHeight="1">
+    <row r="418" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="10"/>
       <c r="B418" s="11"/>
       <c r="E418" s="11"/>
     </row>
-    <row r="419" ht="14.25" customHeight="1">
+    <row r="419" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="10"/>
       <c r="B419" s="11"/>
       <c r="E419" s="11"/>
     </row>
-    <row r="420" ht="14.25" customHeight="1">
+    <row r="420" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="10"/>
       <c r="B420" s="11"/>
       <c r="E420" s="11"/>
     </row>
-    <row r="421" ht="14.25" customHeight="1">
+    <row r="421" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="10"/>
       <c r="B421" s="11"/>
       <c r="E421" s="11"/>
     </row>
-    <row r="422" ht="14.25" customHeight="1">
+    <row r="422" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="10"/>
       <c r="B422" s="11"/>
       <c r="E422" s="11"/>
     </row>
-    <row r="423" ht="14.25" customHeight="1">
+    <row r="423" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="10"/>
       <c r="B423" s="11"/>
       <c r="E423" s="11"/>
     </row>
-    <row r="424" ht="14.25" customHeight="1">
+    <row r="424" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="10"/>
       <c r="B424" s="11"/>
       <c r="E424" s="11"/>
     </row>
-    <row r="425" ht="14.25" customHeight="1">
+    <row r="425" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="10"/>
       <c r="B425" s="11"/>
       <c r="E425" s="11"/>
     </row>
-    <row r="426" ht="14.25" customHeight="1">
+    <row r="426" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="10"/>
       <c r="B426" s="11"/>
       <c r="E426" s="11"/>
     </row>
-    <row r="427" ht="14.25" customHeight="1">
+    <row r="427" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="10"/>
       <c r="B427" s="11"/>
       <c r="E427" s="11"/>
     </row>
-    <row r="428" ht="14.25" customHeight="1">
+    <row r="428" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="10"/>
       <c r="B428" s="11"/>
       <c r="E428" s="11"/>
     </row>
-    <row r="429" ht="14.25" customHeight="1">
+    <row r="429" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="10"/>
       <c r="B429" s="11"/>
       <c r="E429" s="11"/>
     </row>
-    <row r="430" ht="14.25" customHeight="1">
+    <row r="430" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="10"/>
       <c r="B430" s="11"/>
       <c r="E430" s="11"/>
     </row>
-    <row r="431" ht="14.25" customHeight="1">
+    <row r="431" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="10"/>
       <c r="B431" s="11"/>
       <c r="E431" s="11"/>
     </row>
-    <row r="432" ht="14.25" customHeight="1">
+    <row r="432" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="10"/>
       <c r="B432" s="11"/>
       <c r="E432" s="11"/>
     </row>
-    <row r="433" ht="14.25" customHeight="1">
+    <row r="433" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="10"/>
       <c r="B433" s="11"/>
       <c r="E433" s="11"/>
     </row>
-    <row r="434" ht="14.25" customHeight="1">
+    <row r="434" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="10"/>
       <c r="B434" s="11"/>
       <c r="E434" s="11"/>
     </row>
-    <row r="435" ht="14.25" customHeight="1">
+    <row r="435" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="10"/>
       <c r="B435" s="11"/>
       <c r="E435" s="11"/>
     </row>
-    <row r="436" ht="14.25" customHeight="1">
+    <row r="436" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="10"/>
       <c r="B436" s="11"/>
       <c r="E436" s="11"/>
     </row>
-    <row r="437" ht="14.25" customHeight="1">
+    <row r="437" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="10"/>
       <c r="B437" s="11"/>
       <c r="E437" s="11"/>
     </row>
-    <row r="438" ht="14.25" customHeight="1">
+    <row r="438" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="10"/>
       <c r="B438" s="11"/>
       <c r="E438" s="11"/>
     </row>
-    <row r="439" ht="14.25" customHeight="1">
+    <row r="439" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="10"/>
       <c r="B439" s="11"/>
       <c r="E439" s="11"/>
     </row>
-    <row r="440" ht="14.25" customHeight="1">
+    <row r="440" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="10"/>
       <c r="B440" s="11"/>
       <c r="E440" s="11"/>
     </row>
-    <row r="441" ht="14.25" customHeight="1">
+    <row r="441" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="10"/>
       <c r="B441" s="11"/>
       <c r="E441" s="11"/>
     </row>
-    <row r="442" ht="14.25" customHeight="1">
+    <row r="442" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="10"/>
       <c r="B442" s="11"/>
       <c r="E442" s="11"/>
     </row>
-    <row r="443" ht="14.25" customHeight="1">
+    <row r="443" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="10"/>
       <c r="B443" s="11"/>
       <c r="E443" s="11"/>
     </row>
-    <row r="444" ht="14.25" customHeight="1">
+    <row r="444" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="10"/>
       <c r="B444" s="11"/>
       <c r="E444" s="11"/>
     </row>
-    <row r="445" ht="14.25" customHeight="1">
+    <row r="445" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="10"/>
       <c r="B445" s="11"/>
       <c r="E445" s="11"/>
     </row>
-    <row r="446" ht="14.25" customHeight="1">
+    <row r="446" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="10"/>
       <c r="B446" s="11"/>
       <c r="E446" s="11"/>
     </row>
-    <row r="447" ht="14.25" customHeight="1">
+    <row r="447" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="10"/>
       <c r="B447" s="11"/>
       <c r="E447" s="11"/>
     </row>
-    <row r="448" ht="14.25" customHeight="1">
+    <row r="448" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="10"/>
       <c r="B448" s="11"/>
       <c r="E448" s="11"/>
     </row>
-    <row r="449" ht="14.25" customHeight="1">
+    <row r="449" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="10"/>
       <c r="B449" s="11"/>
       <c r="E449" s="11"/>
     </row>
-    <row r="450" ht="14.25" customHeight="1">
+    <row r="450" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="10"/>
       <c r="B450" s="11"/>
       <c r="E450" s="11"/>
     </row>
-    <row r="451" ht="14.25" customHeight="1">
+    <row r="451" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="10"/>
       <c r="B451" s="11"/>
       <c r="E451" s="11"/>
     </row>
-    <row r="452" ht="14.25" customHeight="1">
+    <row r="452" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="10"/>
       <c r="B452" s="11"/>
       <c r="E452" s="11"/>
     </row>
-    <row r="453" ht="14.25" customHeight="1">
+    <row r="453" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="10"/>
       <c r="B453" s="11"/>
       <c r="E453" s="11"/>
     </row>
-    <row r="454" ht="14.25" customHeight="1">
+    <row r="454" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="10"/>
       <c r="B454" s="11"/>
       <c r="E454" s="11"/>
     </row>
-    <row r="455" ht="14.25" customHeight="1">
+    <row r="455" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="10"/>
       <c r="B455" s="11"/>
       <c r="E455" s="11"/>
     </row>
-    <row r="456" ht="14.25" customHeight="1">
+    <row r="456" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="10"/>
       <c r="B456" s="11"/>
       <c r="E456" s="11"/>
     </row>
-    <row r="457" ht="14.25" customHeight="1">
+    <row r="457" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="10"/>
       <c r="B457" s="11"/>
       <c r="E457" s="11"/>
     </row>
-    <row r="458" ht="14.25" customHeight="1">
+    <row r="458" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="10"/>
       <c r="B458" s="11"/>
       <c r="E458" s="11"/>
     </row>
-    <row r="459" ht="14.25" customHeight="1">
+    <row r="459" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="10"/>
       <c r="B459" s="11"/>
       <c r="E459" s="11"/>
     </row>
-    <row r="460" ht="14.25" customHeight="1">
+    <row r="460" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="10"/>
       <c r="B460" s="11"/>
       <c r="E460" s="11"/>
     </row>
-    <row r="461" ht="14.25" customHeight="1">
+    <row r="461" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="10"/>
       <c r="B461" s="11"/>
       <c r="E461" s="11"/>
     </row>
-    <row r="462" ht="14.25" customHeight="1">
+    <row r="462" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="10"/>
       <c r="B462" s="11"/>
       <c r="E462" s="11"/>
     </row>
-    <row r="463" ht="14.25" customHeight="1">
+    <row r="463" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="10"/>
       <c r="B463" s="11"/>
       <c r="E463" s="11"/>
     </row>
-    <row r="464" ht="14.25" customHeight="1">
+    <row r="464" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="10"/>
       <c r="B464" s="11"/>
       <c r="E464" s="11"/>
     </row>
-    <row r="465" ht="14.25" customHeight="1">
+    <row r="465" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="10"/>
       <c r="B465" s="11"/>
       <c r="E465" s="11"/>
     </row>
-    <row r="466" ht="14.25" customHeight="1">
+    <row r="466" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="10"/>
       <c r="B466" s="11"/>
       <c r="E466" s="11"/>
     </row>
-    <row r="467" ht="14.25" customHeight="1">
+    <row r="467" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="10"/>
       <c r="B467" s="11"/>
       <c r="E467" s="11"/>
     </row>
-    <row r="468" ht="14.25" customHeight="1">
+    <row r="468" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="10"/>
       <c r="B468" s="11"/>
       <c r="E468" s="11"/>
     </row>
-    <row r="469" ht="14.25" customHeight="1">
+    <row r="469" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="10"/>
       <c r="B469" s="11"/>
       <c r="E469" s="11"/>
     </row>
-    <row r="470" ht="14.25" customHeight="1">
+    <row r="470" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="10"/>
       <c r="B470" s="11"/>
       <c r="E470" s="11"/>
     </row>
-    <row r="471" ht="14.25" customHeight="1">
+    <row r="471" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="10"/>
       <c r="B471" s="11"/>
       <c r="E471" s="11"/>
     </row>
-    <row r="472" ht="14.25" customHeight="1">
+    <row r="472" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="10"/>
       <c r="B472" s="11"/>
       <c r="E472" s="11"/>
     </row>
-    <row r="473" ht="14.25" customHeight="1">
+    <row r="473" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="10"/>
       <c r="B473" s="11"/>
       <c r="E473" s="11"/>
     </row>
-    <row r="474" ht="14.25" customHeight="1">
+    <row r="474" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="10"/>
       <c r="B474" s="11"/>
       <c r="E474" s="11"/>
     </row>
-    <row r="475" ht="14.25" customHeight="1">
+    <row r="475" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="10"/>
       <c r="B475" s="11"/>
       <c r="E475" s="11"/>
     </row>
-    <row r="476" ht="14.25" customHeight="1">
+    <row r="476" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="10"/>
       <c r="B476" s="11"/>
       <c r="E476" s="11"/>
     </row>
-    <row r="477" ht="14.25" customHeight="1">
+    <row r="477" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="10"/>
       <c r="B477" s="11"/>
       <c r="E477" s="11"/>
     </row>
-    <row r="478" ht="14.25" customHeight="1">
+    <row r="478" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="10"/>
       <c r="B478" s="11"/>
       <c r="E478" s="11"/>
     </row>
-    <row r="479" ht="14.25" customHeight="1">
+    <row r="479" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="10"/>
       <c r="B479" s="11"/>
       <c r="E479" s="11"/>
     </row>
-    <row r="480" ht="14.25" customHeight="1">
+    <row r="480" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="10"/>
       <c r="B480" s="11"/>
       <c r="E480" s="11"/>
     </row>
-    <row r="481" ht="14.25" customHeight="1">
+    <row r="481" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="10"/>
       <c r="B481" s="11"/>
       <c r="E481" s="11"/>
     </row>
-    <row r="482" ht="14.25" customHeight="1">
+    <row r="482" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="10"/>
       <c r="B482" s="11"/>
       <c r="E482" s="11"/>
     </row>
-    <row r="483" ht="14.25" customHeight="1">
+    <row r="483" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="10"/>
       <c r="B483" s="11"/>
       <c r="E483" s="11"/>
     </row>
-    <row r="484" ht="14.25" customHeight="1">
+    <row r="484" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="10"/>
       <c r="B484" s="11"/>
       <c r="E484" s="11"/>
     </row>
-    <row r="485" ht="14.25" customHeight="1">
+    <row r="485" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="10"/>
       <c r="B485" s="11"/>
       <c r="E485" s="11"/>
     </row>
-    <row r="486" ht="14.25" customHeight="1">
+    <row r="486" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="10"/>
       <c r="B486" s="11"/>
       <c r="E486" s="11"/>
     </row>
-    <row r="487" ht="14.25" customHeight="1">
+    <row r="487" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="10"/>
       <c r="B487" s="11"/>
       <c r="E487" s="11"/>
     </row>
-    <row r="488" ht="14.25" customHeight="1">
+    <row r="488" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="10"/>
       <c r="B488" s="11"/>
       <c r="E488" s="11"/>
     </row>
-    <row r="489" ht="14.25" customHeight="1">
+    <row r="489" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="10"/>
       <c r="B489" s="11"/>
       <c r="E489" s="11"/>
     </row>
-    <row r="490" ht="14.25" customHeight="1">
+    <row r="490" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="10"/>
       <c r="B490" s="11"/>
       <c r="E490" s="11"/>
     </row>
-    <row r="491" ht="14.25" customHeight="1">
+    <row r="491" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="10"/>
       <c r="B491" s="11"/>
       <c r="E491" s="11"/>
     </row>
-    <row r="492" ht="14.25" customHeight="1">
+    <row r="492" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="10"/>
       <c r="B492" s="11"/>
       <c r="E492" s="11"/>
     </row>
-    <row r="493" ht="14.25" customHeight="1">
+    <row r="493" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="10"/>
       <c r="B493" s="11"/>
       <c r="E493" s="11"/>
     </row>
-    <row r="494" ht="14.25" customHeight="1">
+    <row r="494" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="10"/>
       <c r="B494" s="11"/>
       <c r="E494" s="11"/>
     </row>
-    <row r="495" ht="14.25" customHeight="1">
+    <row r="495" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="10"/>
       <c r="B495" s="11"/>
       <c r="E495" s="11"/>
     </row>
-    <row r="496" ht="14.25" customHeight="1">
+    <row r="496" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="10"/>
       <c r="B496" s="11"/>
       <c r="E496" s="11"/>
     </row>
-    <row r="497" ht="14.25" customHeight="1">
+    <row r="497" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="10"/>
       <c r="B497" s="11"/>
       <c r="E497" s="11"/>
     </row>
-    <row r="498" ht="14.25" customHeight="1">
+    <row r="498" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="10"/>
       <c r="B498" s="11"/>
       <c r="E498" s="11"/>
     </row>
-    <row r="499" ht="14.25" customHeight="1">
+    <row r="499" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="10"/>
       <c r="B499" s="11"/>
       <c r="E499" s="11"/>
     </row>
-    <row r="500" ht="14.25" customHeight="1">
+    <row r="500" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="10"/>
       <c r="B500" s="11"/>
       <c r="E500" s="11"/>
     </row>
-    <row r="501" ht="14.25" customHeight="1">
+    <row r="501" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="10"/>
       <c r="B501" s="11"/>
       <c r="E501" s="11"/>
     </row>
-    <row r="502" ht="14.25" customHeight="1">
+    <row r="502" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="10"/>
       <c r="B502" s="11"/>
       <c r="E502" s="11"/>
     </row>
-    <row r="503" ht="14.25" customHeight="1">
+    <row r="503" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="10"/>
       <c r="B503" s="11"/>
       <c r="E503" s="11"/>
     </row>
-    <row r="504" ht="14.25" customHeight="1">
+    <row r="504" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="10"/>
       <c r="B504" s="11"/>
       <c r="E504" s="11"/>
     </row>
-    <row r="505" ht="14.25" customHeight="1">
+    <row r="505" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="10"/>
       <c r="B505" s="11"/>
       <c r="E505" s="11"/>
     </row>
-    <row r="506" ht="14.25" customHeight="1">
+    <row r="506" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="10"/>
       <c r="B506" s="11"/>
       <c r="E506" s="11"/>
     </row>
-    <row r="507" ht="14.25" customHeight="1">
+    <row r="507" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="10"/>
       <c r="B507" s="11"/>
       <c r="E507" s="11"/>
     </row>
-    <row r="508" ht="14.25" customHeight="1">
+    <row r="508" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="10"/>
       <c r="B508" s="11"/>
       <c r="E508" s="11"/>
     </row>
-    <row r="509" ht="14.25" customHeight="1">
+    <row r="509" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="10"/>
       <c r="B509" s="11"/>
       <c r="E509" s="11"/>
     </row>
-    <row r="510" ht="14.25" customHeight="1">
+    <row r="510" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="10"/>
       <c r="B510" s="11"/>
       <c r="E510" s="11"/>
     </row>
-    <row r="511" ht="14.25" customHeight="1">
+    <row r="511" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="10"/>
       <c r="B511" s="11"/>
       <c r="E511" s="11"/>
     </row>
-    <row r="512" ht="14.25" customHeight="1">
+    <row r="512" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="10"/>
       <c r="B512" s="11"/>
       <c r="E512" s="11"/>
     </row>
-    <row r="513" ht="14.25" customHeight="1">
+    <row r="513" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="10"/>
       <c r="B513" s="11"/>
       <c r="E513" s="11"/>
     </row>
-    <row r="514" ht="14.25" customHeight="1">
+    <row r="514" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="10"/>
       <c r="B514" s="11"/>
       <c r="E514" s="11"/>
     </row>
-    <row r="515" ht="14.25" customHeight="1">
+    <row r="515" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="10"/>
       <c r="B515" s="11"/>
       <c r="E515" s="11"/>
     </row>
-    <row r="516" ht="14.25" customHeight="1">
+    <row r="516" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="10"/>
       <c r="B516" s="11"/>
       <c r="E516" s="11"/>
     </row>
-    <row r="517" ht="14.25" customHeight="1">
+    <row r="517" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="10"/>
       <c r="B517" s="11"/>
       <c r="E517" s="11"/>
     </row>
-    <row r="518" ht="14.25" customHeight="1">
+    <row r="518" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="10"/>
       <c r="B518" s="11"/>
       <c r="E518" s="11"/>
     </row>
-    <row r="519" ht="14.25" customHeight="1">
+    <row r="519" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="10"/>
       <c r="B519" s="11"/>
       <c r="E519" s="11"/>
     </row>
-    <row r="520" ht="14.25" customHeight="1">
+    <row r="520" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="10"/>
       <c r="B520" s="11"/>
       <c r="E520" s="11"/>
     </row>
-    <row r="521" ht="14.25" customHeight="1">
+    <row r="521" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="10"/>
       <c r="B521" s="11"/>
       <c r="E521" s="11"/>
     </row>
-    <row r="522" ht="14.25" customHeight="1">
+    <row r="522" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="10"/>
       <c r="B522" s="11"/>
       <c r="E522" s="11"/>
     </row>
-    <row r="523" ht="14.25" customHeight="1">
+    <row r="523" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="10"/>
       <c r="B523" s="11"/>
       <c r="E523" s="11"/>
     </row>
-    <row r="524" ht="14.25" customHeight="1">
+    <row r="524" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="10"/>
       <c r="B524" s="11"/>
       <c r="E524" s="11"/>
     </row>
-    <row r="525" ht="14.25" customHeight="1">
+    <row r="525" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="10"/>
       <c r="B525" s="11"/>
       <c r="E525" s="11"/>
     </row>
-    <row r="526" ht="14.25" customHeight="1">
+    <row r="526" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="10"/>
       <c r="B526" s="11"/>
       <c r="E526" s="11"/>
     </row>
-    <row r="527" ht="14.25" customHeight="1">
+    <row r="527" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="10"/>
       <c r="B527" s="11"/>
       <c r="E527" s="11"/>
     </row>
-    <row r="528" ht="14.25" customHeight="1">
+    <row r="528" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="10"/>
       <c r="B528" s="11"/>
       <c r="E528" s="11"/>
     </row>
-    <row r="529" ht="14.25" customHeight="1">
+    <row r="529" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="10"/>
       <c r="B529" s="11"/>
       <c r="E529" s="11"/>
     </row>
-    <row r="530" ht="14.25" customHeight="1">
+    <row r="530" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="10"/>
       <c r="B530" s="11"/>
       <c r="E530" s="11"/>
     </row>
-    <row r="531" ht="14.25" customHeight="1">
+    <row r="531" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="10"/>
       <c r="B531" s="11"/>
       <c r="E531" s="11"/>
     </row>
-    <row r="532" ht="14.25" customHeight="1">
+    <row r="532" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="10"/>
       <c r="B532" s="11"/>
       <c r="E532" s="11"/>
     </row>
-    <row r="533" ht="14.25" customHeight="1">
+    <row r="533" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="10"/>
       <c r="B533" s="11"/>
       <c r="E533" s="11"/>
     </row>
-    <row r="534" ht="14.25" customHeight="1">
+    <row r="534" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="10"/>
       <c r="B534" s="11"/>
       <c r="E534" s="11"/>
     </row>
-    <row r="535" ht="14.25" customHeight="1">
+    <row r="535" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="10"/>
       <c r="B535" s="11"/>
       <c r="E535" s="11"/>
     </row>
-    <row r="536" ht="14.25" customHeight="1">
+    <row r="536" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="10"/>
       <c r="B536" s="11"/>
       <c r="E536" s="11"/>
     </row>
-    <row r="537" ht="14.25" customHeight="1">
+    <row r="537" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="10"/>
       <c r="B537" s="11"/>
       <c r="E537" s="11"/>
     </row>
-    <row r="538" ht="14.25" customHeight="1">
+    <row r="538" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="10"/>
       <c r="B538" s="11"/>
       <c r="E538" s="11"/>
     </row>
-    <row r="539" ht="14.25" customHeight="1">
+    <row r="539" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="10"/>
       <c r="B539" s="11"/>
       <c r="E539" s="11"/>
     </row>
-    <row r="540" ht="14.25" customHeight="1">
+    <row r="540" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="10"/>
       <c r="B540" s="11"/>
       <c r="E540" s="11"/>
     </row>
-    <row r="541" ht="14.25" customHeight="1">
+    <row r="541" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="10"/>
       <c r="B541" s="11"/>
       <c r="E541" s="11"/>
     </row>
-    <row r="542" ht="14.25" customHeight="1">
+    <row r="542" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="10"/>
       <c r="B542" s="11"/>
       <c r="E542" s="11"/>
     </row>
-    <row r="543" ht="14.25" customHeight="1">
+    <row r="543" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="10"/>
       <c r="B543" s="11"/>
       <c r="E543" s="11"/>
     </row>
-    <row r="544" ht="14.25" customHeight="1">
+    <row r="544" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="10"/>
       <c r="B544" s="11"/>
       <c r="E544" s="11"/>
     </row>
-    <row r="545" ht="14.25" customHeight="1">
+    <row r="545" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="10"/>
       <c r="B545" s="11"/>
       <c r="E545" s="11"/>
     </row>
-    <row r="546" ht="14.25" customHeight="1">
+    <row r="546" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="10"/>
       <c r="B546" s="11"/>
       <c r="E546" s="11"/>
     </row>
-    <row r="547" ht="14.25" customHeight="1">
+    <row r="547" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="10"/>
       <c r="B547" s="11"/>
       <c r="E547" s="11"/>
     </row>
-    <row r="548" ht="14.25" customHeight="1">
+    <row r="548" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="10"/>
       <c r="B548" s="11"/>
       <c r="E548" s="11"/>
     </row>
-    <row r="549" ht="14.25" customHeight="1">
+    <row r="549" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="10"/>
       <c r="B549" s="11"/>
       <c r="E549" s="11"/>
     </row>
-    <row r="550" ht="14.25" customHeight="1">
+    <row r="550" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="10"/>
       <c r="B550" s="11"/>
       <c r="E550" s="11"/>
     </row>
-    <row r="551" ht="14.25" customHeight="1">
+    <row r="551" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="10"/>
       <c r="B551" s="11"/>
       <c r="E551" s="11"/>
     </row>
-    <row r="552" ht="14.25" customHeight="1">
+    <row r="552" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="10"/>
       <c r="B552" s="11"/>
       <c r="E552" s="11"/>
     </row>
-    <row r="553" ht="14.25" customHeight="1">
+    <row r="553" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="10"/>
       <c r="B553" s="11"/>
       <c r="E553" s="11"/>
     </row>
-    <row r="554" ht="14.25" customHeight="1">
+    <row r="554" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="10"/>
       <c r="B554" s="11"/>
       <c r="E554" s="11"/>
     </row>
-    <row r="555" ht="14.25" customHeight="1">
+    <row r="555" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="10"/>
       <c r="B555" s="11"/>
       <c r="E555" s="11"/>
     </row>
-    <row r="556" ht="14.25" customHeight="1">
+    <row r="556" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="10"/>
       <c r="B556" s="11"/>
       <c r="E556" s="11"/>
     </row>
-    <row r="557" ht="14.25" customHeight="1">
+    <row r="557" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="10"/>
       <c r="B557" s="11"/>
       <c r="E557" s="11"/>
     </row>
-    <row r="558" ht="14.25" customHeight="1">
+    <row r="558" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="10"/>
       <c r="B558" s="11"/>
       <c r="E558" s="11"/>
     </row>
-    <row r="559" ht="14.25" customHeight="1">
+    <row r="559" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="10"/>
       <c r="B559" s="11"/>
       <c r="E559" s="11"/>
     </row>
-    <row r="560" ht="14.25" customHeight="1">
+    <row r="560" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="10"/>
       <c r="B560" s="11"/>
       <c r="E560" s="11"/>
     </row>
-    <row r="561" ht="14.25" customHeight="1">
+    <row r="561" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="10"/>
       <c r="B561" s="11"/>
       <c r="E561" s="11"/>
     </row>
-    <row r="562" ht="14.25" customHeight="1">
+    <row r="562" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="10"/>
       <c r="B562" s="11"/>
       <c r="E562" s="11"/>
     </row>
-    <row r="563" ht="14.25" customHeight="1">
+    <row r="563" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="10"/>
       <c r="B563" s="11"/>
       <c r="E563" s="11"/>
     </row>
-    <row r="564" ht="14.25" customHeight="1">
+    <row r="564" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="10"/>
       <c r="B564" s="11"/>
       <c r="E564" s="11"/>
     </row>
-    <row r="565" ht="14.25" customHeight="1">
+    <row r="565" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="10"/>
       <c r="B565" s="11"/>
       <c r="E565" s="11"/>
     </row>
-    <row r="566" ht="14.25" customHeight="1">
+    <row r="566" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="10"/>
       <c r="B566" s="11"/>
       <c r="E566" s="11"/>
     </row>
-    <row r="567" ht="14.25" customHeight="1">
+    <row r="567" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="10"/>
       <c r="B567" s="11"/>
       <c r="E567" s="11"/>
     </row>
-    <row r="568" ht="14.25" customHeight="1">
+    <row r="568" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="10"/>
       <c r="B568" s="11"/>
       <c r="E568" s="11"/>
     </row>
-    <row r="569" ht="14.25" customHeight="1">
+    <row r="569" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="10"/>
       <c r="B569" s="11"/>
       <c r="E569" s="11"/>
     </row>
-    <row r="570" ht="14.25" customHeight="1">
+    <row r="570" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="10"/>
       <c r="B570" s="11"/>
       <c r="E570" s="11"/>
     </row>
-    <row r="571" ht="14.25" customHeight="1">
+    <row r="571" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="10"/>
       <c r="B571" s="11"/>
       <c r="E571" s="11"/>
     </row>
-    <row r="572" ht="14.25" customHeight="1">
+    <row r="572" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="10"/>
       <c r="B572" s="11"/>
       <c r="E572" s="11"/>
     </row>
-    <row r="573" ht="14.25" customHeight="1">
+    <row r="573" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="10"/>
       <c r="B573" s="11"/>
       <c r="E573" s="11"/>
     </row>
-    <row r="574" ht="14.25" customHeight="1">
+    <row r="574" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="10"/>
       <c r="B574" s="11"/>
       <c r="E574" s="11"/>
     </row>
-    <row r="575" ht="14.25" customHeight="1">
+    <row r="575" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="10"/>
       <c r="B575" s="11"/>
       <c r="E575" s="11"/>
     </row>
-    <row r="576" ht="14.25" customHeight="1">
+    <row r="576" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="10"/>
       <c r="B576" s="11"/>
       <c r="E576" s="11"/>
     </row>
-    <row r="577" ht="14.25" customHeight="1">
+    <row r="577" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="10"/>
       <c r="B577" s="11"/>
       <c r="E577" s="11"/>
     </row>
-    <row r="578" ht="14.25" customHeight="1">
+    <row r="578" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="10"/>
       <c r="B578" s="11"/>
       <c r="E578" s="11"/>
     </row>
-    <row r="579" ht="14.25" customHeight="1">
+    <row r="579" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="10"/>
       <c r="B579" s="11"/>
       <c r="E579" s="11"/>
     </row>
-    <row r="580" ht="14.25" customHeight="1">
+    <row r="580" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="10"/>
       <c r="B580" s="11"/>
       <c r="E580" s="11"/>
     </row>
-    <row r="581" ht="14.25" customHeight="1">
+    <row r="581" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="10"/>
       <c r="B581" s="11"/>
       <c r="E581" s="11"/>
     </row>
-    <row r="582" ht="14.25" customHeight="1">
+    <row r="582" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="10"/>
       <c r="B582" s="11"/>
       <c r="E582" s="11"/>
     </row>
-    <row r="583" ht="14.25" customHeight="1">
+    <row r="583" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="10"/>
       <c r="B583" s="11"/>
       <c r="E583" s="11"/>
     </row>
-    <row r="584" ht="14.25" customHeight="1">
+    <row r="584" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="10"/>
       <c r="B584" s="11"/>
       <c r="E584" s="11"/>
     </row>
-    <row r="585" ht="14.25" customHeight="1">
+    <row r="585" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="10"/>
       <c r="B585" s="11"/>
       <c r="E585" s="11"/>
     </row>
-    <row r="586" ht="14.25" customHeight="1">
+    <row r="586" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="10"/>
       <c r="B586" s="11"/>
       <c r="E586" s="11"/>
     </row>
-    <row r="587" ht="14.25" customHeight="1">
+    <row r="587" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="10"/>
       <c r="B587" s="11"/>
       <c r="E587" s="11"/>
     </row>
-    <row r="588" ht="14.25" customHeight="1">
+    <row r="588" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="10"/>
       <c r="B588" s="11"/>
       <c r="E588" s="11"/>
     </row>
-    <row r="589" ht="14.25" customHeight="1">
+    <row r="589" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="10"/>
       <c r="B589" s="11"/>
       <c r="E589" s="11"/>
     </row>
-    <row r="590" ht="14.25" customHeight="1">
+    <row r="590" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="10"/>
       <c r="B590" s="11"/>
       <c r="E590" s="11"/>
     </row>
-    <row r="591" ht="14.25" customHeight="1">
+    <row r="591" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="10"/>
       <c r="B591" s="11"/>
       <c r="E591" s="11"/>
     </row>
-    <row r="592" ht="14.25" customHeight="1">
+    <row r="592" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="10"/>
       <c r="B592" s="11"/>
       <c r="E592" s="11"/>
     </row>
-    <row r="593" ht="14.25" customHeight="1">
+    <row r="593" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="10"/>
       <c r="B593" s="11"/>
       <c r="E593" s="11"/>
     </row>
-    <row r="594" ht="14.25" customHeight="1">
+    <row r="594" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="10"/>
       <c r="B594" s="11"/>
       <c r="E594" s="11"/>
     </row>
-    <row r="595" ht="14.25" customHeight="1">
+    <row r="595" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="10"/>
       <c r="B595" s="11"/>
       <c r="E595" s="11"/>
     </row>
-    <row r="596" ht="14.25" customHeight="1">
+    <row r="596" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="10"/>
       <c r="B596" s="11"/>
       <c r="E596" s="11"/>
     </row>
-    <row r="597" ht="14.25" customHeight="1">
+    <row r="597" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="10"/>
       <c r="B597" s="11"/>
       <c r="E597" s="11"/>
     </row>
-    <row r="598" ht="14.25" customHeight="1">
+    <row r="598" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="10"/>
       <c r="B598" s="11"/>
       <c r="E598" s="11"/>
     </row>
-    <row r="599" ht="14.25" customHeight="1">
+    <row r="599" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="10"/>
       <c r="B599" s="11"/>
       <c r="E599" s="11"/>
     </row>
-    <row r="600" ht="14.25" customHeight="1">
+    <row r="600" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="10"/>
       <c r="B600" s="11"/>
       <c r="E600" s="11"/>
     </row>
-    <row r="601" ht="14.25" customHeight="1">
+    <row r="601" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="10"/>
       <c r="B601" s="11"/>
       <c r="E601" s="11"/>
     </row>
-    <row r="602" ht="14.25" customHeight="1">
+    <row r="602" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="10"/>
       <c r="B602" s="11"/>
       <c r="E602" s="11"/>
     </row>
-    <row r="603" ht="14.25" customHeight="1">
+    <row r="603" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="10"/>
       <c r="B603" s="11"/>
       <c r="E603" s="11"/>
     </row>
-    <row r="604" ht="14.25" customHeight="1">
+    <row r="604" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="10"/>
       <c r="B604" s="11"/>
       <c r="E604" s="11"/>
     </row>
-    <row r="605" ht="14.25" customHeight="1">
+    <row r="605" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="10"/>
       <c r="B605" s="11"/>
       <c r="E605" s="11"/>
     </row>
-    <row r="606" ht="14.25" customHeight="1">
+    <row r="606" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="10"/>
       <c r="B606" s="11"/>
       <c r="E606" s="11"/>
     </row>
-    <row r="607" ht="14.25" customHeight="1">
+    <row r="607" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="10"/>
       <c r="B607" s="11"/>
       <c r="E607" s="11"/>
     </row>
-    <row r="608" ht="14.25" customHeight="1">
+    <row r="608" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="10"/>
       <c r="B608" s="11"/>
       <c r="E608" s="11"/>
     </row>
-    <row r="609" ht="14.25" customHeight="1">
+    <row r="609" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="10"/>
       <c r="B609" s="11"/>
       <c r="E609" s="11"/>
     </row>
-    <row r="610" ht="14.25" customHeight="1">
+    <row r="610" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="10"/>
       <c r="B610" s="11"/>
       <c r="E610" s="11"/>
     </row>
-    <row r="611" ht="14.25" customHeight="1">
+    <row r="611" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="10"/>
       <c r="B611" s="11"/>
       <c r="E611" s="11"/>
     </row>
-    <row r="612" ht="14.25" customHeight="1">
+    <row r="612" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="10"/>
       <c r="B612" s="11"/>
       <c r="E612" s="11"/>
     </row>
-    <row r="613" ht="14.25" customHeight="1">
+    <row r="613" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="10"/>
       <c r="B613" s="11"/>
       <c r="E613" s="11"/>
     </row>
-    <row r="614" ht="14.25" customHeight="1">
+    <row r="614" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="10"/>
       <c r="B614" s="11"/>
       <c r="E614" s="11"/>
     </row>
-    <row r="615" ht="14.25" customHeight="1">
+    <row r="615" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="10"/>
       <c r="B615" s="11"/>
       <c r="E615" s="11"/>
     </row>
-    <row r="616" ht="14.25" customHeight="1">
+    <row r="616" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="10"/>
       <c r="B616" s="11"/>
       <c r="E616" s="11"/>
     </row>
-    <row r="617" ht="14.25" customHeight="1">
+    <row r="617" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="10"/>
       <c r="B617" s="11"/>
       <c r="E617" s="11"/>
     </row>
-    <row r="618" ht="14.25" customHeight="1">
+    <row r="618" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="10"/>
       <c r="B618" s="11"/>
       <c r="E618" s="11"/>
     </row>
-    <row r="619" ht="14.25" customHeight="1">
+    <row r="619" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="10"/>
       <c r="B619" s="11"/>
       <c r="E619" s="11"/>
     </row>
-    <row r="620" ht="14.25" customHeight="1">
+    <row r="620" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="10"/>
       <c r="B620" s="11"/>
       <c r="E620" s="11"/>
     </row>
-    <row r="621" ht="14.25" customHeight="1">
+    <row r="621" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="10"/>
       <c r="B621" s="11"/>
       <c r="E621" s="11"/>
     </row>
-    <row r="622" ht="14.25" customHeight="1">
+    <row r="622" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="10"/>
       <c r="B622" s="11"/>
       <c r="E622" s="11"/>
     </row>
-    <row r="623" ht="14.25" customHeight="1">
+    <row r="623" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="10"/>
       <c r="B623" s="11"/>
       <c r="E623" s="11"/>
     </row>
-    <row r="624" ht="14.25" customHeight="1">
+    <row r="624" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="10"/>
       <c r="B624" s="11"/>
       <c r="E624" s="11"/>
     </row>
-    <row r="625" ht="14.25" customHeight="1">
+    <row r="625" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="10"/>
       <c r="B625" s="11"/>
       <c r="E625" s="11"/>
     </row>
-    <row r="626" ht="14.25" customHeight="1">
+    <row r="626" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="10"/>
       <c r="B626" s="11"/>
       <c r="E626" s="11"/>
     </row>
-    <row r="627" ht="14.25" customHeight="1">
+    <row r="627" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="10"/>
       <c r="B627" s="11"/>
       <c r="E627" s="11"/>
     </row>
-    <row r="628" ht="14.25" customHeight="1">
+    <row r="628" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="10"/>
       <c r="B628" s="11"/>
       <c r="E628" s="11"/>
     </row>
-    <row r="629" ht="14.25" customHeight="1">
+    <row r="629" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="10"/>
       <c r="B629" s="11"/>
       <c r="E629" s="11"/>
     </row>
-    <row r="630" ht="14.25" customHeight="1">
+    <row r="630" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="10"/>
       <c r="B630" s="11"/>
       <c r="E630" s="11"/>
     </row>
-    <row r="631" ht="14.25" customHeight="1">
+    <row r="631" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="10"/>
       <c r="B631" s="11"/>
       <c r="E631" s="11"/>
     </row>
-    <row r="632" ht="14.25" customHeight="1">
+    <row r="632" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="10"/>
       <c r="B632" s="11"/>
       <c r="E632" s="11"/>
     </row>
-    <row r="633" ht="14.25" customHeight="1">
+    <row r="633" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="10"/>
       <c r="B633" s="11"/>
       <c r="E633" s="11"/>
     </row>
-    <row r="634" ht="14.25" customHeight="1">
+    <row r="634" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="10"/>
       <c r="B634" s="11"/>
       <c r="E634" s="11"/>
     </row>
-    <row r="635" ht="14.25" customHeight="1">
+    <row r="635" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="10"/>
       <c r="B635" s="11"/>
       <c r="E635" s="11"/>
     </row>
-    <row r="636" ht="14.25" customHeight="1">
+    <row r="636" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="10"/>
       <c r="B636" s="11"/>
       <c r="E636" s="11"/>
     </row>
-    <row r="637" ht="14.25" customHeight="1">
+    <row r="637" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="10"/>
       <c r="B637" s="11"/>
       <c r="E637" s="11"/>
     </row>
-    <row r="638" ht="14.25" customHeight="1">
+    <row r="638" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="10"/>
       <c r="B638" s="11"/>
       <c r="E638" s="11"/>
     </row>
-    <row r="639" ht="14.25" customHeight="1">
+    <row r="639" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="10"/>
       <c r="B639" s="11"/>
       <c r="E639" s="11"/>
     </row>
-    <row r="640" ht="14.25" customHeight="1">
+    <row r="640" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="10"/>
       <c r="B640" s="11"/>
       <c r="E640" s="11"/>
     </row>
-    <row r="641" ht="14.25" customHeight="1">
+    <row r="641" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="10"/>
       <c r="B641" s="11"/>
       <c r="E641" s="11"/>
     </row>
-    <row r="642" ht="14.25" customHeight="1">
+    <row r="642" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="10"/>
       <c r="B642" s="11"/>
       <c r="E642" s="11"/>
     </row>
-    <row r="643" ht="14.25" customHeight="1">
+    <row r="643" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="10"/>
       <c r="B643" s="11"/>
       <c r="E643" s="11"/>
     </row>
-    <row r="644" ht="14.25" customHeight="1">
+    <row r="644" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="10"/>
       <c r="B644" s="11"/>
       <c r="E644" s="11"/>
     </row>
-    <row r="645" ht="14.25" customHeight="1">
+    <row r="645" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="10"/>
       <c r="B645" s="11"/>
       <c r="E645" s="11"/>
     </row>
-    <row r="646" ht="14.25" customHeight="1">
+    <row r="646" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="10"/>
       <c r="B646" s="11"/>
       <c r="E646" s="11"/>
     </row>
-    <row r="647" ht="14.25" customHeight="1">
+    <row r="647" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="10"/>
       <c r="B647" s="11"/>
       <c r="E647" s="11"/>
     </row>
-    <row r="648" ht="14.25" customHeight="1">
+    <row r="648" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="10"/>
       <c r="B648" s="11"/>
       <c r="E648" s="11"/>
     </row>
-    <row r="649" ht="14.25" customHeight="1">
+    <row r="649" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="10"/>
       <c r="B649" s="11"/>
       <c r="E649" s="11"/>
     </row>
-    <row r="650" ht="14.25" customHeight="1">
+    <row r="650" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="10"/>
       <c r="B650" s="11"/>
       <c r="E650" s="11"/>
     </row>
-    <row r="651" ht="14.25" customHeight="1">
+    <row r="651" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="10"/>
       <c r="B651" s="11"/>
       <c r="E651" s="11"/>
     </row>
-    <row r="652" ht="14.25" customHeight="1">
+    <row r="652" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="10"/>
       <c r="B652" s="11"/>
       <c r="E652" s="11"/>
     </row>
-    <row r="653" ht="14.25" customHeight="1">
+    <row r="653" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="10"/>
       <c r="B653" s="11"/>
       <c r="E653" s="11"/>
     </row>
-    <row r="654" ht="14.25" customHeight="1">
+    <row r="654" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="10"/>
       <c r="B654" s="11"/>
       <c r="E654" s="11"/>
     </row>
-    <row r="655" ht="14.25" customHeight="1">
+    <row r="655" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="10"/>
       <c r="B655" s="11"/>
       <c r="E655" s="11"/>
     </row>
-    <row r="656" ht="14.25" customHeight="1">
+    <row r="656" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="10"/>
       <c r="B656" s="11"/>
       <c r="E656" s="11"/>
     </row>
-    <row r="657" ht="14.25" customHeight="1">
+    <row r="657" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="10"/>
       <c r="B657" s="11"/>
       <c r="E657" s="11"/>
     </row>
-    <row r="658" ht="14.25" customHeight="1">
+    <row r="658" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="10"/>
       <c r="B658" s="11"/>
       <c r="E658" s="11"/>
     </row>
-    <row r="659" ht="14.25" customHeight="1">
+    <row r="659" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="10"/>
       <c r="B659" s="11"/>
       <c r="E659" s="11"/>
     </row>
-    <row r="660" ht="14.25" customHeight="1">
+    <row r="660" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="10"/>
       <c r="B660" s="11"/>
       <c r="E660" s="11"/>
     </row>
-    <row r="661" ht="14.25" customHeight="1">
+    <row r="661" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="10"/>
       <c r="B661" s="11"/>
       <c r="E661" s="11"/>
     </row>
-    <row r="662" ht="14.25" customHeight="1">
+    <row r="662" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="10"/>
       <c r="B662" s="11"/>
       <c r="E662" s="11"/>
     </row>
-    <row r="663" ht="14.25" customHeight="1">
+    <row r="663" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="10"/>
       <c r="B663" s="11"/>
       <c r="E663" s="11"/>
     </row>
-    <row r="664" ht="14.25" customHeight="1">
+    <row r="664" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="10"/>
       <c r="B664" s="11"/>
       <c r="E664" s="11"/>
     </row>
-    <row r="665" ht="14.25" customHeight="1">
+    <row r="665" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="10"/>
       <c r="B665" s="11"/>
       <c r="E665" s="11"/>
     </row>
-    <row r="666" ht="14.25" customHeight="1">
+    <row r="666" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="10"/>
       <c r="B666" s="11"/>
       <c r="E666" s="11"/>
     </row>
-    <row r="667" ht="14.25" customHeight="1">
+    <row r="667" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="10"/>
       <c r="B667" s="11"/>
       <c r="E667" s="11"/>
     </row>
-    <row r="668" ht="14.25" customHeight="1">
+    <row r="668" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="10"/>
       <c r="B668" s="11"/>
       <c r="E668" s="11"/>
     </row>
-    <row r="669" ht="14.25" customHeight="1">
+    <row r="669" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="10"/>
       <c r="B669" s="11"/>
       <c r="E669" s="11"/>
     </row>
-    <row r="670" ht="14.25" customHeight="1">
+    <row r="670" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="10"/>
       <c r="B670" s="11"/>
       <c r="E670" s="11"/>
     </row>
-    <row r="671" ht="14.25" customHeight="1">
+    <row r="671" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="10"/>
       <c r="B671" s="11"/>
       <c r="E671" s="11"/>
     </row>
-    <row r="672" ht="14.25" customHeight="1">
+    <row r="672" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="10"/>
       <c r="B672" s="11"/>
       <c r="E672" s="11"/>
     </row>
-    <row r="673" ht="14.25" customHeight="1">
+    <row r="673" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="10"/>
       <c r="B673" s="11"/>
       <c r="E673" s="11"/>
     </row>
-    <row r="674" ht="14.25" customHeight="1">
+    <row r="674" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="10"/>
       <c r="B674" s="11"/>
       <c r="E674" s="11"/>
     </row>
-    <row r="675" ht="14.25" customHeight="1">
+    <row r="675" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="10"/>
       <c r="B675" s="11"/>
       <c r="E675" s="11"/>
     </row>
-    <row r="676" ht="14.25" customHeight="1">
+    <row r="676" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="10"/>
       <c r="B676" s="11"/>
       <c r="E676" s="11"/>
     </row>
-    <row r="677" ht="14.25" customHeight="1">
+    <row r="677" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="10"/>
       <c r="B677" s="11"/>
       <c r="E677" s="11"/>
     </row>
-    <row r="678" ht="14.25" customHeight="1">
+    <row r="678" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="10"/>
       <c r="B678" s="11"/>
       <c r="E678" s="11"/>
     </row>
-    <row r="679" ht="14.25" customHeight="1">
+    <row r="679" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="10"/>
       <c r="B679" s="11"/>
       <c r="E679" s="11"/>
     </row>
-    <row r="680" ht="14.25" customHeight="1">
+    <row r="680" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="10"/>
       <c r="B680" s="11"/>
       <c r="E680" s="11"/>
     </row>
-    <row r="681" ht="14.25" customHeight="1">
+    <row r="681" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="10"/>
       <c r="B681" s="11"/>
       <c r="E681" s="11"/>
     </row>
-    <row r="682" ht="14.25" customHeight="1">
+    <row r="682" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="10"/>
       <c r="B682" s="11"/>
       <c r="E682" s="11"/>
     </row>
-    <row r="683" ht="14.25" customHeight="1">
+    <row r="683" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="10"/>
       <c r="B683" s="11"/>
       <c r="E683" s="11"/>
     </row>
-    <row r="684" ht="14.25" customHeight="1">
+    <row r="684" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="10"/>
       <c r="B684" s="11"/>
       <c r="E684" s="11"/>
     </row>
-    <row r="685" ht="14.25" customHeight="1">
+    <row r="685" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="10"/>
       <c r="B685" s="11"/>
       <c r="E685" s="11"/>
     </row>
-    <row r="686" ht="14.25" customHeight="1">
+    <row r="686" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="10"/>
       <c r="B686" s="11"/>
       <c r="E686" s="11"/>
     </row>
-    <row r="687" ht="14.25" customHeight="1">
+    <row r="687" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="10"/>
       <c r="B687" s="11"/>
       <c r="E687" s="11"/>
     </row>
-    <row r="688" ht="14.25" customHeight="1">
+    <row r="688" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="10"/>
       <c r="B688" s="11"/>
       <c r="E688" s="11"/>
     </row>
-    <row r="689" ht="14.25" customHeight="1">
+    <row r="689" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="10"/>
       <c r="B689" s="11"/>
       <c r="E689" s="11"/>
     </row>
-    <row r="690" ht="14.25" customHeight="1">
+    <row r="690" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="10"/>
       <c r="B690" s="11"/>
       <c r="E690" s="11"/>
     </row>
-    <row r="691" ht="14.25" customHeight="1">
+    <row r="691" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="10"/>
       <c r="B691" s="11"/>
       <c r="E691" s="11"/>
     </row>
-    <row r="692" ht="14.25" customHeight="1">
+    <row r="692" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="10"/>
       <c r="B692" s="11"/>
       <c r="E692" s="11"/>
     </row>
-    <row r="693" ht="14.25" customHeight="1">
+    <row r="693" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="10"/>
       <c r="B693" s="11"/>
       <c r="E693" s="11"/>
     </row>
-    <row r="694" ht="14.25" customHeight="1">
+    <row r="694" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="10"/>
       <c r="B694" s="11"/>
       <c r="E694" s="11"/>
     </row>
-    <row r="695" ht="14.25" customHeight="1">
+    <row r="695" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="10"/>
       <c r="B695" s="11"/>
       <c r="E695" s="11"/>
     </row>
-    <row r="696" ht="14.25" customHeight="1">
+    <row r="696" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="10"/>
       <c r="B696" s="11"/>
       <c r="E696" s="11"/>
     </row>
-    <row r="697" ht="14.25" customHeight="1">
+    <row r="697" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="10"/>
       <c r="B697" s="11"/>
       <c r="E697" s="11"/>
     </row>
-    <row r="698" ht="14.25" customHeight="1">
+    <row r="698" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="10"/>
       <c r="B698" s="11"/>
       <c r="E698" s="11"/>
     </row>
-    <row r="699" ht="14.25" customHeight="1">
+    <row r="699" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="10"/>
       <c r="B699" s="11"/>
       <c r="E699" s="11"/>
     </row>
-    <row r="700" ht="14.25" customHeight="1">
+    <row r="700" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="10"/>
       <c r="B700" s="11"/>
       <c r="E700" s="11"/>
     </row>
-    <row r="701" ht="14.25" customHeight="1">
+    <row r="701" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="10"/>
       <c r="B701" s="11"/>
       <c r="E701" s="11"/>
     </row>
-    <row r="702" ht="14.25" customHeight="1">
+    <row r="702" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="10"/>
       <c r="B702" s="11"/>
       <c r="E702" s="11"/>
     </row>
-    <row r="703" ht="14.25" customHeight="1">
+    <row r="703" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="10"/>
       <c r="B703" s="11"/>
       <c r="E703" s="11"/>
     </row>
-    <row r="704" ht="14.25" customHeight="1">
+    <row r="704" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="10"/>
       <c r="B704" s="11"/>
       <c r="E704" s="11"/>
     </row>
-    <row r="705" ht="14.25" customHeight="1">
+    <row r="705" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="10"/>
       <c r="B705" s="11"/>
       <c r="E705" s="11"/>
     </row>
-    <row r="706" ht="14.25" customHeight="1">
+    <row r="706" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="10"/>
       <c r="B706" s="11"/>
       <c r="E706" s="11"/>
     </row>
-    <row r="707" ht="14.25" customHeight="1">
+    <row r="707" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="10"/>
       <c r="B707" s="11"/>
       <c r="E707" s="11"/>
     </row>
-    <row r="708" ht="14.25" customHeight="1">
+    <row r="708" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="10"/>
       <c r="B708" s="11"/>
       <c r="E708" s="11"/>
     </row>
-    <row r="709" ht="14.25" customHeight="1">
+    <row r="709" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="10"/>
       <c r="B709" s="11"/>
       <c r="E709" s="11"/>
     </row>
-    <row r="710" ht="14.25" customHeight="1">
+    <row r="710" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="10"/>
       <c r="B710" s="11"/>
       <c r="E710" s="11"/>
     </row>
-    <row r="711" ht="14.25" customHeight="1">
+    <row r="711" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="10"/>
       <c r="B711" s="11"/>
       <c r="E711" s="11"/>
     </row>
-    <row r="712" ht="14.25" customHeight="1">
+    <row r="712" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="10"/>
       <c r="B712" s="11"/>
       <c r="E712" s="11"/>
     </row>
-    <row r="713" ht="14.25" customHeight="1">
+    <row r="713" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="10"/>
       <c r="B713" s="11"/>
       <c r="E713" s="11"/>
     </row>
-    <row r="714" ht="14.25" customHeight="1">
+    <row r="714" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="10"/>
       <c r="B714" s="11"/>
       <c r="E714" s="11"/>
     </row>
-    <row r="715" ht="14.25" customHeight="1">
+    <row r="715" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="10"/>
       <c r="B715" s="11"/>
       <c r="E715" s="11"/>
     </row>
-    <row r="716" ht="14.25" customHeight="1">
+    <row r="716" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="10"/>
       <c r="B716" s="11"/>
       <c r="E716" s="11"/>
     </row>
-    <row r="717" ht="14.25" customHeight="1">
+    <row r="717" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="10"/>
       <c r="B717" s="11"/>
       <c r="E717" s="11"/>
     </row>
-    <row r="718" ht="14.25" customHeight="1">
+    <row r="718" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="10"/>
       <c r="B718" s="11"/>
       <c r="E718" s="11"/>
     </row>
-    <row r="719" ht="14.25" customHeight="1">
+    <row r="719" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="10"/>
       <c r="B719" s="11"/>
       <c r="E719" s="11"/>
     </row>
-    <row r="720" ht="14.25" customHeight="1">
+    <row r="720" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="10"/>
       <c r="B720" s="11"/>
       <c r="E720" s="11"/>
     </row>
-    <row r="721" ht="14.25" customHeight="1">
+    <row r="721" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="10"/>
       <c r="B721" s="11"/>
       <c r="E721" s="11"/>
     </row>
-    <row r="722" ht="14.25" customHeight="1">
+    <row r="722" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="10"/>
       <c r="B722" s="11"/>
       <c r="E722" s="11"/>
     </row>
-    <row r="723" ht="14.25" customHeight="1">
+    <row r="723" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="10"/>
       <c r="B723" s="11"/>
       <c r="E723" s="11"/>
     </row>
-    <row r="724" ht="14.25" customHeight="1">
+    <row r="724" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="10"/>
       <c r="B724" s="11"/>
       <c r="E724" s="11"/>
     </row>
-    <row r="725" ht="14.25" customHeight="1">
+    <row r="725" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="10"/>
       <c r="B725" s="11"/>
       <c r="E725" s="11"/>
     </row>
-    <row r="726" ht="14.25" customHeight="1">
+    <row r="726" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="10"/>
       <c r="B726" s="11"/>
       <c r="E726" s="11"/>
     </row>
-    <row r="727" ht="14.25" customHeight="1">
+    <row r="727" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="10"/>
       <c r="B727" s="11"/>
       <c r="E727" s="11"/>
     </row>
-    <row r="728" ht="14.25" customHeight="1">
+    <row r="728" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="10"/>
       <c r="B728" s="11"/>
       <c r="E728" s="11"/>
     </row>
-    <row r="729" ht="14.25" customHeight="1">
+    <row r="729" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="10"/>
       <c r="B729" s="11"/>
       <c r="E729" s="11"/>
     </row>
-    <row r="730" ht="14.25" customHeight="1">
+    <row r="730" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="10"/>
       <c r="B730" s="11"/>
       <c r="E730" s="11"/>
     </row>
-    <row r="731" ht="14.25" customHeight="1">
+    <row r="731" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="10"/>
       <c r="B731" s="11"/>
       <c r="E731" s="11"/>
     </row>
-    <row r="732" ht="14.25" customHeight="1">
+    <row r="732" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="10"/>
       <c r="B732" s="11"/>
       <c r="E732" s="11"/>
     </row>
-    <row r="733" ht="14.25" customHeight="1">
+    <row r="733" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="10"/>
       <c r="B733" s="11"/>
       <c r="E733" s="11"/>
     </row>
-    <row r="734" ht="14.25" customHeight="1">
+    <row r="734" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="10"/>
       <c r="B734" s="11"/>
       <c r="E734" s="11"/>
     </row>
-    <row r="735" ht="14.25" customHeight="1">
+    <row r="735" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="10"/>
       <c r="B735" s="11"/>
       <c r="E735" s="11"/>
     </row>
-    <row r="736" ht="14.25" customHeight="1">
+    <row r="736" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="10"/>
       <c r="B736" s="11"/>
       <c r="E736" s="11"/>
     </row>
-    <row r="737" ht="14.25" customHeight="1">
+    <row r="737" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="10"/>
       <c r="B737" s="11"/>
       <c r="E737" s="11"/>
     </row>
-    <row r="738" ht="14.25" customHeight="1">
+    <row r="738" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="10"/>
       <c r="B738" s="11"/>
       <c r="E738" s="11"/>
     </row>
-    <row r="739" ht="14.25" customHeight="1">
+    <row r="739" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="10"/>
       <c r="B739" s="11"/>
       <c r="E739" s="11"/>
     </row>
-    <row r="740" ht="14.25" customHeight="1">
+    <row r="740" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="10"/>
       <c r="B740" s="11"/>
       <c r="E740" s="11"/>
     </row>
-    <row r="741" ht="14.25" customHeight="1">
+    <row r="741" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="10"/>
       <c r="B741" s="11"/>
       <c r="E741" s="11"/>
     </row>
-    <row r="742" ht="14.25" customHeight="1">
+    <row r="742" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="10"/>
       <c r="B742" s="11"/>
       <c r="E742" s="11"/>
     </row>
-    <row r="743" ht="14.25" customHeight="1">
+    <row r="743" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="10"/>
       <c r="B743" s="11"/>
       <c r="E743" s="11"/>
     </row>
-    <row r="744" ht="14.25" customHeight="1">
+    <row r="744" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="10"/>
       <c r="B744" s="11"/>
       <c r="E744" s="11"/>
     </row>
-    <row r="745" ht="14.25" customHeight="1">
+    <row r="745" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="10"/>
       <c r="B745" s="11"/>
       <c r="E745" s="11"/>
     </row>
-    <row r="746" ht="14.25" customHeight="1">
+    <row r="746" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="10"/>
       <c r="B746" s="11"/>
       <c r="E746" s="11"/>
     </row>
-    <row r="747" ht="14.25" customHeight="1">
+    <row r="747" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="10"/>
       <c r="B747" s="11"/>
       <c r="E747" s="11"/>
     </row>
-    <row r="748" ht="14.25" customHeight="1">
+    <row r="748" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="10"/>
       <c r="B748" s="11"/>
       <c r="E748" s="11"/>
     </row>
-    <row r="749" ht="14.25" customHeight="1">
+    <row r="749" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="10"/>
       <c r="B749" s="11"/>
       <c r="E749" s="11"/>
     </row>
-    <row r="750" ht="14.25" customHeight="1">
+    <row r="750" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="10"/>
       <c r="B750" s="11"/>
       <c r="E750" s="11"/>
     </row>
-    <row r="751" ht="14.25" customHeight="1">
+    <row r="751" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="10"/>
       <c r="B751" s="11"/>
       <c r="E751" s="11"/>
     </row>
-    <row r="752" ht="14.25" customHeight="1">
+    <row r="752" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="10"/>
       <c r="B752" s="11"/>
       <c r="E752" s="11"/>
     </row>
-    <row r="753" ht="14.25" customHeight="1">
+    <row r="753" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="10"/>
       <c r="B753" s="11"/>
       <c r="E753" s="11"/>
     </row>
-    <row r="754" ht="14.25" customHeight="1">
+    <row r="754" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="10"/>
       <c r="B754" s="11"/>
       <c r="E754" s="11"/>
     </row>
-    <row r="755" ht="14.25" customHeight="1">
+    <row r="755" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="10"/>
       <c r="B755" s="11"/>
       <c r="E755" s="11"/>
     </row>
-    <row r="756" ht="14.25" customHeight="1">
+    <row r="756" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="10"/>
       <c r="B756" s="11"/>
       <c r="E756" s="11"/>
     </row>
-    <row r="757" ht="14.25" customHeight="1">
+    <row r="757" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="10"/>
       <c r="B757" s="11"/>
       <c r="E757" s="11"/>
     </row>
-    <row r="758" ht="14.25" customHeight="1">
+    <row r="758" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="10"/>
       <c r="B758" s="11"/>
       <c r="E758" s="11"/>
     </row>
-    <row r="759" ht="14.25" customHeight="1">
+    <row r="759" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="10"/>
       <c r="B759" s="11"/>
       <c r="E759" s="11"/>
     </row>
-    <row r="760" ht="14.25" customHeight="1">
+    <row r="760" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="10"/>
       <c r="B760" s="11"/>
       <c r="E760" s="11"/>
     </row>
-    <row r="761" ht="14.25" customHeight="1">
+    <row r="761" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="10"/>
       <c r="B761" s="11"/>
       <c r="E761" s="11"/>
     </row>
-    <row r="762" ht="14.25" customHeight="1">
+    <row r="762" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="10"/>
       <c r="B762" s="11"/>
       <c r="E762" s="11"/>
     </row>
-    <row r="763" ht="14.25" customHeight="1">
+    <row r="763" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="10"/>
       <c r="B763" s="11"/>
       <c r="E763" s="11"/>
     </row>
-    <row r="764" ht="14.25" customHeight="1">
+    <row r="764" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="10"/>
       <c r="B764" s="11"/>
       <c r="E764" s="11"/>
     </row>
-    <row r="765" ht="14.25" customHeight="1">
+    <row r="765" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="10"/>
       <c r="B765" s="11"/>
       <c r="E765" s="11"/>
     </row>
-    <row r="766" ht="14.25" customHeight="1">
+    <row r="766" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="10"/>
       <c r="B766" s="11"/>
       <c r="E766" s="11"/>
     </row>
-    <row r="767" ht="14.25" customHeight="1">
+    <row r="767" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="10"/>
       <c r="B767" s="11"/>
       <c r="E767" s="11"/>
     </row>
-    <row r="768" ht="14.25" customHeight="1">
+    <row r="768" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="10"/>
       <c r="B768" s="11"/>
       <c r="E768" s="11"/>
     </row>
-    <row r="769" ht="14.25" customHeight="1">
+    <row r="769" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="10"/>
       <c r="B769" s="11"/>
       <c r="E769" s="11"/>
     </row>
-    <row r="770" ht="14.25" customHeight="1">
+    <row r="770" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="10"/>
       <c r="B770" s="11"/>
       <c r="E770" s="11"/>
     </row>
-    <row r="771" ht="14.25" customHeight="1">
+    <row r="771" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="10"/>
       <c r="B771" s="11"/>
       <c r="E771" s="11"/>
     </row>
-    <row r="772" ht="14.25" customHeight="1">
+    <row r="772" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="10"/>
       <c r="B772" s="11"/>
       <c r="E772" s="11"/>
     </row>
-    <row r="773" ht="14.25" customHeight="1">
+    <row r="773" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="10"/>
       <c r="B773" s="11"/>
       <c r="E773" s="11"/>
     </row>
-    <row r="774" ht="14.25" customHeight="1">
+    <row r="774" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="10"/>
       <c r="B774" s="11"/>
       <c r="E774" s="11"/>
     </row>
-    <row r="775" ht="14.25" customHeight="1">
+    <row r="775" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="10"/>
       <c r="B775" s="11"/>
       <c r="E775" s="11"/>
     </row>
-    <row r="776" ht="14.25" customHeight="1">
+    <row r="776" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="10"/>
       <c r="B776" s="11"/>
       <c r="E776" s="11"/>
     </row>
-    <row r="777" ht="14.25" customHeight="1">
+    <row r="777" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="10"/>
       <c r="B777" s="11"/>
       <c r="E777" s="11"/>
     </row>
-    <row r="778" ht="14.25" customHeight="1">
+    <row r="778" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="10"/>
       <c r="B778" s="11"/>
       <c r="E778" s="11"/>
     </row>
-    <row r="779" ht="14.25" customHeight="1">
+    <row r="779" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="10"/>
       <c r="B779" s="11"/>
       <c r="E779" s="11"/>
     </row>
-    <row r="780" ht="14.25" customHeight="1">
+    <row r="780" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="10"/>
       <c r="B780" s="11"/>
       <c r="E780" s="11"/>
     </row>
-    <row r="781" ht="14.25" customHeight="1">
+    <row r="781" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="10"/>
       <c r="B781" s="11"/>
       <c r="E781" s="11"/>
     </row>
-    <row r="782" ht="14.25" customHeight="1">
+    <row r="782" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="10"/>
       <c r="B782" s="11"/>
       <c r="E782" s="11"/>
     </row>
-    <row r="783" ht="14.25" customHeight="1">
+    <row r="783" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="10"/>
       <c r="B783" s="11"/>
       <c r="E783" s="11"/>
     </row>
-    <row r="784" ht="14.25" customHeight="1">
+    <row r="784" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="10"/>
       <c r="B784" s="11"/>
       <c r="E784" s="11"/>
     </row>
-    <row r="785" ht="14.25" customHeight="1">
+    <row r="785" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="10"/>
       <c r="B785" s="11"/>
       <c r="E785" s="11"/>
     </row>
-    <row r="786" ht="14.25" customHeight="1">
+    <row r="786" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="10"/>
       <c r="B786" s="11"/>
       <c r="E786" s="11"/>
     </row>
-    <row r="787" ht="14.25" customHeight="1">
+    <row r="787" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="10"/>
       <c r="B787" s="11"/>
       <c r="E787" s="11"/>
     </row>
-    <row r="788" ht="14.25" customHeight="1">
+    <row r="788" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="10"/>
       <c r="B788" s="11"/>
       <c r="E788" s="11"/>
     </row>
-    <row r="789" ht="14.25" customHeight="1">
+    <row r="789" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="10"/>
       <c r="B789" s="11"/>
       <c r="E789" s="11"/>
     </row>
-    <row r="790" ht="14.25" customHeight="1">
+    <row r="790" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="10"/>
       <c r="B790" s="11"/>
       <c r="E790" s="11"/>
     </row>
-    <row r="791" ht="14.25" customHeight="1">
+    <row r="791" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="10"/>
       <c r="B791" s="11"/>
       <c r="E791" s="11"/>
     </row>
-    <row r="792" ht="14.25" customHeight="1">
+    <row r="792" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="10"/>
       <c r="B792" s="11"/>
       <c r="E792" s="11"/>
     </row>
-    <row r="793" ht="14.25" customHeight="1">
+    <row r="793" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="10"/>
       <c r="B793" s="11"/>
       <c r="E793" s="11"/>
     </row>
-    <row r="794" ht="14.25" customHeight="1">
+    <row r="794" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="10"/>
       <c r="B794" s="11"/>
       <c r="E794" s="11"/>
     </row>
-    <row r="795" ht="14.25" customHeight="1">
+    <row r="795" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="10"/>
       <c r="B795" s="11"/>
       <c r="E795" s="11"/>
     </row>
-    <row r="796" ht="14.25" customHeight="1">
+    <row r="796" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="10"/>
       <c r="B796" s="11"/>
       <c r="E796" s="11"/>
     </row>
-    <row r="797" ht="14.25" customHeight="1">
+    <row r="797" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="10"/>
       <c r="B797" s="11"/>
       <c r="E797" s="11"/>
     </row>
-    <row r="798" ht="14.25" customHeight="1">
+    <row r="798" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="10"/>
       <c r="B798" s="11"/>
       <c r="E798" s="11"/>
     </row>
-    <row r="799" ht="14.25" customHeight="1">
+    <row r="799" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="10"/>
       <c r="B799" s="11"/>
       <c r="E799" s="11"/>
     </row>
-    <row r="800" ht="14.25" customHeight="1">
+    <row r="800" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="10"/>
       <c r="B800" s="11"/>
       <c r="E800" s="11"/>
     </row>
-    <row r="801" ht="14.25" customHeight="1">
+    <row r="801" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="10"/>
       <c r="B801" s="11"/>
       <c r="E801" s="11"/>
     </row>
-    <row r="802" ht="14.25" customHeight="1">
+    <row r="802" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="10"/>
       <c r="B802" s="11"/>
       <c r="E802" s="11"/>
     </row>
-    <row r="803" ht="14.25" customHeight="1">
+    <row r="803" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="10"/>
       <c r="B803" s="11"/>
       <c r="E803" s="11"/>
     </row>
-    <row r="804" ht="14.25" customHeight="1">
+    <row r="804" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="10"/>
       <c r="B804" s="11"/>
       <c r="E804" s="11"/>
     </row>
-    <row r="805" ht="14.25" customHeight="1">
+    <row r="805" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="10"/>
       <c r="B805" s="11"/>
       <c r="E805" s="11"/>
     </row>
-    <row r="806" ht="14.25" customHeight="1">
+    <row r="806" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="10"/>
       <c r="B806" s="11"/>
       <c r="E806" s="11"/>
     </row>
-    <row r="807" ht="14.25" customHeight="1">
+    <row r="807" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="10"/>
       <c r="B807" s="11"/>
       <c r="E807" s="11"/>
     </row>
-    <row r="808" ht="14.25" customHeight="1">
+    <row r="808" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="10"/>
       <c r="B808" s="11"/>
       <c r="E808" s="11"/>
     </row>
-    <row r="809" ht="14.25" customHeight="1">
+    <row r="809" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="10"/>
       <c r="B809" s="11"/>
       <c r="E809" s="11"/>
     </row>
-    <row r="810" ht="14.25" customHeight="1">
+    <row r="810" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="10"/>
       <c r="B810" s="11"/>
       <c r="E810" s="11"/>
     </row>
-    <row r="811" ht="14.25" customHeight="1">
+    <row r="811" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="10"/>
       <c r="B811" s="11"/>
       <c r="E811" s="11"/>
     </row>
-    <row r="812" ht="14.25" customHeight="1">
+    <row r="812" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="10"/>
       <c r="B812" s="11"/>
       <c r="E812" s="11"/>
     </row>
-    <row r="813" ht="14.25" customHeight="1">
+    <row r="813" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="10"/>
       <c r="B813" s="11"/>
       <c r="E813" s="11"/>
     </row>
-    <row r="814" ht="14.25" customHeight="1">
+    <row r="814" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="10"/>
       <c r="B814" s="11"/>
       <c r="E814" s="11"/>
     </row>
-    <row r="815" ht="14.25" customHeight="1">
+    <row r="815" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="10"/>
       <c r="B815" s="11"/>
       <c r="E815" s="11"/>
     </row>
-    <row r="816" ht="14.25" customHeight="1">
+    <row r="816" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="10"/>
       <c r="B816" s="11"/>
       <c r="E816" s="11"/>
     </row>
-    <row r="817" ht="14.25" customHeight="1">
+    <row r="817" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="10"/>
       <c r="B817" s="11"/>
       <c r="E817" s="11"/>
     </row>
-    <row r="818" ht="14.25" customHeight="1">
+    <row r="818" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="10"/>
       <c r="B818" s="11"/>
       <c r="E818" s="11"/>
     </row>
-    <row r="819" ht="14.25" customHeight="1">
+    <row r="819" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="10"/>
       <c r="B819" s="11"/>
       <c r="E819" s="11"/>
     </row>
-    <row r="820" ht="14.25" customHeight="1">
+    <row r="820" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="10"/>
       <c r="B820" s="11"/>
       <c r="E820" s="11"/>
     </row>
-    <row r="821" ht="14.25" customHeight="1">
+    <row r="821" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="10"/>
       <c r="B821" s="11"/>
       <c r="E821" s="11"/>
     </row>
-    <row r="822" ht="14.25" customHeight="1">
+    <row r="822" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="10"/>
       <c r="B822" s="11"/>
       <c r="E822" s="11"/>
     </row>
-    <row r="823" ht="14.25" customHeight="1">
+    <row r="823" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="10"/>
       <c r="B823" s="11"/>
       <c r="E823" s="11"/>
     </row>
-    <row r="824" ht="14.25" customHeight="1">
+    <row r="824" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="10"/>
       <c r="B824" s="11"/>
       <c r="E824" s="11"/>
     </row>
-    <row r="825" ht="14.25" customHeight="1">
+    <row r="825" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="10"/>
       <c r="B825" s="11"/>
       <c r="E825" s="11"/>
     </row>
-    <row r="826" ht="14.25" customHeight="1">
+    <row r="826" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="10"/>
       <c r="B826" s="11"/>
       <c r="E826" s="11"/>
     </row>
-    <row r="827" ht="14.25" customHeight="1">
+    <row r="827" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="10"/>
       <c r="B827" s="11"/>
       <c r="E827" s="11"/>
     </row>
-    <row r="828" ht="14.25" customHeight="1">
+    <row r="828" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="10"/>
       <c r="B828" s="11"/>
       <c r="E828" s="11"/>
     </row>
-    <row r="829" ht="14.25" customHeight="1">
+    <row r="829" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="10"/>
       <c r="B829" s="11"/>
       <c r="E829" s="11"/>
     </row>
-    <row r="830" ht="14.25" customHeight="1">
+    <row r="830" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="10"/>
       <c r="B830" s="11"/>
       <c r="E830" s="11"/>
     </row>
-    <row r="831" ht="14.25" customHeight="1">
+    <row r="831" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="10"/>
       <c r="B831" s="11"/>
       <c r="E831" s="11"/>
     </row>
-    <row r="832" ht="14.25" customHeight="1">
+    <row r="832" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="10"/>
       <c r="B832" s="11"/>
       <c r="E832" s="11"/>
     </row>
-    <row r="833" ht="14.25" customHeight="1">
+    <row r="833" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="10"/>
       <c r="B833" s="11"/>
       <c r="E833" s="11"/>
     </row>
-    <row r="834" ht="14.25" customHeight="1">
+    <row r="834" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="10"/>
       <c r="B834" s="11"/>
       <c r="E834" s="11"/>
     </row>
-    <row r="835" ht="14.25" customHeight="1">
+    <row r="835" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="10"/>
       <c r="B835" s="11"/>
       <c r="E835" s="11"/>
     </row>
-    <row r="836" ht="14.25" customHeight="1">
+    <row r="836" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="10"/>
       <c r="B836" s="11"/>
       <c r="E836" s="11"/>
     </row>
-    <row r="837" ht="14.25" customHeight="1">
+    <row r="837" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="10"/>
       <c r="B837" s="11"/>
       <c r="E837" s="11"/>
     </row>
-    <row r="838" ht="14.25" customHeight="1">
+    <row r="838" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="10"/>
       <c r="B838" s="11"/>
       <c r="E838" s="11"/>
     </row>
-    <row r="839" ht="14.25" customHeight="1">
+    <row r="839" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="10"/>
       <c r="B839" s="11"/>
       <c r="E839" s="11"/>
     </row>
-    <row r="840" ht="14.25" customHeight="1">
+    <row r="840" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="10"/>
       <c r="B840" s="11"/>
       <c r="E840" s="11"/>
     </row>
-    <row r="841" ht="14.25" customHeight="1">
+    <row r="841" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="10"/>
       <c r="B841" s="11"/>
       <c r="E841" s="11"/>
     </row>
-    <row r="842" ht="14.25" customHeight="1">
+    <row r="842" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="10"/>
       <c r="B842" s="11"/>
       <c r="E842" s="11"/>
     </row>
-    <row r="843" ht="14.25" customHeight="1">
+    <row r="843" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="10"/>
       <c r="B843" s="11"/>
       <c r="E843" s="11"/>
     </row>
-    <row r="844" ht="14.25" customHeight="1">
+    <row r="844" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="10"/>
       <c r="B844" s="11"/>
       <c r="E844" s="11"/>
     </row>
-    <row r="845" ht="14.25" customHeight="1">
+    <row r="845" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="10"/>
       <c r="B845" s="11"/>
       <c r="E845" s="11"/>
     </row>
-    <row r="846" ht="14.25" customHeight="1">
+    <row r="846" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="10"/>
       <c r="B846" s="11"/>
       <c r="E846" s="11"/>
     </row>
-    <row r="847" ht="14.25" customHeight="1">
+    <row r="847" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="10"/>
       <c r="B847" s="11"/>
       <c r="E847" s="11"/>
     </row>
-    <row r="848" ht="14.25" customHeight="1">
+    <row r="848" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="10"/>
       <c r="B848" s="11"/>
       <c r="E848" s="11"/>
     </row>
-    <row r="849" ht="14.25" customHeight="1">
+    <row r="849" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="10"/>
       <c r="B849" s="11"/>
       <c r="E849" s="11"/>
     </row>
-    <row r="850" ht="14.25" customHeight="1">
+    <row r="850" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="10"/>
       <c r="B850" s="11"/>
       <c r="E850" s="11"/>
     </row>
-    <row r="851" ht="14.25" customHeight="1">
+    <row r="851" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="10"/>
       <c r="B851" s="11"/>
       <c r="E851" s="11"/>
     </row>
-    <row r="852" ht="14.25" customHeight="1">
+    <row r="852" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="10"/>
       <c r="B852" s="11"/>
       <c r="E852" s="11"/>
     </row>
-    <row r="853" ht="14.25" customHeight="1">
+    <row r="853" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="10"/>
       <c r="B853" s="11"/>
       <c r="E853" s="11"/>
     </row>
-    <row r="854" ht="14.25" customHeight="1">
+    <row r="854" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="10"/>
       <c r="B854" s="11"/>
       <c r="E854" s="11"/>
     </row>
-    <row r="855" ht="14.25" customHeight="1">
+    <row r="855" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="10"/>
       <c r="B855" s="11"/>
       <c r="E855" s="11"/>
     </row>
-    <row r="856" ht="14.25" customHeight="1">
+    <row r="856" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="10"/>
       <c r="B856" s="11"/>
       <c r="E856" s="11"/>
     </row>
-    <row r="857" ht="14.25" customHeight="1">
+    <row r="857" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="10"/>
       <c r="B857" s="11"/>
       <c r="E857" s="11"/>
     </row>
-    <row r="858" ht="14.25" customHeight="1">
+    <row r="858" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="10"/>
       <c r="B858" s="11"/>
       <c r="E858" s="11"/>
     </row>
-    <row r="859" ht="14.25" customHeight="1">
+    <row r="859" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="10"/>
       <c r="B859" s="11"/>
       <c r="E859" s="11"/>
     </row>
-    <row r="860" ht="14.25" customHeight="1">
+    <row r="860" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="10"/>
       <c r="B860" s="11"/>
       <c r="E860" s="11"/>
     </row>
-    <row r="861" ht="14.25" customHeight="1">
+    <row r="861" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="10"/>
       <c r="B861" s="11"/>
       <c r="E861" s="11"/>
     </row>
-    <row r="862" ht="14.25" customHeight="1">
+    <row r="862" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="10"/>
       <c r="B862" s="11"/>
       <c r="E862" s="11"/>
     </row>
-    <row r="863" ht="14.25" customHeight="1">
+    <row r="863" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="10"/>
       <c r="B863" s="11"/>
       <c r="E863" s="11"/>
     </row>
-    <row r="864" ht="14.25" customHeight="1">
+    <row r="864" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="10"/>
       <c r="B864" s="11"/>
       <c r="E864" s="11"/>
     </row>
-    <row r="865" ht="14.25" customHeight="1">
+    <row r="865" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="10"/>
       <c r="B865" s="11"/>
       <c r="E865" s="11"/>
     </row>
-    <row r="866" ht="14.25" customHeight="1">
+    <row r="866" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="10"/>
       <c r="B866" s="11"/>
       <c r="E866" s="11"/>
     </row>
-    <row r="867" ht="14.25" customHeight="1">
+    <row r="867" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="10"/>
       <c r="B867" s="11"/>
       <c r="E867" s="11"/>
     </row>
-    <row r="868" ht="14.25" customHeight="1">
+    <row r="868" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="10"/>
       <c r="B868" s="11"/>
       <c r="E868" s="11"/>
     </row>
-    <row r="869" ht="14.25" customHeight="1">
+    <row r="869" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="10"/>
       <c r="B869" s="11"/>
       <c r="E869" s="11"/>
     </row>
-    <row r="870" ht="14.25" customHeight="1">
+    <row r="870" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="10"/>
       <c r="B870" s="11"/>
       <c r="E870" s="11"/>
     </row>
-    <row r="871" ht="14.25" customHeight="1">
+    <row r="871" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="10"/>
       <c r="B871" s="11"/>
       <c r="E871" s="11"/>
     </row>
-    <row r="872" ht="14.25" customHeight="1">
+    <row r="872" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="10"/>
       <c r="B872" s="11"/>
       <c r="E872" s="11"/>
     </row>
-    <row r="873" ht="14.25" customHeight="1">
+    <row r="873" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="10"/>
       <c r="B873" s="11"/>
       <c r="E873" s="11"/>
     </row>
-    <row r="874" ht="14.25" customHeight="1">
+    <row r="874" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="10"/>
       <c r="B874" s="11"/>
       <c r="E874" s="11"/>
     </row>
-    <row r="875" ht="14.25" customHeight="1">
+    <row r="875" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="10"/>
       <c r="B875" s="11"/>
       <c r="E875" s="11"/>
     </row>
-    <row r="876" ht="14.25" customHeight="1">
+    <row r="876" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="10"/>
       <c r="B876" s="11"/>
       <c r="E876" s="11"/>
     </row>
-    <row r="877" ht="14.25" customHeight="1">
+    <row r="877" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="10"/>
       <c r="B877" s="11"/>
       <c r="E877" s="11"/>
     </row>
-    <row r="878" ht="14.25" customHeight="1">
+    <row r="878" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="10"/>
       <c r="B878" s="11"/>
       <c r="E878" s="11"/>
     </row>
-    <row r="879" ht="14.25" customHeight="1">
+    <row r="879" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="10"/>
       <c r="B879" s="11"/>
       <c r="E879" s="11"/>
     </row>
-    <row r="880" ht="14.25" customHeight="1">
+    <row r="880" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="10"/>
       <c r="B880" s="11"/>
       <c r="E880" s="11"/>
     </row>
-    <row r="881" ht="14.25" customHeight="1">
+    <row r="881" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="10"/>
       <c r="B881" s="11"/>
       <c r="E881" s="11"/>
     </row>
-    <row r="882" ht="14.25" customHeight="1">
+    <row r="882" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="10"/>
       <c r="B882" s="11"/>
       <c r="E882" s="11"/>
     </row>
-    <row r="883" ht="14.25" customHeight="1">
+    <row r="883" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="10"/>
       <c r="B883" s="11"/>
       <c r="E883" s="11"/>
     </row>
-    <row r="884" ht="14.25" customHeight="1">
+    <row r="884" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="10"/>
       <c r="B884" s="11"/>
       <c r="E884" s="11"/>
     </row>
-    <row r="885" ht="14.25" customHeight="1">
+    <row r="885" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="10"/>
       <c r="B885" s="11"/>
       <c r="E885" s="11"/>
     </row>
-    <row r="886" ht="14.25" customHeight="1">
+    <row r="886" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="10"/>
       <c r="B886" s="11"/>
       <c r="E886" s="11"/>
     </row>
-    <row r="887" ht="14.25" customHeight="1">
+    <row r="887" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="10"/>
       <c r="B887" s="11"/>
       <c r="E887" s="11"/>
     </row>
-    <row r="888" ht="14.25" customHeight="1">
+    <row r="888" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="10"/>
       <c r="B888" s="11"/>
       <c r="E888" s="11"/>
     </row>
-    <row r="889" ht="14.25" customHeight="1">
+    <row r="889" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="10"/>
       <c r="B889" s="11"/>
       <c r="E889" s="11"/>
     </row>
-    <row r="890" ht="14.25" customHeight="1">
+    <row r="890" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="10"/>
       <c r="B890" s="11"/>
       <c r="E890" s="11"/>
     </row>
-    <row r="891" ht="14.25" customHeight="1">
+    <row r="891" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="10"/>
       <c r="B891" s="11"/>
       <c r="E891" s="11"/>
     </row>
-    <row r="892" ht="14.25" customHeight="1">
+    <row r="892" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="10"/>
       <c r="B892" s="11"/>
       <c r="E892" s="11"/>
     </row>
-    <row r="893" ht="14.25" customHeight="1">
+    <row r="893" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="10"/>
       <c r="B893" s="11"/>
       <c r="E893" s="11"/>
     </row>
-    <row r="894" ht="14.25" customHeight="1">
+    <row r="894" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="10"/>
       <c r="B894" s="11"/>
       <c r="E894" s="11"/>
     </row>
-    <row r="895" ht="14.25" customHeight="1">
+    <row r="895" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="10"/>
       <c r="B895" s="11"/>
       <c r="E895" s="11"/>
     </row>
-    <row r="896" ht="14.25" customHeight="1">
+    <row r="896" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="10"/>
       <c r="B896" s="11"/>
       <c r="E896" s="11"/>
     </row>
-    <row r="897" ht="14.25" customHeight="1">
+    <row r="897" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="10"/>
       <c r="B897" s="11"/>
       <c r="E897" s="11"/>
     </row>
-    <row r="898" ht="14.25" customHeight="1">
+    <row r="898" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="10"/>
       <c r="B898" s="11"/>
       <c r="E898" s="11"/>
     </row>
-    <row r="899" ht="14.25" customHeight="1">
+    <row r="899" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="10"/>
       <c r="B899" s="11"/>
       <c r="E899" s="11"/>
     </row>
-    <row r="900" ht="14.25" customHeight="1">
+    <row r="900" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="10"/>
       <c r="B900" s="11"/>
       <c r="E900" s="11"/>
     </row>
-    <row r="901" ht="14.25" customHeight="1">
+    <row r="901" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="10"/>
       <c r="B901" s="11"/>
       <c r="E901" s="11"/>
     </row>
-    <row r="902" ht="14.25" customHeight="1">
+    <row r="902" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="10"/>
       <c r="B902" s="11"/>
       <c r="E902" s="11"/>
     </row>
-    <row r="903" ht="14.25" customHeight="1">
+    <row r="903" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="10"/>
       <c r="B903" s="11"/>
       <c r="E903" s="11"/>
     </row>
-    <row r="904" ht="14.25" customHeight="1">
+    <row r="904" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="10"/>
       <c r="B904" s="11"/>
       <c r="E904" s="11"/>
     </row>
-    <row r="905" ht="14.25" customHeight="1">
+    <row r="905" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="10"/>
       <c r="B905" s="11"/>
       <c r="E905" s="11"/>
     </row>
-    <row r="906" ht="14.25" customHeight="1">
+    <row r="906" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="10"/>
       <c r="B906" s="11"/>
       <c r="E906" s="11"/>
     </row>
-    <row r="907" ht="14.25" customHeight="1">
+    <row r="907" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="10"/>
       <c r="B907" s="11"/>
       <c r="E907" s="11"/>
     </row>
-    <row r="908" ht="14.25" customHeight="1">
+    <row r="908" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="10"/>
       <c r="B908" s="11"/>
       <c r="E908" s="11"/>
     </row>
-    <row r="909" ht="14.25" customHeight="1">
+    <row r="909" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="10"/>
       <c r="B909" s="11"/>
       <c r="E909" s="11"/>
     </row>
-    <row r="910" ht="14.25" customHeight="1">
+    <row r="910" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="10"/>
       <c r="B910" s="11"/>
       <c r="E910" s="11"/>
     </row>
-    <row r="911" ht="14.25" customHeight="1">
+    <row r="911" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="10"/>
       <c r="B911" s="11"/>
       <c r="E911" s="11"/>
     </row>
-    <row r="912" ht="14.25" customHeight="1">
+    <row r="912" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="10"/>
       <c r="B912" s="11"/>
       <c r="E912" s="11"/>
     </row>
-    <row r="913" ht="14.25" customHeight="1">
+    <row r="913" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="10"/>
       <c r="B913" s="11"/>
       <c r="E913" s="11"/>
     </row>
-    <row r="914" ht="14.25" customHeight="1">
+    <row r="914" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="10"/>
       <c r="B914" s="11"/>
       <c r="E914" s="11"/>
     </row>
-    <row r="915" ht="14.25" customHeight="1">
+    <row r="915" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="10"/>
       <c r="B915" s="11"/>
       <c r="E915" s="11"/>
     </row>
-    <row r="916" ht="14.25" customHeight="1">
+    <row r="916" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="10"/>
       <c r="B916" s="11"/>
       <c r="E916" s="11"/>
     </row>
-    <row r="917" ht="14.25" customHeight="1">
+    <row r="917" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="10"/>
       <c r="B917" s="11"/>
       <c r="E917" s="11"/>
     </row>
-    <row r="918" ht="14.25" customHeight="1">
+    <row r="918" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="10"/>
       <c r="B918" s="11"/>
       <c r="E918" s="11"/>
     </row>
-    <row r="919" ht="14.25" customHeight="1">
+    <row r="919" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="10"/>
       <c r="B919" s="11"/>
       <c r="E919" s="11"/>
     </row>
-    <row r="920" ht="14.25" customHeight="1">
+    <row r="920" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="10"/>
       <c r="B920" s="11"/>
       <c r="E920" s="11"/>
     </row>
-    <row r="921" ht="14.25" customHeight="1">
+    <row r="921" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="10"/>
       <c r="B921" s="11"/>
       <c r="E921" s="11"/>
     </row>
-    <row r="922" ht="14.25" customHeight="1">
+    <row r="922" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="10"/>
       <c r="B922" s="11"/>
       <c r="E922" s="11"/>
     </row>
-    <row r="923" ht="14.25" customHeight="1">
+    <row r="923" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="10"/>
       <c r="B923" s="11"/>
       <c r="E923" s="11"/>
     </row>
-    <row r="924" ht="14.25" customHeight="1">
+    <row r="924" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="10"/>
       <c r="B924" s="11"/>
       <c r="E924" s="11"/>
     </row>
-    <row r="925" ht="14.25" customHeight="1">
+    <row r="925" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="10"/>
       <c r="B925" s="11"/>
       <c r="E925" s="11"/>
     </row>
-    <row r="926" ht="14.25" customHeight="1">
+    <row r="926" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="10"/>
       <c r="B926" s="11"/>
       <c r="E926" s="11"/>
     </row>
-    <row r="927" ht="14.25" customHeight="1">
+    <row r="927" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="10"/>
       <c r="B927" s="11"/>
       <c r="E927" s="11"/>
     </row>
-    <row r="928" ht="14.25" customHeight="1">
+    <row r="928" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="10"/>
       <c r="B928" s="11"/>
       <c r="E928" s="11"/>
     </row>
-    <row r="929" ht="14.25" customHeight="1">
+    <row r="929" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="10"/>
       <c r="B929" s="11"/>
       <c r="E929" s="11"/>
     </row>
-    <row r="930" ht="14.25" customHeight="1">
+    <row r="930" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="10"/>
       <c r="B930" s="11"/>
       <c r="E930" s="11"/>
     </row>
-    <row r="931" ht="14.25" customHeight="1">
+    <row r="931" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="10"/>
       <c r="B931" s="11"/>
       <c r="E931" s="11"/>
     </row>
-    <row r="932" ht="14.25" customHeight="1">
+    <row r="932" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="10"/>
       <c r="B932" s="11"/>
       <c r="E932" s="11"/>
     </row>
-    <row r="933" ht="14.25" customHeight="1">
+    <row r="933" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="10"/>
       <c r="B933" s="11"/>
       <c r="E933" s="11"/>
     </row>
-    <row r="934" ht="14.25" customHeight="1">
+    <row r="934" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="10"/>
       <c r="B934" s="11"/>
       <c r="E934" s="11"/>
     </row>
-    <row r="935" ht="14.25" customHeight="1">
+    <row r="935" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="10"/>
       <c r="B935" s="11"/>
       <c r="E935" s="11"/>
     </row>
-    <row r="936" ht="14.25" customHeight="1">
+    <row r="936" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="10"/>
       <c r="B936" s="11"/>
       <c r="E936" s="11"/>
     </row>
-    <row r="937" ht="14.25" customHeight="1">
+    <row r="937" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="10"/>
       <c r="B937" s="11"/>
       <c r="E937" s="11"/>
     </row>
-    <row r="938" ht="14.25" customHeight="1">
+    <row r="938" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="10"/>
       <c r="B938" s="11"/>
       <c r="E938" s="11"/>
     </row>
-    <row r="939" ht="14.25" customHeight="1">
+    <row r="939" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="10"/>
       <c r="B939" s="11"/>
       <c r="E939" s="11"/>
     </row>
-    <row r="940" ht="14.25" customHeight="1">
+    <row r="940" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="10"/>
       <c r="B940" s="11"/>
       <c r="E940" s="11"/>
     </row>
-    <row r="941" ht="14.25" customHeight="1">
+    <row r="941" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="10"/>
       <c r="B941" s="11"/>
       <c r="E941" s="11"/>
     </row>
-    <row r="942" ht="14.25" customHeight="1">
+    <row r="942" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="10"/>
       <c r="B942" s="11"/>
       <c r="E942" s="11"/>
     </row>
-    <row r="943" ht="14.25" customHeight="1">
+    <row r="943" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="10"/>
       <c r="B943" s="11"/>
       <c r="E943" s="11"/>
     </row>
-    <row r="944" ht="14.25" customHeight="1">
+    <row r="944" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="10"/>
       <c r="B944" s="11"/>
       <c r="E944" s="11"/>
     </row>
-    <row r="945" ht="14.25" customHeight="1">
+    <row r="945" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="10"/>
       <c r="B945" s="11"/>
       <c r="E945" s="11"/>
     </row>
-    <row r="946" ht="14.25" customHeight="1">
+    <row r="946" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="10"/>
       <c r="B946" s="11"/>
       <c r="E946" s="11"/>
     </row>
-    <row r="947" ht="14.25" customHeight="1">
+    <row r="947" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="10"/>
       <c r="B947" s="11"/>
       <c r="E947" s="11"/>
     </row>
-    <row r="948" ht="14.25" customHeight="1">
+    <row r="948" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="10"/>
       <c r="B948" s="11"/>
       <c r="E948" s="11"/>
     </row>
-    <row r="949" ht="14.25" customHeight="1">
+    <row r="949" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="10"/>
       <c r="B949" s="11"/>
       <c r="E949" s="11"/>
     </row>
-    <row r="950" ht="14.25" customHeight="1">
+    <row r="950" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="10"/>
       <c r="B950" s="11"/>
       <c r="E950" s="11"/>
     </row>
-    <row r="951" ht="14.25" customHeight="1">
+    <row r="951" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="10"/>
       <c r="B951" s="11"/>
       <c r="E951" s="11"/>
     </row>
-    <row r="952" ht="14.25" customHeight="1">
+    <row r="952" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="10"/>
       <c r="B952" s="11"/>
       <c r="E952" s="11"/>
     </row>
-    <row r="953" ht="14.25" customHeight="1">
+    <row r="953" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="10"/>
       <c r="B953" s="11"/>
       <c r="E953" s="11"/>
     </row>
-    <row r="954" ht="14.25" customHeight="1">
+    <row r="954" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="10"/>
       <c r="B954" s="11"/>
       <c r="E954" s="11"/>
     </row>
-    <row r="955" ht="14.25" customHeight="1">
+    <row r="955" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="10"/>
       <c r="B955" s="11"/>
       <c r="E955" s="11"/>
     </row>
-    <row r="956" ht="14.25" customHeight="1">
+    <row r="956" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="10"/>
       <c r="B956" s="11"/>
       <c r="E956" s="11"/>
     </row>
-    <row r="957" ht="14.25" customHeight="1">
+    <row r="957" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="10"/>
       <c r="B957" s="11"/>
       <c r="E957" s="11"/>
     </row>
-    <row r="958" ht="14.25" customHeight="1">
+    <row r="958" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="10"/>
       <c r="B958" s="11"/>
       <c r="E958" s="11"/>
     </row>
-    <row r="959" ht="14.25" customHeight="1">
+    <row r="959" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="10"/>
       <c r="B959" s="11"/>
       <c r="E959" s="11"/>
     </row>
-    <row r="960" ht="14.25" customHeight="1">
+    <row r="960" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="10"/>
       <c r="B960" s="11"/>
       <c r="E960" s="11"/>
     </row>
-    <row r="961" ht="14.25" customHeight="1">
+    <row r="961" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="10"/>
       <c r="B961" s="11"/>
       <c r="E961" s="11"/>
     </row>
-    <row r="962" ht="14.25" customHeight="1">
+    <row r="962" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="10"/>
       <c r="B962" s="11"/>
       <c r="E962" s="11"/>
     </row>
-    <row r="963" ht="14.25" customHeight="1">
+    <row r="963" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="10"/>
       <c r="B963" s="11"/>
       <c r="E963" s="11"/>
     </row>
-    <row r="964" ht="14.25" customHeight="1">
+    <row r="964" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="10"/>
       <c r="B964" s="11"/>
       <c r="E964" s="11"/>
     </row>
-    <row r="965" ht="14.25" customHeight="1">
+    <row r="965" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="10"/>
       <c r="B965" s="11"/>
       <c r="E965" s="11"/>
     </row>
-    <row r="966" ht="14.25" customHeight="1">
+    <row r="966" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="10"/>
       <c r="B966" s="11"/>
       <c r="E966" s="11"/>
     </row>
-    <row r="967" ht="14.25" customHeight="1">
+    <row r="967" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="10"/>
       <c r="B967" s="11"/>
       <c r="E967" s="11"/>
     </row>
-    <row r="968" ht="14.25" customHeight="1">
+    <row r="968" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="10"/>
       <c r="B968" s="11"/>
       <c r="E968" s="11"/>
     </row>
-    <row r="969" ht="14.25" customHeight="1">
+    <row r="969" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="10"/>
       <c r="B969" s="11"/>
       <c r="E969" s="11"/>
     </row>
-    <row r="970" ht="14.25" customHeight="1">
+    <row r="970" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="10"/>
       <c r="B970" s="11"/>
       <c r="E970" s="11"/>
     </row>
-    <row r="971" ht="14.25" customHeight="1">
+    <row r="971" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="10"/>
       <c r="B971" s="11"/>
       <c r="E971" s="11"/>
     </row>
-    <row r="972" ht="14.25" customHeight="1">
+    <row r="972" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="10"/>
       <c r="B972" s="11"/>
       <c r="E972" s="11"/>
     </row>
-    <row r="973" ht="14.25" customHeight="1">
+    <row r="973" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="10"/>
       <c r="B973" s="11"/>
       <c r="E973" s="11"/>
     </row>
-    <row r="974" ht="14.25" customHeight="1">
+    <row r="974" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="10"/>
       <c r="B974" s="11"/>
       <c r="E974" s="11"/>
     </row>
-    <row r="975" ht="14.25" customHeight="1">
+    <row r="975" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="10"/>
       <c r="B975" s="11"/>
       <c r="E975" s="11"/>
     </row>
-    <row r="976" ht="14.25" customHeight="1">
+    <row r="976" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="10"/>
       <c r="B976" s="11"/>
       <c r="E976" s="11"/>
     </row>
-    <row r="977" ht="14.25" customHeight="1">
+    <row r="977" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="10"/>
       <c r="B977" s="11"/>
       <c r="E977" s="11"/>
     </row>
-    <row r="978" ht="14.25" customHeight="1">
+    <row r="978" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="10"/>
       <c r="B978" s="11"/>
       <c r="E978" s="11"/>
     </row>
-    <row r="979" ht="14.25" customHeight="1">
+    <row r="979" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="10"/>
       <c r="B979" s="11"/>
       <c r="E979" s="11"/>
     </row>
-    <row r="980" ht="14.25" customHeight="1">
+    <row r="980" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="10"/>
       <c r="B980" s="11"/>
       <c r="E980" s="11"/>
     </row>
-    <row r="981" ht="14.25" customHeight="1">
+    <row r="981" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="10"/>
       <c r="B981" s="11"/>
       <c r="E981" s="11"/>
     </row>
-    <row r="982" ht="14.25" customHeight="1">
+    <row r="982" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="10"/>
       <c r="B982" s="11"/>
       <c r="E982" s="11"/>
     </row>
-    <row r="983" ht="14.25" customHeight="1">
+    <row r="983" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="10"/>
       <c r="B983" s="11"/>
       <c r="E983" s="11"/>
     </row>
-    <row r="984" ht="14.25" customHeight="1">
+    <row r="984" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="10"/>
       <c r="B984" s="11"/>
       <c r="E984" s="11"/>
     </row>
-    <row r="985" ht="14.25" customHeight="1">
+    <row r="985" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="10"/>
       <c r="B985" s="11"/>
       <c r="E985" s="11"/>
     </row>
-    <row r="986" ht="14.25" customHeight="1">
+    <row r="986" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="10"/>
       <c r="B986" s="11"/>
       <c r="E986" s="11"/>
     </row>
-    <row r="987" ht="14.25" customHeight="1">
+    <row r="987" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="10"/>
       <c r="B987" s="11"/>
       <c r="E987" s="11"/>
     </row>
-    <row r="988" ht="14.25" customHeight="1">
+    <row r="988" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="10"/>
       <c r="B988" s="11"/>
       <c r="E988" s="11"/>
     </row>
-    <row r="989" ht="14.25" customHeight="1">
+    <row r="989" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="10"/>
       <c r="B989" s="11"/>
       <c r="E989" s="11"/>
     </row>
-    <row r="990" ht="14.25" customHeight="1">
+    <row r="990" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="10"/>
       <c r="B990" s="11"/>
       <c r="E990" s="11"/>
     </row>
-    <row r="991" ht="14.25" customHeight="1">
+    <row r="991" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="10"/>
       <c r="B991" s="11"/>
       <c r="E991" s="11"/>
     </row>
-    <row r="992" ht="14.25" customHeight="1">
+    <row r="992" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="10"/>
       <c r="B992" s="11"/>
       <c r="E992" s="11"/>
     </row>
-    <row r="993" ht="14.25" customHeight="1">
+    <row r="993" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="10"/>
       <c r="B993" s="11"/>
       <c r="E993" s="11"/>
     </row>
-    <row r="994" ht="14.25" customHeight="1">
+    <row r="994" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="10"/>
       <c r="B994" s="11"/>
       <c r="E994" s="11"/>
     </row>
-    <row r="995" ht="14.25" customHeight="1">
+    <row r="995" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="10"/>
       <c r="B995" s="11"/>
       <c r="E995" s="11"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
+    <row r="996" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="10"/>
       <c r="B996" s="11"/>
       <c r="E996" s="11"/>
     </row>
-    <row r="997" ht="14.25" customHeight="1">
+    <row r="997" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="10"/>
       <c r="B997" s="11"/>
       <c r="E997" s="11"/>
     </row>
-    <row r="998" ht="14.25" customHeight="1">
+    <row r="998" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="10"/>
       <c r="B998" s="11"/>
       <c r="E998" s="11"/>
     </row>
-    <row r="999" ht="14.25" customHeight="1">
+    <row r="999" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="10"/>
       <c r="B999" s="11"/>
       <c r="E999" s="11"/>
     </row>
-    <row r="1000" ht="14.25" customHeight="1">
+    <row r="1000" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="10"/>
       <c r="B1000" s="11"/>
       <c r="E1000" s="11"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>